--- a/storage/history_0.xlsx
+++ b/storage/history_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
   <si>
     <t>car_point</t>
   </si>
@@ -58,12 +58,21 @@
     <t>A_XB2</t>
   </si>
   <si>
+    <t>A_DF2</t>
+  </si>
+  <si>
+    <t>B_DF1</t>
+  </si>
+  <si>
     <t>A_DF1</t>
   </si>
   <si>
     <t>A_XN1</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>A_XB3</t>
   </si>
   <si>
@@ -115,6 +124,12 @@
     <t>2018-01-09 00:00:00</t>
   </si>
   <si>
+    <t>2018-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2018-01-11 00:00:00</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -140,6 +155,18 @@
   </si>
   <si>
     <t>B_2</t>
+  </si>
+  <si>
+    <t>B_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t>B_4</t>
+  </si>
+  <si>
+    <t>A_13</t>
   </si>
 </sst>
 </file>
@@ -497,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>20.4</v>
@@ -596,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>57.90000000000001</v>
@@ -625,16 +652,16 @@
         <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -660,16 +687,16 @@
         <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,16 +722,16 @@
         <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,16 +757,16 @@
         <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J7">
         <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -756,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>490</v>
@@ -765,16 +792,16 @@
         <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>147</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -791,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>490</v>
@@ -800,16 +827,16 @@
         <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <v>147</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -826,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>490</v>
@@ -835,16 +862,16 @@
         <v>122.5</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>122.5</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -861,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>490</v>
@@ -870,16 +897,16 @@
         <v>122.5</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <v>122.5</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -896,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>490</v>
@@ -905,16 +932,16 @@
         <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J12">
         <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -931,7 +958,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <v>742</v>
@@ -940,16 +967,16 @@
         <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J13">
         <v>210</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -966,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>490</v>
@@ -975,16 +1002,16 @@
         <v>122.5</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J14">
         <v>122.5</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1001,7 +1028,7 @@
         <v>50.40000000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>742</v>
@@ -1010,16 +1037,16 @@
         <v>122.5</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J15">
         <v>172.9</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1030,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>50.5</v>
@@ -1045,16 +1072,16 @@
         <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <v>167.5</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1071,7 +1098,7 @@
         <v>110.5</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>932</v>
@@ -1080,16 +1107,16 @@
         <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J17">
         <v>257.5</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1106,7 +1133,7 @@
         <v>110.5</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>932</v>
@@ -1115,16 +1142,16 @@
         <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J18">
         <v>257.5</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1141,7 +1168,7 @@
         <v>50.40000000000001</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <v>742</v>
@@ -1150,16 +1177,331 @@
         <v>122.5</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J19">
         <v>172.9</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>932</v>
+      </c>
+      <c r="G20">
+        <v>122.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>210.9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>392</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21">
+        <v>108</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>50.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>402</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22">
+        <v>110.5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>38.40000000000001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>392</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>402</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>125.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>852</v>
+      </c>
+      <c r="G25">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>230.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>702</v>
+      </c>
+      <c r="G26">
+        <v>105</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>110.4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>902</v>
+      </c>
+      <c r="G27">
+        <v>87.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27">
+        <v>197.9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>702</v>
+      </c>
+      <c r="G28">
+        <v>87.5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28">
+        <v>157.9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/storage/history_0.xlsx
+++ b/storage/history_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
   <si>
     <t>car_point</t>
   </si>
@@ -49,31 +49,19 @@
     <t>id</t>
   </si>
   <si>
+    <t>B_DF2</t>
+  </si>
+  <si>
     <t>A_DF3</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>A_O</t>
   </si>
   <si>
-    <t>A_XB2</t>
-  </si>
-  <si>
-    <t>A_DF2</t>
-  </si>
-  <si>
-    <t>B_DF1</t>
-  </si>
-  <si>
-    <t>A_DF1</t>
-  </si>
-  <si>
-    <t>A_XN1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A_XB3</t>
+    <t>B_O</t>
   </si>
   <si>
     <t>1,2</t>
@@ -100,73 +88,34 @@
     <t>15,16</t>
   </si>
   <si>
-    <t>17,18</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>21,22</t>
-  </si>
-  <si>
-    <t>23,24</t>
-  </si>
-  <si>
-    <t>2018-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-01-03 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-01-05 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-01-09 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-01-07 00:00:00</t>
-  </si>
-  <si>
-    <t>2018-01-11 00:00:00</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A_7</t>
+    <t>2018-01-02 00:00:00</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>A_10</t>
+  </si>
+  <si>
+    <t>B_11</t>
+  </si>
+  <si>
+    <t>C_7</t>
   </si>
   <si>
     <t>A_1</t>
   </si>
   <si>
-    <t>B_7</t>
-  </si>
-  <si>
-    <t>B_1</t>
-  </si>
-  <si>
     <t>A_2</t>
   </si>
   <si>
     <t>A_3</t>
   </si>
   <si>
-    <t>B_2</t>
-  </si>
-  <si>
-    <t>B_3</t>
-  </si>
-  <si>
     <t>A_4</t>
   </si>
   <si>
-    <t>B_4</t>
-  </si>
-  <si>
-    <t>A_13</t>
+    <t>A_5</t>
   </si>
 </sst>
 </file>
@@ -524,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,767 +550,308 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>20.4</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>252</v>
-      </c>
-      <c r="G3">
-        <v>37.5</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3">
-        <v>57.90000000000001</v>
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>440</v>
-      </c>
-      <c r="G4">
-        <v>132</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>440</v>
-      </c>
-      <c r="G5">
-        <v>132</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>440</v>
-      </c>
-      <c r="G6">
-        <v>110</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6">
-        <v>110</v>
-      </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>440</v>
-      </c>
-      <c r="G7">
-        <v>110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>490</v>
-      </c>
-      <c r="G8">
-        <v>147</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>490</v>
-      </c>
-      <c r="G9">
-        <v>147</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>490</v>
-      </c>
-      <c r="G10">
-        <v>122.5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10">
-        <v>122.5</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>490</v>
-      </c>
-      <c r="G11">
-        <v>122.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11">
-        <v>122.5</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>490</v>
-      </c>
-      <c r="G12">
-        <v>147</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>742</v>
-      </c>
-      <c r="G13">
-        <v>147</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>490</v>
-      </c>
-      <c r="G14">
-        <v>122.5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14">
-        <v>122.5</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
       <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>50.40000000000001</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>742</v>
-      </c>
-      <c r="G15">
-        <v>122.5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15">
-        <v>172.9</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>50.5</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>592</v>
-      </c>
-      <c r="G16">
-        <v>117</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16">
-        <v>167.5</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>110.5</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <v>932</v>
-      </c>
-      <c r="G17">
-        <v>147</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17">
-        <v>257.5</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
       <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>110.5</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18">
-        <v>932</v>
-      </c>
-      <c r="G18">
-        <v>147</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18">
-        <v>257.5</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
       <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>50.40000000000001</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19">
-        <v>742</v>
-      </c>
-      <c r="G19">
-        <v>122.5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19">
-        <v>172.9</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
       <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>88.40000000000001</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>932</v>
-      </c>
-      <c r="G20">
-        <v>122.5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20">
-        <v>210.9</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
       <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <v>392</v>
-      </c>
-      <c r="G21">
-        <v>60</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
       <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>50.5</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22">
-        <v>402</v>
-      </c>
-      <c r="G22">
-        <v>60</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22">
-        <v>110.5</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
       <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>38.40000000000001</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>392</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23">
-        <v>88.40000000000001</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
       <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>40.40000000000001</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24">
-        <v>402</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24">
-        <v>90.40000000000001</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1369,34 +859,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>125.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>852</v>
+        <v>200</v>
       </c>
       <c r="G25">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J25">
-        <v>230.5</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1404,34 +894,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>702</v>
+        <v>200</v>
       </c>
       <c r="G26">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J26">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1439,34 +929,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
         <v>18</v>
       </c>
-      <c r="D27">
-        <v>110.4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27">
-        <v>902</v>
-      </c>
-      <c r="G27">
-        <v>87.5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J27">
-        <v>197.9</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1477,31 +967,171 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>250</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <v>75</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="F28">
-        <v>702</v>
-      </c>
-      <c r="G28">
-        <v>87.5</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>250</v>
+      </c>
+      <c r="G29">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
         <v>20</v>
       </c>
-      <c r="I28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28">
-        <v>157.9</v>
-      </c>
-      <c r="K28" t="s">
-        <v>49</v>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29">
+        <v>75</v>
+      </c>
+      <c r="K29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>250</v>
+      </c>
+      <c r="G30">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>75</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>250</v>
+      </c>
+      <c r="G31">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>75</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>250</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/storage/history_0.xlsx
+++ b/storage/history_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="171">
   <si>
     <t>car_point</t>
   </si>
@@ -91,6 +91,9 @@
     <t>A_XB2</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -385,6 +388,9 @@
     <t>2019-01-01 00:00:00</t>
   </si>
   <si>
+    <t>2018-11-29 00:00:00</t>
+  </si>
+  <si>
     <t>B_1</t>
   </si>
   <si>
@@ -515,6 +521,12 @@
   </si>
   <si>
     <t>C_5</t>
+  </si>
+  <si>
+    <t>C_6</t>
+  </si>
+  <si>
+    <t>ship</t>
   </si>
 </sst>
 </file>
@@ -872,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K359"/>
+  <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -968,16 +980,16 @@
         <v>62.5</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>72.90000000000001</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1003,16 +1015,16 @@
         <v>62.5</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4">
         <v>72.90000000000001</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1026,7 +1038,7 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1052,16 +1064,16 @@
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1087,16 +1099,16 @@
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1122,16 +1134,16 @@
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1157,16 +1169,16 @@
         <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1192,16 +1204,16 @@
         <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10">
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1227,16 +1239,16 @@
         <v>37.5</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>47.9</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1262,16 +1274,16 @@
         <v>37.5</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>47.9</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1285,7 +1297,7 @@
         <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1299,7 +1311,7 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1325,16 +1337,16 @@
         <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15">
         <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1360,16 +1372,16 @@
         <v>22.5</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16">
         <v>62.90000000000001</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1395,16 +1407,16 @@
         <v>22.5</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>52.90000000000001</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1418,7 +1430,7 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1444,16 +1456,16 @@
         <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1479,16 +1491,16 @@
         <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1514,16 +1526,16 @@
         <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1549,16 +1561,16 @@
         <v>37.5</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>37.5</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1572,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1586,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1612,16 +1624,16 @@
         <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1647,16 +1659,16 @@
         <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1682,16 +1694,16 @@
         <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1717,16 +1729,16 @@
         <v>37.5</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>37.5</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1740,7 +1752,7 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1766,16 +1778,16 @@
         <v>37.5</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>37.5</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1801,16 +1813,16 @@
         <v>37.5</v>
       </c>
       <c r="H31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>37.5</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1824,7 +1836,7 @@
         <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1838,7 +1850,7 @@
         <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1852,7 +1864,7 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1878,16 +1890,16 @@
         <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1913,16 +1925,16 @@
         <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>132.5</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1948,16 +1960,16 @@
         <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>132.5</v>
       </c>
       <c r="K37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1983,16 +1995,16 @@
         <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>132.5</v>
       </c>
       <c r="K38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2018,16 +2030,16 @@
         <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>132.5</v>
       </c>
       <c r="K39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2053,16 +2065,16 @@
         <v>72</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2088,16 +2100,16 @@
         <v>72</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>132.5</v>
       </c>
       <c r="K41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2123,16 +2135,16 @@
         <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>132.5</v>
       </c>
       <c r="K42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2158,16 +2170,16 @@
         <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>100.4</v>
       </c>
       <c r="K43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2193,16 +2205,16 @@
         <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>76.40000000000001</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2216,7 +2228,7 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2242,16 +2254,16 @@
         <v>72</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>132.5</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2277,16 +2289,16 @@
         <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>132.5</v>
       </c>
       <c r="K47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2312,16 +2324,16 @@
         <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>132.5</v>
       </c>
       <c r="K48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2347,16 +2359,16 @@
         <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>132.5</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2382,16 +2394,16 @@
         <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>132.5</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2417,16 +2429,16 @@
         <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>132.5</v>
       </c>
       <c r="K51" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2452,16 +2464,16 @@
         <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J52">
         <v>132.5</v>
       </c>
       <c r="K52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2487,16 +2499,16 @@
         <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>132.5</v>
       </c>
       <c r="K53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2522,16 +2534,16 @@
         <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>100.4</v>
       </c>
       <c r="K54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2557,16 +2569,16 @@
         <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>76.40000000000001</v>
       </c>
       <c r="K55" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2592,16 +2604,16 @@
         <v>60</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J56">
         <v>73</v>
       </c>
       <c r="K56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2627,16 +2639,16 @@
         <v>60</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>73</v>
       </c>
       <c r="K57" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2662,16 +2674,16 @@
         <v>50</v>
       </c>
       <c r="H58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2697,16 +2709,16 @@
         <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J59">
         <v>40.4</v>
       </c>
       <c r="K59" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2720,7 +2732,7 @@
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2746,16 +2758,16 @@
         <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J61">
         <v>72</v>
       </c>
       <c r="K61" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2781,16 +2793,16 @@
         <v>72</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J62">
         <v>72</v>
       </c>
       <c r="K62" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2816,16 +2828,16 @@
         <v>72</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J63">
         <v>132.5</v>
       </c>
       <c r="K63" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2851,16 +2863,16 @@
         <v>72</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J64">
         <v>132.5</v>
       </c>
       <c r="K64" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2886,16 +2898,16 @@
         <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J65">
         <v>132.5</v>
       </c>
       <c r="K65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2909,7 +2921,7 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2935,16 +2947,16 @@
         <v>60</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J67">
         <v>120.5</v>
       </c>
       <c r="K67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2970,16 +2982,16 @@
         <v>60</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J68">
         <v>110.5</v>
       </c>
       <c r="K68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3005,16 +3017,16 @@
         <v>60</v>
       </c>
       <c r="H69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J69">
         <v>120.5</v>
       </c>
       <c r="K69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3040,16 +3052,16 @@
         <v>60</v>
       </c>
       <c r="H70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J70">
         <v>110.5</v>
       </c>
       <c r="K70" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3075,16 +3087,16 @@
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J71">
         <v>120.5</v>
       </c>
       <c r="K71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3110,16 +3122,16 @@
         <v>60</v>
       </c>
       <c r="H72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J72">
         <v>110.5</v>
       </c>
       <c r="K72" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3145,16 +3157,16 @@
         <v>60</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J73">
         <v>110.5</v>
       </c>
       <c r="K73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3180,16 +3192,16 @@
         <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J74">
         <v>110.5</v>
       </c>
       <c r="K74" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3215,16 +3227,16 @@
         <v>50</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J75">
         <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3238,7 +3250,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3264,16 +3276,16 @@
         <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J77">
         <v>110.5</v>
       </c>
       <c r="K77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3299,16 +3311,16 @@
         <v>60</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J78">
         <v>110.5</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3334,16 +3346,16 @@
         <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J79">
         <v>110.5</v>
       </c>
       <c r="K79" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3369,16 +3381,16 @@
         <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J80">
         <v>110.5</v>
       </c>
       <c r="K80" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3404,16 +3416,16 @@
         <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J81">
         <v>110.5</v>
       </c>
       <c r="K81" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3427,7 +3439,7 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3453,16 +3465,16 @@
         <v>60</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>110.5</v>
       </c>
       <c r="K83" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3488,16 +3500,16 @@
         <v>60</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>110.5</v>
       </c>
       <c r="K84" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3523,16 +3535,16 @@
         <v>50</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J85">
         <v>90.40000000000001</v>
       </c>
       <c r="K85" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3558,16 +3570,16 @@
         <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3581,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3607,16 +3619,16 @@
         <v>50</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J88">
         <v>90.40000000000001</v>
       </c>
       <c r="K88" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3630,7 +3642,7 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3644,7 +3656,7 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3658,7 +3670,7 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3672,7 +3684,7 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3698,16 +3710,16 @@
         <v>60</v>
       </c>
       <c r="H93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>110.5</v>
       </c>
       <c r="K93" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3733,16 +3745,16 @@
         <v>60</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>110.5</v>
       </c>
       <c r="K94" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3768,16 +3780,16 @@
         <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J95">
         <v>110.5</v>
       </c>
       <c r="K95" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3803,16 +3815,16 @@
         <v>60</v>
       </c>
       <c r="H96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J96">
         <v>110.5</v>
       </c>
       <c r="K96" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3838,16 +3850,16 @@
         <v>60</v>
       </c>
       <c r="H97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J97">
         <v>120.5</v>
       </c>
       <c r="K97" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3873,16 +3885,16 @@
         <v>60</v>
       </c>
       <c r="H98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J98">
         <v>110.5</v>
       </c>
       <c r="K98" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3908,16 +3920,16 @@
         <v>50</v>
       </c>
       <c r="H99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J99">
         <v>90.40000000000001</v>
       </c>
       <c r="K99" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3943,16 +3955,16 @@
         <v>50</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J100">
         <v>90.40000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3966,7 +3978,7 @@
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3992,16 +4004,16 @@
         <v>60</v>
       </c>
       <c r="H102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J102">
         <v>110.5</v>
       </c>
       <c r="K102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4027,16 +4039,16 @@
         <v>60</v>
       </c>
       <c r="H103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>110.5</v>
       </c>
       <c r="K103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4062,16 +4074,16 @@
         <v>60</v>
       </c>
       <c r="H104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J104">
         <v>110.5</v>
       </c>
       <c r="K104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4097,16 +4109,16 @@
         <v>60</v>
       </c>
       <c r="H105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J105">
         <v>123</v>
       </c>
       <c r="K105" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4132,16 +4144,16 @@
         <v>30</v>
       </c>
       <c r="H106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J106">
         <v>70.40000000000001</v>
       </c>
       <c r="K106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4167,16 +4179,16 @@
         <v>30</v>
       </c>
       <c r="H107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J107">
         <v>78.40000000000001</v>
       </c>
       <c r="K107" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,7 +4202,7 @@
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4216,16 +4228,16 @@
         <v>75</v>
       </c>
       <c r="H109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>125.5</v>
       </c>
       <c r="K109" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4251,16 +4263,16 @@
         <v>75</v>
       </c>
       <c r="H110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J110">
         <v>125.5</v>
       </c>
       <c r="K110" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4286,16 +4298,16 @@
         <v>75</v>
       </c>
       <c r="H111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J111">
         <v>125.5</v>
       </c>
       <c r="K111" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4321,16 +4333,16 @@
         <v>75</v>
       </c>
       <c r="H112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>125.5</v>
       </c>
       <c r="K112" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4356,16 +4368,16 @@
         <v>62.5</v>
       </c>
       <c r="H113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I113" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J113">
         <v>102.9</v>
       </c>
       <c r="K113" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4391,16 +4403,16 @@
         <v>37.5</v>
       </c>
       <c r="H114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J114">
         <v>77.90000000000001</v>
       </c>
       <c r="K114" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4414,7 +4426,7 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4440,16 +4452,16 @@
         <v>75</v>
       </c>
       <c r="H116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>138</v>
       </c>
       <c r="K116" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4475,16 +4487,16 @@
         <v>75</v>
       </c>
       <c r="H117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J117">
         <v>138</v>
       </c>
       <c r="K117" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4510,16 +4522,16 @@
         <v>75</v>
       </c>
       <c r="H118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>288</v>
       </c>
       <c r="K118" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4545,16 +4557,16 @@
         <v>75</v>
       </c>
       <c r="H119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>138</v>
       </c>
       <c r="K119" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4580,16 +4592,16 @@
         <v>75</v>
       </c>
       <c r="H120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>288</v>
       </c>
       <c r="K120" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4615,16 +4627,16 @@
         <v>62.5</v>
       </c>
       <c r="H121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>102.9</v>
       </c>
       <c r="K121" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4650,16 +4662,16 @@
         <v>37.5</v>
       </c>
       <c r="H122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J122">
         <v>77.90000000000001</v>
       </c>
       <c r="K122" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4673,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4699,16 +4711,16 @@
         <v>75</v>
       </c>
       <c r="H124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I124" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J124">
         <v>125.5</v>
       </c>
       <c r="K124" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4734,16 +4746,16 @@
         <v>75</v>
       </c>
       <c r="H125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I125" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J125">
         <v>138</v>
       </c>
       <c r="K125" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4769,16 +4781,16 @@
         <v>75</v>
       </c>
       <c r="H126" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J126">
         <v>138</v>
       </c>
       <c r="K126" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4804,16 +4816,16 @@
         <v>75</v>
       </c>
       <c r="H127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I127" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J127">
         <v>138</v>
       </c>
       <c r="K127" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4839,16 +4851,16 @@
         <v>75</v>
       </c>
       <c r="H128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I128" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J128">
         <v>138</v>
       </c>
       <c r="K128" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4874,16 +4886,16 @@
         <v>62.5</v>
       </c>
       <c r="H129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J129">
         <v>102.9</v>
       </c>
       <c r="K129" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4909,16 +4921,16 @@
         <v>37.5</v>
       </c>
       <c r="H130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J130">
         <v>85.90000000000001</v>
       </c>
       <c r="K130" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4932,7 +4944,7 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -4958,16 +4970,16 @@
         <v>75</v>
       </c>
       <c r="H132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>138</v>
       </c>
       <c r="K132" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -4993,16 +5005,16 @@
         <v>75</v>
       </c>
       <c r="H133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>138</v>
       </c>
       <c r="K133" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5028,16 +5040,16 @@
         <v>62.5</v>
       </c>
       <c r="H134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>110.9</v>
       </c>
       <c r="K134" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5063,16 +5075,16 @@
         <v>37.5</v>
       </c>
       <c r="H135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J135">
         <v>87.90000000000001</v>
       </c>
       <c r="K135" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5086,7 +5098,7 @@
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5112,16 +5124,16 @@
         <v>75</v>
       </c>
       <c r="H137" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>138</v>
       </c>
       <c r="K137" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5147,16 +5159,16 @@
         <v>75</v>
       </c>
       <c r="H138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>288</v>
       </c>
       <c r="K138" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5182,16 +5194,16 @@
         <v>75</v>
       </c>
       <c r="H139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>138</v>
       </c>
       <c r="K139" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5217,16 +5229,16 @@
         <v>75</v>
       </c>
       <c r="H140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>288</v>
       </c>
       <c r="K140" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5252,16 +5264,16 @@
         <v>62.5</v>
       </c>
       <c r="H141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J141">
         <v>110.9</v>
       </c>
       <c r="K141" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5287,16 +5299,16 @@
         <v>37.5</v>
       </c>
       <c r="H142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>87.90000000000001</v>
       </c>
       <c r="K142" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5310,7 +5322,7 @@
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5336,16 +5348,16 @@
         <v>72</v>
       </c>
       <c r="H144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J144">
         <v>135</v>
       </c>
       <c r="K144" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5371,16 +5383,16 @@
         <v>72</v>
       </c>
       <c r="H145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>135</v>
       </c>
       <c r="K145" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5394,7 +5406,7 @@
         <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5420,16 +5432,16 @@
         <v>72</v>
       </c>
       <c r="H147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>132.5</v>
       </c>
       <c r="K147" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5455,16 +5467,16 @@
         <v>72</v>
       </c>
       <c r="H148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>285</v>
       </c>
       <c r="K148" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5490,16 +5502,16 @@
         <v>72</v>
       </c>
       <c r="H149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>132.5</v>
       </c>
       <c r="K149" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5525,16 +5537,16 @@
         <v>72</v>
       </c>
       <c r="H150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>297.5</v>
       </c>
       <c r="K150" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5560,16 +5572,16 @@
         <v>72</v>
       </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>132.5</v>
       </c>
       <c r="K151" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5595,16 +5607,16 @@
         <v>72</v>
       </c>
       <c r="H152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J152">
         <v>297.5</v>
       </c>
       <c r="K152" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5618,7 +5630,7 @@
         <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5644,16 +5656,16 @@
         <v>72</v>
       </c>
       <c r="H154" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I154" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J154">
         <v>132.5</v>
       </c>
       <c r="K154" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5679,16 +5691,16 @@
         <v>60</v>
       </c>
       <c r="H155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J155">
         <v>110.4</v>
       </c>
       <c r="K155" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5714,16 +5726,16 @@
         <v>60</v>
       </c>
       <c r="H156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I156" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J156">
         <v>108.4</v>
       </c>
       <c r="K156" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5749,16 +5761,16 @@
         <v>30</v>
       </c>
       <c r="H157" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I157" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J157">
         <v>40.4</v>
       </c>
       <c r="K157" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5772,7 +5784,7 @@
         <v>12</v>
       </c>
       <c r="K158" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5798,16 +5810,16 @@
         <v>75</v>
       </c>
       <c r="H159" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I159" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J159">
         <v>125.5</v>
       </c>
       <c r="K159" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5833,16 +5845,16 @@
         <v>62.5</v>
       </c>
       <c r="H160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I160" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J160">
         <v>92.90000000000001</v>
       </c>
       <c r="K160" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5868,16 +5880,16 @@
         <v>37.5</v>
       </c>
       <c r="H161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I161" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J161">
         <v>67.90000000000001</v>
       </c>
       <c r="K161" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -5903,16 +5915,16 @@
         <v>62.5</v>
       </c>
       <c r="H162" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J162">
         <v>62.5</v>
       </c>
       <c r="K162" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -5938,16 +5950,16 @@
         <v>62.5</v>
       </c>
       <c r="H163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J163">
         <v>62.5</v>
       </c>
       <c r="K163" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -5973,16 +5985,16 @@
         <v>37.5</v>
       </c>
       <c r="H164" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J164">
         <v>37.5</v>
       </c>
       <c r="K164" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -5996,7 +6008,7 @@
         <v>22</v>
       </c>
       <c r="K165" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6022,16 +6034,16 @@
         <v>37.5</v>
       </c>
       <c r="H166" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I166" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J166">
         <v>37.5</v>
       </c>
       <c r="K166" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6045,7 +6057,7 @@
         <v>22</v>
       </c>
       <c r="K167" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6071,16 +6083,16 @@
         <v>75</v>
       </c>
       <c r="H168" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I168" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J168">
         <v>75</v>
       </c>
       <c r="K168" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6106,16 +6118,16 @@
         <v>62.5</v>
       </c>
       <c r="H169" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I169" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J169">
         <v>62.5</v>
       </c>
       <c r="K169" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6141,16 +6153,16 @@
         <v>62.5</v>
       </c>
       <c r="H170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I170" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J170">
         <v>62.5</v>
       </c>
       <c r="K170" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6164,7 +6176,7 @@
         <v>22</v>
       </c>
       <c r="K171" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6190,16 +6202,16 @@
         <v>45</v>
       </c>
       <c r="H172" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J172">
         <v>70.5</v>
       </c>
       <c r="K172" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6225,16 +6237,16 @@
         <v>45</v>
       </c>
       <c r="H173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I173" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J173">
         <v>70.5</v>
       </c>
       <c r="K173" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6260,16 +6272,16 @@
         <v>45</v>
       </c>
       <c r="H174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I174" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J174">
         <v>70.5</v>
       </c>
       <c r="K174" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6295,16 +6307,16 @@
         <v>45</v>
       </c>
       <c r="H175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J175">
         <v>70.5</v>
       </c>
       <c r="K175" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6330,16 +6342,16 @@
         <v>45</v>
       </c>
       <c r="H176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J176">
         <v>70.5</v>
       </c>
       <c r="K176" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6365,16 +6377,16 @@
         <v>37.5</v>
       </c>
       <c r="H177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I177" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J177">
         <v>57.90000000000001</v>
       </c>
       <c r="K177" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6400,16 +6412,16 @@
         <v>37.5</v>
       </c>
       <c r="H178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I178" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J178">
         <v>57.90000000000001</v>
       </c>
       <c r="K178" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6423,7 +6435,7 @@
         <v>22</v>
       </c>
       <c r="K179" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6437,7 +6449,7 @@
         <v>17</v>
       </c>
       <c r="K180" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6463,16 +6475,16 @@
         <v>50</v>
       </c>
       <c r="H181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>50</v>
       </c>
       <c r="K181" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6498,16 +6510,16 @@
         <v>50</v>
       </c>
       <c r="H182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J182">
         <v>50</v>
       </c>
       <c r="K182" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6521,7 +6533,7 @@
         <v>22</v>
       </c>
       <c r="K183" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6547,16 +6559,16 @@
         <v>75</v>
       </c>
       <c r="H184" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I184" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J184">
         <v>75</v>
       </c>
       <c r="K184" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6582,16 +6594,16 @@
         <v>75</v>
       </c>
       <c r="H185" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I185" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J185">
         <v>138</v>
       </c>
       <c r="K185" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6617,16 +6629,16 @@
         <v>37.5</v>
       </c>
       <c r="H186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I186" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J186">
         <v>37.5</v>
       </c>
       <c r="K186" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6652,16 +6664,16 @@
         <v>37.5</v>
       </c>
       <c r="H187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I187" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J187">
         <v>37.5</v>
       </c>
       <c r="K187" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6687,16 +6699,16 @@
         <v>75</v>
       </c>
       <c r="H188" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I188" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J188">
         <v>88</v>
       </c>
       <c r="K188" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6722,16 +6734,16 @@
         <v>75</v>
       </c>
       <c r="H189" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I189" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J189">
         <v>88</v>
       </c>
       <c r="K189" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6757,16 +6769,16 @@
         <v>75</v>
       </c>
       <c r="H190" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I190" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J190">
         <v>138</v>
       </c>
       <c r="K190" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -6792,16 +6804,16 @@
         <v>75</v>
       </c>
       <c r="H191" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I191" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J191">
         <v>138</v>
       </c>
       <c r="K191" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -6827,16 +6839,16 @@
         <v>75</v>
       </c>
       <c r="H192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I192" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J192">
         <v>200.5</v>
       </c>
       <c r="K192" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -6862,16 +6874,16 @@
         <v>62.5</v>
       </c>
       <c r="H193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I193" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J193">
         <v>72.90000000000001</v>
       </c>
       <c r="K193" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -6897,16 +6909,16 @@
         <v>37.5</v>
       </c>
       <c r="H194" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I194" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J194">
         <v>47.9</v>
       </c>
       <c r="K194" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -6932,16 +6944,16 @@
         <v>75</v>
       </c>
       <c r="H195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I195" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J195">
         <v>138</v>
       </c>
       <c r="K195" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -6967,16 +6979,16 @@
         <v>75</v>
       </c>
       <c r="H196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I196" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J196">
         <v>313</v>
       </c>
       <c r="K196" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7002,16 +7014,16 @@
         <v>75</v>
       </c>
       <c r="H197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I197" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J197">
         <v>138</v>
       </c>
       <c r="K197" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7037,16 +7049,16 @@
         <v>75</v>
       </c>
       <c r="H198" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I198" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J198">
         <v>313</v>
       </c>
       <c r="K198" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7072,16 +7084,16 @@
         <v>75</v>
       </c>
       <c r="H199" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I199" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J199">
         <v>138</v>
       </c>
       <c r="K199" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7107,16 +7119,16 @@
         <v>62.5</v>
       </c>
       <c r="H200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I200" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J200">
         <v>72.90000000000001</v>
       </c>
       <c r="K200" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7142,16 +7154,16 @@
         <v>37.5</v>
       </c>
       <c r="H201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I201" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J201">
         <v>47.9</v>
       </c>
       <c r="K201" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7165,7 +7177,7 @@
         <v>17</v>
       </c>
       <c r="K202" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7179,7 +7191,7 @@
         <v>17</v>
       </c>
       <c r="K203" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7193,7 +7205,7 @@
         <v>17</v>
       </c>
       <c r="K204" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7207,7 +7219,7 @@
         <v>17</v>
       </c>
       <c r="K205" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7221,7 +7233,7 @@
         <v>17</v>
       </c>
       <c r="K206" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7235,7 +7247,7 @@
         <v>17</v>
       </c>
       <c r="K207" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7249,7 +7261,7 @@
         <v>17</v>
       </c>
       <c r="K208" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7263,7 +7275,7 @@
         <v>17</v>
       </c>
       <c r="K209" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7277,7 +7289,7 @@
         <v>17</v>
       </c>
       <c r="K210" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7291,7 +7303,7 @@
         <v>17</v>
       </c>
       <c r="K211" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7305,7 +7317,7 @@
         <v>17</v>
       </c>
       <c r="K212" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7319,7 +7331,7 @@
         <v>17</v>
       </c>
       <c r="K213" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7333,7 +7345,7 @@
         <v>17</v>
       </c>
       <c r="K214" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7359,16 +7371,16 @@
         <v>60</v>
       </c>
       <c r="H215" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I215" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J215">
         <v>60</v>
       </c>
       <c r="K215" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7394,16 +7406,16 @@
         <v>60</v>
       </c>
       <c r="H216" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I216" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J216">
         <v>60</v>
       </c>
       <c r="K216" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7429,16 +7441,16 @@
         <v>60</v>
       </c>
       <c r="H217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I217" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J217">
         <v>60</v>
       </c>
       <c r="K217" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7464,16 +7476,16 @@
         <v>60</v>
       </c>
       <c r="H218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I218" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J218">
         <v>60</v>
       </c>
       <c r="K218" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -7499,16 +7511,16 @@
         <v>60</v>
       </c>
       <c r="H219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I219" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J219">
         <v>60</v>
       </c>
       <c r="K219" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -7534,16 +7546,16 @@
         <v>60</v>
       </c>
       <c r="H220" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I220" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J220">
         <v>110.5</v>
       </c>
       <c r="K220" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -7569,16 +7581,16 @@
         <v>60</v>
       </c>
       <c r="H221" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I221" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J221">
         <v>110.5</v>
       </c>
       <c r="K221" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -7604,16 +7616,16 @@
         <v>50</v>
       </c>
       <c r="H222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I222" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J222">
         <v>50</v>
       </c>
       <c r="K222" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -7639,16 +7651,16 @@
         <v>30</v>
       </c>
       <c r="H223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I223" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J223">
         <v>30</v>
       </c>
       <c r="K223" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -7662,7 +7674,7 @@
         <v>17</v>
       </c>
       <c r="K224" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -7688,16 +7700,16 @@
         <v>60</v>
       </c>
       <c r="H225" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I225" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J225">
         <v>110.5</v>
       </c>
       <c r="K225" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -7723,16 +7735,16 @@
         <v>60</v>
       </c>
       <c r="H226" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I226" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J226">
         <v>110.5</v>
       </c>
       <c r="K226" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -7758,16 +7770,16 @@
         <v>60</v>
       </c>
       <c r="H227" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I227" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J227">
         <v>110.5</v>
       </c>
       <c r="K227" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -7793,16 +7805,16 @@
         <v>60</v>
       </c>
       <c r="H228" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I228" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J228">
         <v>110.5</v>
       </c>
       <c r="K228" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -7828,16 +7840,16 @@
         <v>60</v>
       </c>
       <c r="H229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I229" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J229">
         <v>110.5</v>
       </c>
       <c r="K229" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -7863,16 +7875,16 @@
         <v>60</v>
       </c>
       <c r="H230" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I230" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J230">
         <v>110.5</v>
       </c>
       <c r="K230" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -7898,16 +7910,16 @@
         <v>50</v>
       </c>
       <c r="H231" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I231" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J231">
         <v>60.4</v>
       </c>
       <c r="K231" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -7933,16 +7945,16 @@
         <v>45</v>
       </c>
       <c r="H232" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I232" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J232">
         <v>133</v>
       </c>
       <c r="K232" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -7968,16 +7980,16 @@
         <v>45</v>
       </c>
       <c r="H233" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I233" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J233">
         <v>83</v>
       </c>
       <c r="K233" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8003,16 +8015,16 @@
         <v>45</v>
       </c>
       <c r="H234" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I234" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J234">
         <v>83</v>
       </c>
       <c r="K234" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8038,16 +8050,16 @@
         <v>45</v>
       </c>
       <c r="H235" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I235" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J235">
         <v>83</v>
       </c>
       <c r="K235" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8073,16 +8085,16 @@
         <v>22.5</v>
       </c>
       <c r="H236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I236" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J236">
         <v>52.90000000000001</v>
       </c>
       <c r="K236" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8108,16 +8120,16 @@
         <v>22.5</v>
       </c>
       <c r="H237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I237" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J237">
         <v>52.90000000000001</v>
       </c>
       <c r="K237" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8143,16 +8155,16 @@
         <v>45</v>
       </c>
       <c r="H238" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I238" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J238">
         <v>83</v>
       </c>
       <c r="K238" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8166,7 +8178,7 @@
         <v>22</v>
       </c>
       <c r="K239" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8192,16 +8204,16 @@
         <v>37.5</v>
       </c>
       <c r="H240" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I240" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J240">
         <v>87.90000000000001</v>
       </c>
       <c r="K240" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8227,16 +8239,16 @@
         <v>37.5</v>
       </c>
       <c r="H241" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I241" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J241">
         <v>87.90000000000001</v>
       </c>
       <c r="K241" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8262,16 +8274,16 @@
         <v>50</v>
       </c>
       <c r="H242" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I242" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J242">
         <v>50</v>
       </c>
       <c r="K242" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -8297,16 +8309,16 @@
         <v>50</v>
       </c>
       <c r="H243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I243" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J243">
         <v>50</v>
       </c>
       <c r="K243" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -8320,7 +8332,7 @@
         <v>22</v>
       </c>
       <c r="K244" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -8346,16 +8358,16 @@
         <v>75</v>
       </c>
       <c r="H245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I245" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J245">
         <v>138</v>
       </c>
       <c r="K245" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -8381,16 +8393,16 @@
         <v>75</v>
       </c>
       <c r="H246" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I246" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J246">
         <v>138</v>
       </c>
       <c r="K246" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -8416,16 +8428,16 @@
         <v>37.5</v>
       </c>
       <c r="H247" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I247" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J247">
         <v>87.90000000000001</v>
       </c>
       <c r="K247" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -8451,16 +8463,16 @@
         <v>37.5</v>
       </c>
       <c r="H248" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I248" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J248">
         <v>87.90000000000001</v>
       </c>
       <c r="K248" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -8474,7 +8486,7 @@
         <v>17</v>
       </c>
       <c r="K249" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -8500,16 +8512,16 @@
         <v>60</v>
       </c>
       <c r="H250" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I250" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J250">
         <v>60</v>
       </c>
       <c r="K250" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -8535,16 +8547,16 @@
         <v>60</v>
       </c>
       <c r="H251" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I251" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J251">
         <v>110.5</v>
       </c>
       <c r="K251" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -8570,16 +8582,16 @@
         <v>60</v>
       </c>
       <c r="H252" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I252" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J252">
         <v>110.5</v>
       </c>
       <c r="K252" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -8605,16 +8617,16 @@
         <v>60</v>
       </c>
       <c r="H253" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I253" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J253">
         <v>110.5</v>
       </c>
       <c r="K253" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -8640,16 +8652,16 @@
         <v>60</v>
       </c>
       <c r="H254" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I254" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J254">
         <v>110.5</v>
       </c>
       <c r="K254" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -8675,16 +8687,16 @@
         <v>60</v>
       </c>
       <c r="H255" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I255" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J255">
         <v>110.5</v>
       </c>
       <c r="K255" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -8710,16 +8722,16 @@
         <v>60</v>
       </c>
       <c r="H256" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I256" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J256">
         <v>110.5</v>
       </c>
       <c r="K256" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -8745,16 +8757,16 @@
         <v>60</v>
       </c>
       <c r="H257" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I257" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J257">
         <v>110.5</v>
       </c>
       <c r="K257" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -8780,16 +8792,16 @@
         <v>60</v>
       </c>
       <c r="H258" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I258" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J258">
         <v>110.5</v>
       </c>
       <c r="K258" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -8815,16 +8827,16 @@
         <v>50</v>
       </c>
       <c r="H259" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I259" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J259">
         <v>50</v>
       </c>
       <c r="K259" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -8850,16 +8862,16 @@
         <v>50</v>
       </c>
       <c r="H260" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I260" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J260">
         <v>50</v>
       </c>
       <c r="K260" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -8873,7 +8885,7 @@
         <v>17</v>
       </c>
       <c r="K261" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -8899,16 +8911,16 @@
         <v>60</v>
       </c>
       <c r="H262" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I262" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J262">
         <v>110.5</v>
       </c>
       <c r="K262" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -8934,16 +8946,16 @@
         <v>60</v>
       </c>
       <c r="H263" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I263" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J263">
         <v>110.5</v>
       </c>
       <c r="K263" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -8969,16 +8981,16 @@
         <v>60</v>
       </c>
       <c r="H264" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I264" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J264">
         <v>110.5</v>
       </c>
       <c r="K264" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -9004,16 +9016,16 @@
         <v>60</v>
       </c>
       <c r="H265" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I265" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J265">
         <v>110.5</v>
       </c>
       <c r="K265" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -9039,16 +9051,16 @@
         <v>60</v>
       </c>
       <c r="H266" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I266" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J266">
         <v>110.5</v>
       </c>
       <c r="K266" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -9074,16 +9086,16 @@
         <v>60</v>
       </c>
       <c r="H267" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I267" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J267">
         <v>110.5</v>
       </c>
       <c r="K267" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -9109,16 +9121,16 @@
         <v>60</v>
       </c>
       <c r="H268" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I268" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J268">
         <v>110.5</v>
       </c>
       <c r="K268" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -9144,16 +9156,16 @@
         <v>50</v>
       </c>
       <c r="H269" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I269" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J269">
         <v>50</v>
       </c>
       <c r="K269" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -9179,16 +9191,16 @@
         <v>50</v>
       </c>
       <c r="H270" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I270" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J270">
         <v>50</v>
       </c>
       <c r="K270" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -9202,7 +9214,7 @@
         <v>17</v>
       </c>
       <c r="K271" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -9228,16 +9240,16 @@
         <v>60</v>
       </c>
       <c r="H272" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I272" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J272">
         <v>110.5</v>
       </c>
       <c r="K272" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -9263,16 +9275,16 @@
         <v>60</v>
       </c>
       <c r="H273" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I273" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J273">
         <v>110.5</v>
       </c>
       <c r="K273" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -9298,16 +9310,16 @@
         <v>60</v>
       </c>
       <c r="H274" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I274" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J274">
         <v>110.5</v>
       </c>
       <c r="K274" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -9333,16 +9345,16 @@
         <v>60</v>
       </c>
       <c r="H275" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I275" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J275">
         <v>110.5</v>
       </c>
       <c r="K275" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -9368,16 +9380,16 @@
         <v>60</v>
       </c>
       <c r="H276" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I276" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J276">
         <v>110.5</v>
       </c>
       <c r="K276" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -9403,16 +9415,16 @@
         <v>60</v>
       </c>
       <c r="H277" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I277" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J277">
         <v>110.5</v>
       </c>
       <c r="K277" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -9438,16 +9450,16 @@
         <v>60</v>
       </c>
       <c r="H278" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I278" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J278">
         <v>110.5</v>
       </c>
       <c r="K278" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -9473,16 +9485,16 @@
         <v>60</v>
       </c>
       <c r="H279" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I279" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J279">
         <v>110.5</v>
       </c>
       <c r="K279" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -9508,16 +9520,16 @@
         <v>60</v>
       </c>
       <c r="H280" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I280" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J280">
         <v>110.5</v>
       </c>
       <c r="K280" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -9543,16 +9555,16 @@
         <v>60</v>
       </c>
       <c r="H281" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I281" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J281">
         <v>110.5</v>
       </c>
       <c r="K281" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -9578,16 +9590,16 @@
         <v>50</v>
       </c>
       <c r="H282" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I282" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J282">
         <v>50</v>
       </c>
       <c r="K282" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -9613,16 +9625,16 @@
         <v>30</v>
       </c>
       <c r="H283" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I283" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J283">
         <v>30</v>
       </c>
       <c r="K283" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -9636,7 +9648,7 @@
         <v>17</v>
       </c>
       <c r="K284" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -9662,16 +9674,16 @@
         <v>60</v>
       </c>
       <c r="H285" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I285" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J285">
         <v>110.5</v>
       </c>
       <c r="K285" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -9697,16 +9709,16 @@
         <v>60</v>
       </c>
       <c r="H286" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I286" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J286">
         <v>110.5</v>
       </c>
       <c r="K286" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -9732,16 +9744,16 @@
         <v>60</v>
       </c>
       <c r="H287" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I287" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J287">
         <v>110.5</v>
       </c>
       <c r="K287" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -9767,16 +9779,16 @@
         <v>60</v>
       </c>
       <c r="H288" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I288" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J288">
         <v>110.5</v>
       </c>
       <c r="K288" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -9802,16 +9814,16 @@
         <v>60</v>
       </c>
       <c r="H289" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I289" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J289">
         <v>110.5</v>
       </c>
       <c r="K289" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -9837,16 +9849,16 @@
         <v>60</v>
       </c>
       <c r="H290" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I290" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J290">
         <v>110.5</v>
       </c>
       <c r="K290" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -9872,16 +9884,16 @@
         <v>60</v>
       </c>
       <c r="H291" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I291" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J291">
         <v>110.5</v>
       </c>
       <c r="K291" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -9907,16 +9919,16 @@
         <v>60</v>
       </c>
       <c r="H292" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I292" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J292">
         <v>110.5</v>
       </c>
       <c r="K292" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -9942,16 +9954,16 @@
         <v>60</v>
       </c>
       <c r="H293" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I293" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J293">
         <v>110.5</v>
       </c>
       <c r="K293" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -9977,16 +9989,16 @@
         <v>60</v>
       </c>
       <c r="H294" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I294" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J294">
         <v>110.5</v>
       </c>
       <c r="K294" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -10012,16 +10024,16 @@
         <v>50</v>
       </c>
       <c r="H295" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I295" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J295">
         <v>50</v>
       </c>
       <c r="K295" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -10047,16 +10059,16 @@
         <v>30</v>
       </c>
       <c r="H296" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I296" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J296">
         <v>30</v>
       </c>
       <c r="K296" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -10070,7 +10082,7 @@
         <v>17</v>
       </c>
       <c r="K297" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -10096,16 +10108,16 @@
         <v>60</v>
       </c>
       <c r="H298" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I298" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J298">
         <v>110.5</v>
       </c>
       <c r="K298" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -10131,16 +10143,16 @@
         <v>60</v>
       </c>
       <c r="H299" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I299" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J299">
         <v>110.5</v>
       </c>
       <c r="K299" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -10166,16 +10178,16 @@
         <v>60</v>
       </c>
       <c r="H300" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I300" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J300">
         <v>110.5</v>
       </c>
       <c r="K300" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -10201,16 +10213,16 @@
         <v>50</v>
       </c>
       <c r="H301" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I301" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J301">
         <v>90.40000000000001</v>
       </c>
       <c r="K301" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -10236,16 +10248,16 @@
         <v>30</v>
       </c>
       <c r="H302" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I302" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J302">
         <v>30</v>
       </c>
       <c r="K302" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -10259,7 +10271,7 @@
         <v>17</v>
       </c>
       <c r="K303" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -10285,16 +10297,16 @@
         <v>75</v>
       </c>
       <c r="H304" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I304" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J304">
         <v>125.5</v>
       </c>
       <c r="K304" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -10320,16 +10332,16 @@
         <v>75</v>
       </c>
       <c r="H305" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I305" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J305">
         <v>125.5</v>
       </c>
       <c r="K305" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -10355,16 +10367,16 @@
         <v>75</v>
       </c>
       <c r="H306" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I306" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J306">
         <v>125.5</v>
       </c>
       <c r="K306" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -10390,16 +10402,16 @@
         <v>62.5</v>
       </c>
       <c r="H307" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I307" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J307">
         <v>102.9</v>
       </c>
       <c r="K307" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -10425,16 +10437,16 @@
         <v>37.5</v>
       </c>
       <c r="H308" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I308" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J308">
         <v>37.5</v>
       </c>
       <c r="K308" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -10448,7 +10460,7 @@
         <v>17</v>
       </c>
       <c r="K309" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -10474,16 +10486,16 @@
         <v>75</v>
       </c>
       <c r="H310" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I310" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J310">
         <v>125.5</v>
       </c>
       <c r="K310" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -10509,16 +10521,16 @@
         <v>75</v>
       </c>
       <c r="H311" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I311" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J311">
         <v>135.5</v>
       </c>
       <c r="K311" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -10544,16 +10556,16 @@
         <v>75</v>
       </c>
       <c r="H312" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I312" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J312">
         <v>135.5</v>
       </c>
       <c r="K312" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -10579,16 +10591,16 @@
         <v>62.5</v>
       </c>
       <c r="H313" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I313" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J313">
         <v>102.9</v>
       </c>
       <c r="K313" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -10614,16 +10626,16 @@
         <v>37.5</v>
       </c>
       <c r="H314" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I314" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J314">
         <v>77.90000000000001</v>
       </c>
       <c r="K314" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -10649,16 +10661,16 @@
         <v>37.5</v>
       </c>
       <c r="H315" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I315" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J315">
         <v>47.9</v>
       </c>
       <c r="K315" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -10684,16 +10696,16 @@
         <v>37.5</v>
       </c>
       <c r="H316" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I316" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J316">
         <v>47.9</v>
       </c>
       <c r="K316" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -10707,7 +10719,7 @@
         <v>22</v>
       </c>
       <c r="K317" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -10733,16 +10745,16 @@
         <v>62.5</v>
       </c>
       <c r="H318" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I318" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J318">
         <v>62.5</v>
       </c>
       <c r="K318" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -10756,7 +10768,7 @@
         <v>22</v>
       </c>
       <c r="K319" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -10782,16 +10794,16 @@
         <v>75</v>
       </c>
       <c r="H320" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I320" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J320">
         <v>75</v>
       </c>
       <c r="K320" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -10805,7 +10817,7 @@
         <v>22</v>
       </c>
       <c r="K321" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -10831,16 +10843,16 @@
         <v>105</v>
       </c>
       <c r="H322" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I322" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J322">
         <v>193</v>
       </c>
       <c r="K322" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -10866,16 +10878,16 @@
         <v>105</v>
       </c>
       <c r="H323" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I323" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J323">
         <v>193</v>
       </c>
       <c r="K323" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -10901,16 +10913,16 @@
         <v>105</v>
       </c>
       <c r="H324" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I324" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J324">
         <v>193</v>
       </c>
       <c r="K324" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -10936,16 +10948,16 @@
         <v>105</v>
       </c>
       <c r="H325" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I325" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J325">
         <v>193</v>
       </c>
       <c r="K325" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -10971,16 +10983,16 @@
         <v>87.5</v>
       </c>
       <c r="H326" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I326" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J326">
         <v>157.9</v>
       </c>
       <c r="K326" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -11006,16 +11018,16 @@
         <v>52.5</v>
       </c>
       <c r="H327" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I327" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J327">
         <v>122.9</v>
       </c>
       <c r="K327" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -11041,16 +11053,16 @@
         <v>57</v>
       </c>
       <c r="H328" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I328" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J328">
         <v>107.5</v>
       </c>
       <c r="K328" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -11076,16 +11088,16 @@
         <v>57</v>
       </c>
       <c r="H329" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I329" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J329">
         <v>117.5</v>
       </c>
       <c r="K329" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -11111,16 +11123,16 @@
         <v>57</v>
       </c>
       <c r="H330" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I330" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J330">
         <v>117.5</v>
       </c>
       <c r="K330" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -11146,16 +11158,16 @@
         <v>57</v>
       </c>
       <c r="H331" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I331" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J331">
         <v>117.5</v>
       </c>
       <c r="K331" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -11181,16 +11193,16 @@
         <v>47.5</v>
       </c>
       <c r="H332" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I332" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J332">
         <v>47.5</v>
       </c>
       <c r="K332" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -11216,16 +11228,16 @@
         <v>28.5</v>
       </c>
       <c r="H333" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I333" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J333">
         <v>68.90000000000001</v>
       </c>
       <c r="K333" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -11251,16 +11263,16 @@
         <v>105</v>
       </c>
       <c r="H334" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I334" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J334">
         <v>193</v>
       </c>
       <c r="K334" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -11286,16 +11298,16 @@
         <v>105</v>
       </c>
       <c r="H335" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I335" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J335">
         <v>193</v>
       </c>
       <c r="K335" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -11321,16 +11333,16 @@
         <v>105</v>
       </c>
       <c r="H336" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I336" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J336">
         <v>193</v>
       </c>
       <c r="K336" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -11356,16 +11368,16 @@
         <v>105</v>
       </c>
       <c r="H337" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I337" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J337">
         <v>193</v>
       </c>
       <c r="K337" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -11391,16 +11403,16 @@
         <v>105</v>
       </c>
       <c r="H338" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I338" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J338">
         <v>193</v>
       </c>
       <c r="K338" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -11426,16 +11438,16 @@
         <v>87.5</v>
       </c>
       <c r="H339" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I339" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J339">
         <v>157.9</v>
       </c>
       <c r="K339" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -11461,16 +11473,16 @@
         <v>57</v>
       </c>
       <c r="H340" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I340" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J340">
         <v>105</v>
       </c>
       <c r="K340" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -11496,16 +11508,16 @@
         <v>57</v>
       </c>
       <c r="H341" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I341" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J341">
         <v>105</v>
       </c>
       <c r="K341" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -11531,16 +11543,16 @@
         <v>57</v>
       </c>
       <c r="H342" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I342" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J342">
         <v>105</v>
       </c>
       <c r="K342" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -11566,16 +11578,16 @@
         <v>57</v>
       </c>
       <c r="H343" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I343" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J343">
         <v>105</v>
       </c>
       <c r="K343" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -11601,16 +11613,16 @@
         <v>57</v>
       </c>
       <c r="H344" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I344" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J344">
         <v>120</v>
       </c>
       <c r="K344" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -11636,16 +11648,16 @@
         <v>47.5</v>
       </c>
       <c r="H345" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I345" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J345">
         <v>85.90000000000001</v>
       </c>
       <c r="K345" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -11671,16 +11683,16 @@
         <v>105</v>
       </c>
       <c r="H346" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I346" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J346">
         <v>193</v>
       </c>
       <c r="K346" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -11706,16 +11718,16 @@
         <v>105</v>
       </c>
       <c r="H347" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I347" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J347">
         <v>193</v>
       </c>
       <c r="K347" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -11741,16 +11753,16 @@
         <v>105</v>
       </c>
       <c r="H348" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I348" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J348">
         <v>193</v>
       </c>
       <c r="K348" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -11776,16 +11788,16 @@
         <v>105</v>
       </c>
       <c r="H349" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I349" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J349">
         <v>193</v>
       </c>
       <c r="K349" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -11811,16 +11823,16 @@
         <v>105</v>
       </c>
       <c r="H350" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I350" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J350">
         <v>193</v>
       </c>
       <c r="K350" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -11846,16 +11858,16 @@
         <v>87.5</v>
       </c>
       <c r="H351" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I351" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J351">
         <v>157.9</v>
       </c>
       <c r="K351" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -11881,16 +11893,16 @@
         <v>57</v>
       </c>
       <c r="H352" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I352" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J352">
         <v>105</v>
       </c>
       <c r="K352" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -11916,16 +11928,16 @@
         <v>57</v>
       </c>
       <c r="H353" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I353" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J353">
         <v>105</v>
       </c>
       <c r="K353" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -11951,16 +11963,16 @@
         <v>57</v>
       </c>
       <c r="H354" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I354" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J354">
         <v>105</v>
       </c>
       <c r="K354" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -11986,16 +11998,16 @@
         <v>57</v>
       </c>
       <c r="H355" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I355" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J355">
         <v>105</v>
       </c>
       <c r="K355" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -12021,16 +12033,16 @@
         <v>57</v>
       </c>
       <c r="H356" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I356" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J356">
         <v>105</v>
       </c>
       <c r="K356" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -12056,16 +12068,16 @@
         <v>47.5</v>
       </c>
       <c r="H357" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I357" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J357">
         <v>85.90000000000001</v>
       </c>
       <c r="K357" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -12091,16 +12103,16 @@
         <v>117</v>
       </c>
       <c r="H358" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I358" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J358">
         <v>167.5</v>
       </c>
       <c r="K358" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -12126,16 +12138,292 @@
         <v>97.5</v>
       </c>
       <c r="H359" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I359" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J359">
         <v>107.9</v>
       </c>
       <c r="K359" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360" t="s">
+        <v>24</v>
+      </c>
+      <c r="F360">
+        <v>390</v>
+      </c>
+      <c r="G360">
+        <v>58.5</v>
+      </c>
+      <c r="H360" t="s">
+        <v>37</v>
+      </c>
+      <c r="I360" t="s">
+        <v>123</v>
+      </c>
+      <c r="J360">
+        <v>58.5</v>
+      </c>
+      <c r="K360" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>20</v>
+      </c>
+      <c r="C361" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361">
+        <v>13</v>
+      </c>
+      <c r="E361" t="s">
+        <v>17</v>
+      </c>
+      <c r="F361">
+        <v>292</v>
+      </c>
+      <c r="G361">
+        <v>72</v>
+      </c>
+      <c r="H361" t="s">
+        <v>26</v>
+      </c>
+      <c r="I361" t="s">
+        <v>77</v>
+      </c>
+      <c r="J361">
+        <v>85</v>
+      </c>
+      <c r="K361" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>20</v>
+      </c>
+      <c r="C362" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362">
+        <v>13</v>
+      </c>
+      <c r="E362" t="s">
+        <v>17</v>
+      </c>
+      <c r="F362">
+        <v>292</v>
+      </c>
+      <c r="G362">
+        <v>72</v>
+      </c>
+      <c r="H362" t="s">
+        <v>27</v>
+      </c>
+      <c r="I362" t="s">
+        <v>77</v>
+      </c>
+      <c r="J362">
+        <v>85</v>
+      </c>
+      <c r="K362" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>20</v>
+      </c>
+      <c r="C363" t="s">
+        <v>15</v>
+      </c>
+      <c r="D363">
+        <v>13</v>
+      </c>
+      <c r="E363" t="s">
+        <v>17</v>
+      </c>
+      <c r="F363">
+        <v>292</v>
+      </c>
+      <c r="G363">
+        <v>72</v>
+      </c>
+      <c r="H363" t="s">
+        <v>28</v>
+      </c>
+      <c r="I363" t="s">
+        <v>77</v>
+      </c>
+      <c r="J363">
+        <v>85</v>
+      </c>
+      <c r="K363" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="C364" t="s">
+        <v>17</v>
+      </c>
+      <c r="E364" t="s">
+        <v>22</v>
+      </c>
+      <c r="K364" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="C365" t="s">
+        <v>22</v>
+      </c>
+      <c r="E365" t="s">
+        <v>25</v>
+      </c>
+      <c r="I365" t="s">
+        <v>77</v>
+      </c>
+      <c r="K365" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366" t="s">
+        <v>15</v>
+      </c>
+      <c r="D366">
+        <v>13</v>
+      </c>
+      <c r="E366" t="s">
+        <v>17</v>
+      </c>
+      <c r="F366">
+        <v>292</v>
+      </c>
+      <c r="G366">
+        <v>72</v>
+      </c>
+      <c r="H366" t="s">
+        <v>26</v>
+      </c>
+      <c r="I366" t="s">
+        <v>113</v>
+      </c>
+      <c r="J366">
+        <v>85</v>
+      </c>
+      <c r="K366" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>20</v>
+      </c>
+      <c r="C367" t="s">
+        <v>15</v>
+      </c>
+      <c r="D367">
+        <v>13</v>
+      </c>
+      <c r="E367" t="s">
+        <v>17</v>
+      </c>
+      <c r="F367">
+        <v>292</v>
+      </c>
+      <c r="G367">
+        <v>72</v>
+      </c>
+      <c r="H367" t="s">
+        <v>26</v>
+      </c>
+      <c r="I367" t="s">
         <v>124</v>
+      </c>
+      <c r="J367">
+        <v>85</v>
+      </c>
+      <c r="K367" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>15</v>
+      </c>
+      <c r="C368" t="s">
+        <v>15</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>17</v>
+      </c>
+      <c r="F368">
+        <v>240</v>
+      </c>
+      <c r="G368">
+        <v>60</v>
+      </c>
+      <c r="H368" t="s">
+        <v>27</v>
+      </c>
+      <c r="I368" t="s">
+        <v>113</v>
+      </c>
+      <c r="J368">
+        <v>60</v>
+      </c>
+      <c r="K368" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/storage/history_0.xlsx
+++ b/storage/history_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="199">
   <si>
     <t>car_point</t>
   </si>
@@ -79,18 +79,18 @@
     <t>B_XB2</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A_XB2</t>
+  </si>
+  <si>
+    <t>B_DF1</t>
+  </si>
+  <si>
     <t>A_DF3</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>B_DF1</t>
-  </si>
-  <si>
-    <t>A_XB2</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -391,6 +391,87 @@
     <t>2018-11-29 00:00:00</t>
   </si>
   <si>
+    <t>2019-01-06 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-09 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-17 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-23 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-07 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-09 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-17 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-23 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 00:00:00</t>
+  </si>
+  <si>
     <t>B_1</t>
   </si>
   <si>
@@ -527,6 +608,9 @@
   </si>
   <si>
     <t>ship</t>
+  </si>
+  <si>
+    <t>C_7</t>
   </si>
 </sst>
 </file>
@@ -884,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K368"/>
+  <dimension ref="A1:K466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -965,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>10.4</v>
@@ -989,7 +1073,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1000,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>10.4</v>
@@ -1024,7 +1108,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1035,10 +1119,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1073,7 +1157,7 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1108,7 +1192,7 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1143,7 +1227,7 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1178,7 +1262,7 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1213,7 +1297,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1248,7 +1332,7 @@
         <v>47.9</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1283,7 +1367,7 @@
         <v>47.9</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1294,10 +1378,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1305,13 +1389,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1346,7 +1430,7 @@
         <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1381,7 +1465,7 @@
         <v>62.90000000000001</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1416,7 +1500,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1424,13 +1508,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1465,7 +1549,7 @@
         <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1500,7 +1584,7 @@
         <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1535,7 +1619,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1570,7 +1654,7 @@
         <v>37.5</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1578,13 +1662,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1592,13 +1676,13 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1633,7 +1717,7 @@
         <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1668,7 +1752,7 @@
         <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1703,7 +1787,7 @@
         <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1738,7 +1822,7 @@
         <v>37.5</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1746,13 +1830,13 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1787,7 +1871,7 @@
         <v>37.5</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1822,7 +1906,7 @@
         <v>37.5</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1830,13 +1914,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1844,13 +1928,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1858,13 +1942,13 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1899,7 +1983,7 @@
         <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1934,7 +2018,7 @@
         <v>132.5</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1969,7 +2053,7 @@
         <v>132.5</v>
       </c>
       <c r="K37" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2004,7 +2088,7 @@
         <v>132.5</v>
       </c>
       <c r="K38" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2039,7 +2123,7 @@
         <v>132.5</v>
       </c>
       <c r="K39" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2074,7 +2158,7 @@
         <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2109,7 +2193,7 @@
         <v>132.5</v>
       </c>
       <c r="K41" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2144,7 +2228,7 @@
         <v>132.5</v>
       </c>
       <c r="K42" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2179,7 +2263,7 @@
         <v>100.4</v>
       </c>
       <c r="K43" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2214,7 +2298,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2222,13 +2306,13 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2263,7 +2347,7 @@
         <v>132.5</v>
       </c>
       <c r="K46" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2298,7 +2382,7 @@
         <v>132.5</v>
       </c>
       <c r="K47" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2333,7 +2417,7 @@
         <v>132.5</v>
       </c>
       <c r="K48" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2368,7 +2452,7 @@
         <v>132.5</v>
       </c>
       <c r="K49" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2403,7 +2487,7 @@
         <v>132.5</v>
       </c>
       <c r="K50" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2438,7 +2522,7 @@
         <v>132.5</v>
       </c>
       <c r="K51" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2473,7 +2557,7 @@
         <v>132.5</v>
       </c>
       <c r="K52" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2508,7 +2592,7 @@
         <v>132.5</v>
       </c>
       <c r="K53" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2543,7 +2627,7 @@
         <v>100.4</v>
       </c>
       <c r="K54" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2578,7 +2662,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="K55" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2613,7 +2697,7 @@
         <v>73</v>
       </c>
       <c r="K56" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2648,7 +2732,7 @@
         <v>73</v>
       </c>
       <c r="K57" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2683,7 +2767,7 @@
         <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2718,7 +2802,7 @@
         <v>40.4</v>
       </c>
       <c r="K59" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2726,13 +2810,13 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2767,7 +2851,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2802,7 +2886,7 @@
         <v>72</v>
       </c>
       <c r="K62" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2837,7 +2921,7 @@
         <v>132.5</v>
       </c>
       <c r="K63" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2872,7 +2956,7 @@
         <v>132.5</v>
       </c>
       <c r="K64" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2907,7 +2991,7 @@
         <v>132.5</v>
       </c>
       <c r="K65" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2915,13 +2999,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2956,7 +3040,7 @@
         <v>120.5</v>
       </c>
       <c r="K67" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2991,7 +3075,7 @@
         <v>110.5</v>
       </c>
       <c r="K68" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3026,7 +3110,7 @@
         <v>120.5</v>
       </c>
       <c r="K69" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3061,7 +3145,7 @@
         <v>110.5</v>
       </c>
       <c r="K70" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3096,7 +3180,7 @@
         <v>120.5</v>
       </c>
       <c r="K71" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3131,7 +3215,7 @@
         <v>110.5</v>
       </c>
       <c r="K72" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3166,7 +3250,7 @@
         <v>110.5</v>
       </c>
       <c r="K73" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3201,7 +3285,7 @@
         <v>110.5</v>
       </c>
       <c r="K74" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3236,7 +3320,7 @@
         <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3244,13 +3328,13 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3285,7 +3369,7 @@
         <v>110.5</v>
       </c>
       <c r="K77" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3320,7 +3404,7 @@
         <v>110.5</v>
       </c>
       <c r="K78" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3355,7 +3439,7 @@
         <v>110.5</v>
       </c>
       <c r="K79" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3390,7 +3474,7 @@
         <v>110.5</v>
       </c>
       <c r="K80" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3425,7 +3509,7 @@
         <v>110.5</v>
       </c>
       <c r="K81" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3433,13 +3517,13 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3474,7 +3558,7 @@
         <v>110.5</v>
       </c>
       <c r="K83" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3509,7 +3593,7 @@
         <v>110.5</v>
       </c>
       <c r="K84" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3544,7 +3628,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K85" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3579,7 +3663,7 @@
         <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3587,13 +3671,13 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3628,7 +3712,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K88" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3636,13 +3720,13 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3650,13 +3734,13 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3664,13 +3748,13 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3678,13 +3762,13 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3719,7 +3803,7 @@
         <v>110.5</v>
       </c>
       <c r="K93" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3754,7 +3838,7 @@
         <v>110.5</v>
       </c>
       <c r="K94" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3789,7 +3873,7 @@
         <v>110.5</v>
       </c>
       <c r="K95" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3824,7 +3908,7 @@
         <v>110.5</v>
       </c>
       <c r="K96" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3859,7 +3943,7 @@
         <v>120.5</v>
       </c>
       <c r="K97" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3894,7 +3978,7 @@
         <v>110.5</v>
       </c>
       <c r="K98" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3929,7 +4013,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K99" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3964,7 +4048,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3972,13 +4056,13 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s">
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4013,7 +4097,7 @@
         <v>110.5</v>
       </c>
       <c r="K102" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4048,7 +4132,7 @@
         <v>110.5</v>
       </c>
       <c r="K103" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4083,7 +4167,7 @@
         <v>110.5</v>
       </c>
       <c r="K104" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4118,7 +4202,7 @@
         <v>123</v>
       </c>
       <c r="K105" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4153,7 +4237,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="K106" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4188,7 +4272,7 @@
         <v>78.40000000000001</v>
       </c>
       <c r="K107" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4196,13 +4280,13 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4237,7 +4321,7 @@
         <v>125.5</v>
       </c>
       <c r="K109" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4272,7 +4356,7 @@
         <v>125.5</v>
       </c>
       <c r="K110" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4307,7 +4391,7 @@
         <v>125.5</v>
       </c>
       <c r="K111" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4342,7 +4426,7 @@
         <v>125.5</v>
       </c>
       <c r="K112" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4377,7 +4461,7 @@
         <v>102.9</v>
       </c>
       <c r="K113" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4412,7 +4496,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K114" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4420,13 +4504,13 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4461,7 +4545,7 @@
         <v>138</v>
       </c>
       <c r="K116" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4496,7 +4580,7 @@
         <v>138</v>
       </c>
       <c r="K117" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4531,7 +4615,7 @@
         <v>288</v>
       </c>
       <c r="K118" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4566,7 +4650,7 @@
         <v>138</v>
       </c>
       <c r="K119" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4601,7 +4685,7 @@
         <v>288</v>
       </c>
       <c r="K120" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4636,7 +4720,7 @@
         <v>102.9</v>
       </c>
       <c r="K121" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4671,7 +4755,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K122" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4679,13 +4763,13 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4720,7 +4804,7 @@
         <v>125.5</v>
       </c>
       <c r="K124" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4755,7 +4839,7 @@
         <v>138</v>
       </c>
       <c r="K125" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4790,7 +4874,7 @@
         <v>138</v>
       </c>
       <c r="K126" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4825,7 +4909,7 @@
         <v>138</v>
       </c>
       <c r="K127" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4860,7 +4944,7 @@
         <v>138</v>
       </c>
       <c r="K128" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4895,7 +4979,7 @@
         <v>102.9</v>
       </c>
       <c r="K129" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4930,7 +5014,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K130" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4938,13 +5022,13 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E131" t="s">
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -4979,7 +5063,7 @@
         <v>138</v>
       </c>
       <c r="K132" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5014,7 +5098,7 @@
         <v>138</v>
       </c>
       <c r="K133" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5049,7 +5133,7 @@
         <v>110.9</v>
       </c>
       <c r="K134" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5084,7 +5168,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K135" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5092,13 +5176,13 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E136" t="s">
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5133,7 +5217,7 @@
         <v>138</v>
       </c>
       <c r="K137" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5168,7 +5252,7 @@
         <v>288</v>
       </c>
       <c r="K138" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5203,7 +5287,7 @@
         <v>138</v>
       </c>
       <c r="K139" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5238,7 +5322,7 @@
         <v>288</v>
       </c>
       <c r="K140" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5273,7 +5357,7 @@
         <v>110.9</v>
       </c>
       <c r="K141" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5308,7 +5392,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K142" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5316,13 +5400,13 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5357,7 +5441,7 @@
         <v>135</v>
       </c>
       <c r="K144" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5392,7 +5476,7 @@
         <v>135</v>
       </c>
       <c r="K145" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5400,13 +5484,13 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E146" t="s">
         <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5441,7 +5525,7 @@
         <v>132.5</v>
       </c>
       <c r="K147" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5476,7 +5560,7 @@
         <v>285</v>
       </c>
       <c r="K148" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5511,7 +5595,7 @@
         <v>132.5</v>
       </c>
       <c r="K149" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5546,7 +5630,7 @@
         <v>297.5</v>
       </c>
       <c r="K150" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5581,7 +5665,7 @@
         <v>132.5</v>
       </c>
       <c r="K151" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5616,7 +5700,7 @@
         <v>297.5</v>
       </c>
       <c r="K152" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5624,13 +5708,13 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
         <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5665,7 +5749,7 @@
         <v>132.5</v>
       </c>
       <c r="K154" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5700,7 +5784,7 @@
         <v>110.4</v>
       </c>
       <c r="K155" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5735,7 +5819,7 @@
         <v>108.4</v>
       </c>
       <c r="K156" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5770,7 +5854,7 @@
         <v>40.4</v>
       </c>
       <c r="K157" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5778,13 +5862,13 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E158" t="s">
         <v>12</v>
       </c>
       <c r="K158" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5819,7 +5903,7 @@
         <v>125.5</v>
       </c>
       <c r="K159" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5854,7 +5938,7 @@
         <v>92.90000000000001</v>
       </c>
       <c r="K160" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5889,7 +5973,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K161" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -5924,7 +6008,7 @@
         <v>62.5</v>
       </c>
       <c r="K162" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -5959,7 +6043,7 @@
         <v>62.5</v>
       </c>
       <c r="K163" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -5994,7 +6078,7 @@
         <v>37.5</v>
       </c>
       <c r="K164" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6005,10 +6089,10 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K165" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6043,7 +6127,7 @@
         <v>37.5</v>
       </c>
       <c r="K166" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6054,10 +6138,10 @@
         <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K167" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6092,7 +6176,7 @@
         <v>75</v>
       </c>
       <c r="K168" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6127,7 +6211,7 @@
         <v>62.5</v>
       </c>
       <c r="K169" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6162,7 +6246,7 @@
         <v>62.5</v>
       </c>
       <c r="K170" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6173,10 +6257,10 @@
         <v>17</v>
       </c>
       <c r="E171" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K171" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6211,7 +6295,7 @@
         <v>70.5</v>
       </c>
       <c r="K172" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6246,7 +6330,7 @@
         <v>70.5</v>
       </c>
       <c r="K173" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6281,7 +6365,7 @@
         <v>70.5</v>
       </c>
       <c r="K174" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6316,7 +6400,7 @@
         <v>70.5</v>
       </c>
       <c r="K175" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6351,7 +6435,7 @@
         <v>70.5</v>
       </c>
       <c r="K176" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6386,7 +6470,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K177" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6421,7 +6505,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K178" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6432,10 +6516,10 @@
         <v>17</v>
       </c>
       <c r="E179" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K179" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6443,13 +6527,13 @@
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E180" t="s">
         <v>17</v>
       </c>
       <c r="K180" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6484,7 +6568,7 @@
         <v>50</v>
       </c>
       <c r="K181" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6519,7 +6603,7 @@
         <v>50</v>
       </c>
       <c r="K182" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6530,10 +6614,10 @@
         <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K183" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6568,7 +6652,7 @@
         <v>75</v>
       </c>
       <c r="K184" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6603,7 +6687,7 @@
         <v>138</v>
       </c>
       <c r="K185" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6638,7 +6722,7 @@
         <v>37.5</v>
       </c>
       <c r="K186" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6673,7 +6757,7 @@
         <v>37.5</v>
       </c>
       <c r="K187" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6684,7 +6768,7 @@
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D188">
         <v>13</v>
@@ -6708,7 +6792,7 @@
         <v>88</v>
       </c>
       <c r="K188" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6719,7 +6803,7 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D189">
         <v>13</v>
@@ -6743,7 +6827,7 @@
         <v>88</v>
       </c>
       <c r="K189" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6754,7 +6838,7 @@
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D190">
         <v>63</v>
@@ -6778,7 +6862,7 @@
         <v>138</v>
       </c>
       <c r="K190" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -6789,7 +6873,7 @@
         <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D191">
         <v>63</v>
@@ -6813,7 +6897,7 @@
         <v>138</v>
       </c>
       <c r="K191" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -6824,7 +6908,7 @@
         <v>19</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D192">
         <v>125.5</v>
@@ -6848,7 +6932,7 @@
         <v>200.5</v>
       </c>
       <c r="K192" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -6859,7 +6943,7 @@
         <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D193">
         <v>10.4</v>
@@ -6883,7 +6967,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K193" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -6894,7 +6978,7 @@
         <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D194">
         <v>10.4</v>
@@ -6918,7 +7002,7 @@
         <v>47.9</v>
       </c>
       <c r="K194" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -6929,7 +7013,7 @@
         <v>12</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D195">
         <v>63</v>
@@ -6953,7 +7037,7 @@
         <v>138</v>
       </c>
       <c r="K195" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -6964,7 +7048,7 @@
         <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D196">
         <v>238</v>
@@ -6988,7 +7072,7 @@
         <v>313</v>
       </c>
       <c r="K196" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -6999,7 +7083,7 @@
         <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D197">
         <v>63</v>
@@ -7023,7 +7107,7 @@
         <v>138</v>
       </c>
       <c r="K197" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7034,7 +7118,7 @@
         <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D198">
         <v>238</v>
@@ -7058,7 +7142,7 @@
         <v>313</v>
       </c>
       <c r="K198" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7069,7 +7153,7 @@
         <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D199">
         <v>63</v>
@@ -7093,7 +7177,7 @@
         <v>138</v>
       </c>
       <c r="K199" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7104,7 +7188,7 @@
         <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D200">
         <v>10.4</v>
@@ -7128,7 +7212,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K200" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7139,7 +7223,7 @@
         <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D201">
         <v>10.4</v>
@@ -7163,7 +7247,7 @@
         <v>47.9</v>
       </c>
       <c r="K201" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7171,13 +7255,13 @@
         <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E202" t="s">
         <v>17</v>
       </c>
       <c r="K202" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7185,13 +7269,13 @@
         <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
       </c>
       <c r="K203" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7199,13 +7283,13 @@
         <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E204" t="s">
         <v>17</v>
       </c>
       <c r="K204" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7213,13 +7297,13 @@
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E205" t="s">
         <v>17</v>
       </c>
       <c r="K205" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7227,13 +7311,13 @@
         <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E206" t="s">
         <v>17</v>
       </c>
       <c r="K206" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7241,13 +7325,13 @@
         <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E207" t="s">
         <v>17</v>
       </c>
       <c r="K207" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7255,13 +7339,13 @@
         <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E208" t="s">
         <v>17</v>
       </c>
       <c r="K208" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7269,13 +7353,13 @@
         <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E209" t="s">
         <v>17</v>
       </c>
       <c r="K209" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7283,13 +7367,13 @@
         <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E210" t="s">
         <v>17</v>
       </c>
       <c r="K210" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7297,13 +7381,13 @@
         <v>209</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E211" t="s">
         <v>17</v>
       </c>
       <c r="K211" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7311,13 +7395,13 @@
         <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E212" t="s">
         <v>17</v>
       </c>
       <c r="K212" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7325,13 +7409,13 @@
         <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E213" t="s">
         <v>17</v>
       </c>
       <c r="K213" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7339,13 +7423,13 @@
         <v>212</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E214" t="s">
         <v>17</v>
       </c>
       <c r="K214" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7380,7 +7464,7 @@
         <v>60</v>
       </c>
       <c r="K215" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7415,7 +7499,7 @@
         <v>60</v>
       </c>
       <c r="K216" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7450,7 +7534,7 @@
         <v>60</v>
       </c>
       <c r="K217" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7485,7 +7569,7 @@
         <v>60</v>
       </c>
       <c r="K218" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -7520,7 +7604,7 @@
         <v>60</v>
       </c>
       <c r="K219" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -7555,7 +7639,7 @@
         <v>110.5</v>
       </c>
       <c r="K220" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -7590,7 +7674,7 @@
         <v>110.5</v>
       </c>
       <c r="K221" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -7625,7 +7709,7 @@
         <v>50</v>
       </c>
       <c r="K222" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -7660,7 +7744,7 @@
         <v>30</v>
       </c>
       <c r="K223" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -7668,13 +7752,13 @@
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
       </c>
       <c r="K224" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -7709,7 +7793,7 @@
         <v>110.5</v>
       </c>
       <c r="K225" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -7744,7 +7828,7 @@
         <v>110.5</v>
       </c>
       <c r="K226" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -7779,7 +7863,7 @@
         <v>110.5</v>
       </c>
       <c r="K227" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -7814,7 +7898,7 @@
         <v>110.5</v>
       </c>
       <c r="K228" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -7849,7 +7933,7 @@
         <v>110.5</v>
       </c>
       <c r="K229" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -7884,7 +7968,7 @@
         <v>110.5</v>
       </c>
       <c r="K230" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -7919,7 +8003,7 @@
         <v>60.4</v>
       </c>
       <c r="K231" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -7954,7 +8038,7 @@
         <v>133</v>
       </c>
       <c r="K232" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -7989,7 +8073,7 @@
         <v>83</v>
       </c>
       <c r="K233" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8024,7 +8108,7 @@
         <v>83</v>
       </c>
       <c r="K234" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8059,7 +8143,7 @@
         <v>83</v>
       </c>
       <c r="K235" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8094,7 +8178,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K236" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8129,7 +8213,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K237" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8164,7 +8248,7 @@
         <v>83</v>
       </c>
       <c r="K238" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8175,10 +8259,10 @@
         <v>17</v>
       </c>
       <c r="E239" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K239" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8213,7 +8297,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K240" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8248,7 +8332,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K241" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8283,7 +8367,7 @@
         <v>50</v>
       </c>
       <c r="K242" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -8318,7 +8402,7 @@
         <v>50</v>
       </c>
       <c r="K243" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -8329,10 +8413,10 @@
         <v>12</v>
       </c>
       <c r="E244" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K244" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -8367,7 +8451,7 @@
         <v>138</v>
       </c>
       <c r="K245" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -8402,7 +8486,7 @@
         <v>138</v>
       </c>
       <c r="K246" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -8437,7 +8521,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K247" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -8472,7 +8556,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K248" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -8480,13 +8564,13 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E249" t="s">
         <v>17</v>
       </c>
       <c r="K249" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -8521,7 +8605,7 @@
         <v>60</v>
       </c>
       <c r="K250" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -8556,7 +8640,7 @@
         <v>110.5</v>
       </c>
       <c r="K251" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -8591,7 +8675,7 @@
         <v>110.5</v>
       </c>
       <c r="K252" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -8626,7 +8710,7 @@
         <v>110.5</v>
       </c>
       <c r="K253" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -8661,7 +8745,7 @@
         <v>110.5</v>
       </c>
       <c r="K254" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -8696,7 +8780,7 @@
         <v>110.5</v>
       </c>
       <c r="K255" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -8731,7 +8815,7 @@
         <v>110.5</v>
       </c>
       <c r="K256" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -8766,7 +8850,7 @@
         <v>110.5</v>
       </c>
       <c r="K257" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -8801,7 +8885,7 @@
         <v>110.5</v>
       </c>
       <c r="K258" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -8836,7 +8920,7 @@
         <v>50</v>
       </c>
       <c r="K259" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -8871,7 +8955,7 @@
         <v>50</v>
       </c>
       <c r="K260" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -8879,13 +8963,13 @@
         <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E261" t="s">
         <v>17</v>
       </c>
       <c r="K261" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -8920,7 +9004,7 @@
         <v>110.5</v>
       </c>
       <c r="K262" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -8955,7 +9039,7 @@
         <v>110.5</v>
       </c>
       <c r="K263" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -8990,7 +9074,7 @@
         <v>110.5</v>
       </c>
       <c r="K264" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -9025,7 +9109,7 @@
         <v>110.5</v>
       </c>
       <c r="K265" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -9060,7 +9144,7 @@
         <v>110.5</v>
       </c>
       <c r="K266" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -9095,7 +9179,7 @@
         <v>110.5</v>
       </c>
       <c r="K267" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -9130,7 +9214,7 @@
         <v>110.5</v>
       </c>
       <c r="K268" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -9165,7 +9249,7 @@
         <v>50</v>
       </c>
       <c r="K269" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -9200,7 +9284,7 @@
         <v>50</v>
       </c>
       <c r="K270" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -9208,13 +9292,13 @@
         <v>269</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
       </c>
       <c r="K271" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -9249,7 +9333,7 @@
         <v>110.5</v>
       </c>
       <c r="K272" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -9284,7 +9368,7 @@
         <v>110.5</v>
       </c>
       <c r="K273" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -9319,7 +9403,7 @@
         <v>110.5</v>
       </c>
       <c r="K274" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -9354,7 +9438,7 @@
         <v>110.5</v>
       </c>
       <c r="K275" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -9389,7 +9473,7 @@
         <v>110.5</v>
       </c>
       <c r="K276" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -9424,7 +9508,7 @@
         <v>110.5</v>
       </c>
       <c r="K277" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -9459,7 +9543,7 @@
         <v>110.5</v>
       </c>
       <c r="K278" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -9494,7 +9578,7 @@
         <v>110.5</v>
       </c>
       <c r="K279" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -9529,7 +9613,7 @@
         <v>110.5</v>
       </c>
       <c r="K280" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -9564,7 +9648,7 @@
         <v>110.5</v>
       </c>
       <c r="K281" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -9599,7 +9683,7 @@
         <v>50</v>
       </c>
       <c r="K282" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -9634,7 +9718,7 @@
         <v>30</v>
       </c>
       <c r="K283" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -9642,13 +9726,13 @@
         <v>282</v>
       </c>
       <c r="C284" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E284" t="s">
         <v>17</v>
       </c>
       <c r="K284" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -9683,7 +9767,7 @@
         <v>110.5</v>
       </c>
       <c r="K285" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -9718,7 +9802,7 @@
         <v>110.5</v>
       </c>
       <c r="K286" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -9753,7 +9837,7 @@
         <v>110.5</v>
       </c>
       <c r="K287" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -9788,7 +9872,7 @@
         <v>110.5</v>
       </c>
       <c r="K288" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -9823,7 +9907,7 @@
         <v>110.5</v>
       </c>
       <c r="K289" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -9858,7 +9942,7 @@
         <v>110.5</v>
       </c>
       <c r="K290" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -9893,7 +9977,7 @@
         <v>110.5</v>
       </c>
       <c r="K291" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -9928,7 +10012,7 @@
         <v>110.5</v>
       </c>
       <c r="K292" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -9963,7 +10047,7 @@
         <v>110.5</v>
       </c>
       <c r="K293" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -9998,7 +10082,7 @@
         <v>110.5</v>
       </c>
       <c r="K294" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -10033,7 +10117,7 @@
         <v>50</v>
       </c>
       <c r="K295" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -10068,7 +10152,7 @@
         <v>30</v>
       </c>
       <c r="K296" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -10076,13 +10160,13 @@
         <v>295</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E297" t="s">
         <v>17</v>
       </c>
       <c r="K297" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -10117,7 +10201,7 @@
         <v>110.5</v>
       </c>
       <c r="K298" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -10152,7 +10236,7 @@
         <v>110.5</v>
       </c>
       <c r="K299" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -10187,7 +10271,7 @@
         <v>110.5</v>
       </c>
       <c r="K300" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -10222,7 +10306,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K301" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -10257,7 +10341,7 @@
         <v>30</v>
       </c>
       <c r="K302" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -10265,13 +10349,13 @@
         <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E303" t="s">
         <v>17</v>
       </c>
       <c r="K303" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -10306,7 +10390,7 @@
         <v>125.5</v>
       </c>
       <c r="K304" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -10341,7 +10425,7 @@
         <v>125.5</v>
       </c>
       <c r="K305" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -10376,7 +10460,7 @@
         <v>125.5</v>
       </c>
       <c r="K306" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -10411,7 +10495,7 @@
         <v>102.9</v>
       </c>
       <c r="K307" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -10446,7 +10530,7 @@
         <v>37.5</v>
       </c>
       <c r="K308" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -10454,13 +10538,13 @@
         <v>307</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E309" t="s">
         <v>17</v>
       </c>
       <c r="K309" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -10495,7 +10579,7 @@
         <v>125.5</v>
       </c>
       <c r="K310" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -10530,7 +10614,7 @@
         <v>135.5</v>
       </c>
       <c r="K311" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -10565,7 +10649,7 @@
         <v>135.5</v>
       </c>
       <c r="K312" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -10600,7 +10684,7 @@
         <v>102.9</v>
       </c>
       <c r="K313" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -10635,7 +10719,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K314" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -10646,7 +10730,7 @@
         <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D315">
         <v>10.4</v>
@@ -10670,7 +10754,7 @@
         <v>47.9</v>
       </c>
       <c r="K315" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -10681,7 +10765,7 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D316">
         <v>10.4</v>
@@ -10705,7 +10789,7 @@
         <v>47.9</v>
       </c>
       <c r="K316" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -10716,10 +10800,10 @@
         <v>12</v>
       </c>
       <c r="E317" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K317" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -10754,7 +10838,7 @@
         <v>62.5</v>
       </c>
       <c r="K318" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -10765,10 +10849,10 @@
         <v>17</v>
       </c>
       <c r="E319" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K319" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -10803,7 +10887,7 @@
         <v>75</v>
       </c>
       <c r="K320" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -10814,10 +10898,10 @@
         <v>17</v>
       </c>
       <c r="E321" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K321" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -10828,7 +10912,7 @@
         <v>12</v>
       </c>
       <c r="C322" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D322">
         <v>88</v>
@@ -10852,7 +10936,7 @@
         <v>193</v>
       </c>
       <c r="K322" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -10863,7 +10947,7 @@
         <v>12</v>
       </c>
       <c r="C323" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D323">
         <v>88</v>
@@ -10887,7 +10971,7 @@
         <v>193</v>
       </c>
       <c r="K323" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -10898,7 +10982,7 @@
         <v>17</v>
       </c>
       <c r="C324" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D324">
         <v>88</v>
@@ -10922,7 +11006,7 @@
         <v>193</v>
       </c>
       <c r="K324" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -10933,7 +11017,7 @@
         <v>12</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D325">
         <v>88</v>
@@ -10957,7 +11041,7 @@
         <v>193</v>
       </c>
       <c r="K325" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -10968,7 +11052,7 @@
         <v>12</v>
       </c>
       <c r="C326" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D326">
         <v>70.40000000000001</v>
@@ -10992,7 +11076,7 @@
         <v>157.9</v>
       </c>
       <c r="K326" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -11003,7 +11087,7 @@
         <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D327">
         <v>70.40000000000001</v>
@@ -11027,7 +11111,7 @@
         <v>122.9</v>
       </c>
       <c r="K327" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -11062,7 +11146,7 @@
         <v>107.5</v>
       </c>
       <c r="K328" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -11097,7 +11181,7 @@
         <v>117.5</v>
       </c>
       <c r="K329" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -11132,7 +11216,7 @@
         <v>117.5</v>
       </c>
       <c r="K330" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -11167,7 +11251,7 @@
         <v>117.5</v>
       </c>
       <c r="K331" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -11202,7 +11286,7 @@
         <v>47.5</v>
       </c>
       <c r="K332" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -11237,7 +11321,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="K333" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -11248,7 +11332,7 @@
         <v>17</v>
       </c>
       <c r="C334" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D334">
         <v>88</v>
@@ -11272,7 +11356,7 @@
         <v>193</v>
       </c>
       <c r="K334" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -11283,7 +11367,7 @@
         <v>17</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D335">
         <v>88</v>
@@ -11307,7 +11391,7 @@
         <v>193</v>
       </c>
       <c r="K335" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -11318,7 +11402,7 @@
         <v>17</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D336">
         <v>88</v>
@@ -11342,7 +11426,7 @@
         <v>193</v>
       </c>
       <c r="K336" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -11353,7 +11437,7 @@
         <v>17</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D337">
         <v>88</v>
@@ -11377,7 +11461,7 @@
         <v>193</v>
       </c>
       <c r="K337" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -11388,7 +11472,7 @@
         <v>12</v>
       </c>
       <c r="C338" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D338">
         <v>88</v>
@@ -11412,7 +11496,7 @@
         <v>193</v>
       </c>
       <c r="K338" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -11423,7 +11507,7 @@
         <v>17</v>
       </c>
       <c r="C339" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D339">
         <v>70.40000000000001</v>
@@ -11447,7 +11531,7 @@
         <v>157.9</v>
       </c>
       <c r="K339" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -11482,7 +11566,7 @@
         <v>105</v>
       </c>
       <c r="K340" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -11517,7 +11601,7 @@
         <v>105</v>
       </c>
       <c r="K341" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -11552,7 +11636,7 @@
         <v>105</v>
       </c>
       <c r="K342" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -11587,7 +11671,7 @@
         <v>105</v>
       </c>
       <c r="K343" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -11622,7 +11706,7 @@
         <v>120</v>
       </c>
       <c r="K344" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -11657,7 +11741,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K345" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -11668,7 +11752,7 @@
         <v>17</v>
       </c>
       <c r="C346" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D346">
         <v>88</v>
@@ -11692,7 +11776,7 @@
         <v>193</v>
       </c>
       <c r="K346" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -11703,7 +11787,7 @@
         <v>17</v>
       </c>
       <c r="C347" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D347">
         <v>88</v>
@@ -11727,7 +11811,7 @@
         <v>193</v>
       </c>
       <c r="K347" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -11738,7 +11822,7 @@
         <v>17</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D348">
         <v>88</v>
@@ -11762,7 +11846,7 @@
         <v>193</v>
       </c>
       <c r="K348" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -11773,7 +11857,7 @@
         <v>17</v>
       </c>
       <c r="C349" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D349">
         <v>88</v>
@@ -11797,7 +11881,7 @@
         <v>193</v>
       </c>
       <c r="K349" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -11808,7 +11892,7 @@
         <v>17</v>
       </c>
       <c r="C350" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D350">
         <v>88</v>
@@ -11832,7 +11916,7 @@
         <v>193</v>
       </c>
       <c r="K350" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -11843,7 +11927,7 @@
         <v>17</v>
       </c>
       <c r="C351" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D351">
         <v>70.40000000000001</v>
@@ -11867,7 +11951,7 @@
         <v>157.9</v>
       </c>
       <c r="K351" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -11902,7 +11986,7 @@
         <v>105</v>
       </c>
       <c r="K352" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -11937,7 +12021,7 @@
         <v>105</v>
       </c>
       <c r="K353" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -11972,7 +12056,7 @@
         <v>105</v>
       </c>
       <c r="K354" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -12007,7 +12091,7 @@
         <v>105</v>
       </c>
       <c r="K355" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -12042,7 +12126,7 @@
         <v>105</v>
       </c>
       <c r="K356" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -12077,7 +12161,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K357" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -12094,7 +12178,7 @@
         <v>50.5</v>
       </c>
       <c r="E358" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F358">
         <v>592</v>
@@ -12112,7 +12196,7 @@
         <v>167.5</v>
       </c>
       <c r="K358" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -12129,7 +12213,7 @@
         <v>10.4</v>
       </c>
       <c r="E359" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F359">
         <v>442</v>
@@ -12147,7 +12231,7 @@
         <v>107.9</v>
       </c>
       <c r="K359" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -12164,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F360">
         <v>390</v>
@@ -12182,7 +12266,7 @@
         <v>58.5</v>
       </c>
       <c r="K360" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -12217,7 +12301,7 @@
         <v>85</v>
       </c>
       <c r="K361" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -12252,7 +12336,7 @@
         <v>85</v>
       </c>
       <c r="K362" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -12287,7 +12371,7 @@
         <v>85</v>
       </c>
       <c r="K363" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -12298,10 +12382,10 @@
         <v>17</v>
       </c>
       <c r="E364" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K364" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -12309,7 +12393,7 @@
         <v>363</v>
       </c>
       <c r="C365" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E365" t="s">
         <v>25</v>
@@ -12318,7 +12402,7 @@
         <v>77</v>
       </c>
       <c r="K365" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -12353,7 +12437,7 @@
         <v>85</v>
       </c>
       <c r="K366" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -12388,7 +12472,7 @@
         <v>85</v>
       </c>
       <c r="K367" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -12423,7 +12507,3227 @@
         <v>60</v>
       </c>
       <c r="K368" t="s">
-        <v>152</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>20</v>
+      </c>
+      <c r="C369" t="s">
+        <v>15</v>
+      </c>
+      <c r="D369">
+        <v>10.4</v>
+      </c>
+      <c r="E369" t="s">
+        <v>17</v>
+      </c>
+      <c r="F369">
+        <v>292</v>
+      </c>
+      <c r="G369">
+        <v>36</v>
+      </c>
+      <c r="H369" t="s">
+        <v>28</v>
+      </c>
+      <c r="I369" t="s">
+        <v>113</v>
+      </c>
+      <c r="J369">
+        <v>46.4</v>
+      </c>
+      <c r="K369" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="C370" t="s">
+        <v>17</v>
+      </c>
+      <c r="E370" t="s">
+        <v>21</v>
+      </c>
+      <c r="K370" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="C371" t="s">
+        <v>21</v>
+      </c>
+      <c r="E371" t="s">
+        <v>25</v>
+      </c>
+      <c r="K371" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372">
+        <v>10.4</v>
+      </c>
+      <c r="E372" t="s">
+        <v>12</v>
+      </c>
+      <c r="F372">
+        <v>252</v>
+      </c>
+      <c r="G372">
+        <v>50</v>
+      </c>
+      <c r="H372" t="s">
+        <v>26</v>
+      </c>
+      <c r="I372" t="s">
+        <v>125</v>
+      </c>
+      <c r="J372">
+        <v>60.4</v>
+      </c>
+      <c r="K372" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="C373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>21</v>
+      </c>
+      <c r="K373" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>14</v>
+      </c>
+      <c r="C374" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374" t="s">
+        <v>17</v>
+      </c>
+      <c r="F374">
+        <v>250</v>
+      </c>
+      <c r="G374">
+        <v>62.5</v>
+      </c>
+      <c r="H374" t="s">
+        <v>26</v>
+      </c>
+      <c r="I374" t="s">
+        <v>123</v>
+      </c>
+      <c r="J374">
+        <v>62.5</v>
+      </c>
+      <c r="K374" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>16</v>
+      </c>
+      <c r="C375" t="s">
+        <v>14</v>
+      </c>
+      <c r="D375">
+        <v>10.4</v>
+      </c>
+      <c r="E375" t="s">
+        <v>17</v>
+      </c>
+      <c r="F375">
+        <v>302</v>
+      </c>
+      <c r="G375">
+        <v>62.5</v>
+      </c>
+      <c r="H375" t="s">
+        <v>27</v>
+      </c>
+      <c r="I375" t="s">
+        <v>123</v>
+      </c>
+      <c r="J375">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="K375" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>14</v>
+      </c>
+      <c r="C376" t="s">
+        <v>16</v>
+      </c>
+      <c r="D376">
+        <v>13</v>
+      </c>
+      <c r="E376" t="s">
+        <v>17</v>
+      </c>
+      <c r="F376">
+        <v>252</v>
+      </c>
+      <c r="G376">
+        <v>60</v>
+      </c>
+      <c r="H376" t="s">
+        <v>28</v>
+      </c>
+      <c r="I376" t="s">
+        <v>123</v>
+      </c>
+      <c r="J376">
+        <v>73</v>
+      </c>
+      <c r="K376" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>16</v>
+      </c>
+      <c r="C377" t="s">
+        <v>16</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377" t="s">
+        <v>17</v>
+      </c>
+      <c r="F377">
+        <v>200</v>
+      </c>
+      <c r="G377">
+        <v>50</v>
+      </c>
+      <c r="H377" t="s">
+        <v>29</v>
+      </c>
+      <c r="I377" t="s">
+        <v>123</v>
+      </c>
+      <c r="J377">
+        <v>50</v>
+      </c>
+      <c r="K377" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>16</v>
+      </c>
+      <c r="C378" t="s">
+        <v>16</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378" t="s">
+        <v>17</v>
+      </c>
+      <c r="F378">
+        <v>200</v>
+      </c>
+      <c r="G378">
+        <v>30</v>
+      </c>
+      <c r="H378" t="s">
+        <v>31</v>
+      </c>
+      <c r="I378" t="s">
+        <v>123</v>
+      </c>
+      <c r="J378">
+        <v>30</v>
+      </c>
+      <c r="K378" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>17</v>
+      </c>
+      <c r="C379" t="s">
+        <v>17</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379" t="s">
+        <v>21</v>
+      </c>
+      <c r="F379">
+        <v>350</v>
+      </c>
+      <c r="G379">
+        <v>105</v>
+      </c>
+      <c r="H379" t="s">
+        <v>26</v>
+      </c>
+      <c r="I379" t="s">
+        <v>120</v>
+      </c>
+      <c r="J379">
+        <v>105</v>
+      </c>
+      <c r="K379" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>17</v>
+      </c>
+      <c r="C380" t="s">
+        <v>17</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380" t="s">
+        <v>21</v>
+      </c>
+      <c r="F380">
+        <v>350</v>
+      </c>
+      <c r="G380">
+        <v>87.5</v>
+      </c>
+      <c r="H380" t="s">
+        <v>27</v>
+      </c>
+      <c r="I380" t="s">
+        <v>120</v>
+      </c>
+      <c r="J380">
+        <v>87.5</v>
+      </c>
+      <c r="K380" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>17</v>
+      </c>
+      <c r="C381" t="s">
+        <v>17</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381" t="s">
+        <v>21</v>
+      </c>
+      <c r="F381">
+        <v>350</v>
+      </c>
+      <c r="G381">
+        <v>52.5</v>
+      </c>
+      <c r="H381" t="s">
+        <v>28</v>
+      </c>
+      <c r="I381" t="s">
+        <v>120</v>
+      </c>
+      <c r="J381">
+        <v>52.5</v>
+      </c>
+      <c r="K381" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" t="s">
+        <v>11</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382" t="s">
+        <v>22</v>
+      </c>
+      <c r="F382">
+        <v>390</v>
+      </c>
+      <c r="G382">
+        <v>58.5</v>
+      </c>
+      <c r="H382" t="s">
+        <v>37</v>
+      </c>
+      <c r="I382" t="s">
+        <v>123</v>
+      </c>
+      <c r="J382">
+        <v>58.5</v>
+      </c>
+      <c r="K382" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="C383" t="s">
+        <v>21</v>
+      </c>
+      <c r="E383" t="s">
+        <v>17</v>
+      </c>
+      <c r="K383" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>17</v>
+      </c>
+      <c r="C384" t="s">
+        <v>17</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384" t="s">
+        <v>16</v>
+      </c>
+      <c r="F384">
+        <v>200</v>
+      </c>
+      <c r="G384">
+        <v>60</v>
+      </c>
+      <c r="H384" t="s">
+        <v>26</v>
+      </c>
+      <c r="I384" t="s">
+        <v>126</v>
+      </c>
+      <c r="J384">
+        <v>60</v>
+      </c>
+      <c r="K384" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>17</v>
+      </c>
+      <c r="C385" t="s">
+        <v>17</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385" t="s">
+        <v>16</v>
+      </c>
+      <c r="F385">
+        <v>200</v>
+      </c>
+      <c r="G385">
+        <v>60</v>
+      </c>
+      <c r="H385" t="s">
+        <v>27</v>
+      </c>
+      <c r="I385" t="s">
+        <v>126</v>
+      </c>
+      <c r="J385">
+        <v>60</v>
+      </c>
+      <c r="K385" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>17</v>
+      </c>
+      <c r="C386" t="s">
+        <v>17</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386" t="s">
+        <v>16</v>
+      </c>
+      <c r="F386">
+        <v>200</v>
+      </c>
+      <c r="G386">
+        <v>60</v>
+      </c>
+      <c r="H386" t="s">
+        <v>28</v>
+      </c>
+      <c r="I386" t="s">
+        <v>126</v>
+      </c>
+      <c r="J386">
+        <v>60</v>
+      </c>
+      <c r="K386" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>17</v>
+      </c>
+      <c r="C387" t="s">
+        <v>17</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387" t="s">
+        <v>16</v>
+      </c>
+      <c r="F387">
+        <v>200</v>
+      </c>
+      <c r="G387">
+        <v>60</v>
+      </c>
+      <c r="H387" t="s">
+        <v>29</v>
+      </c>
+      <c r="I387" t="s">
+        <v>126</v>
+      </c>
+      <c r="J387">
+        <v>60</v>
+      </c>
+      <c r="K387" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>17</v>
+      </c>
+      <c r="C388" t="s">
+        <v>17</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388" t="s">
+        <v>16</v>
+      </c>
+      <c r="F388">
+        <v>200</v>
+      </c>
+      <c r="G388">
+        <v>60</v>
+      </c>
+      <c r="H388" t="s">
+        <v>30</v>
+      </c>
+      <c r="I388" t="s">
+        <v>126</v>
+      </c>
+      <c r="J388">
+        <v>60</v>
+      </c>
+      <c r="K388" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>17</v>
+      </c>
+      <c r="C389" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389" t="s">
+        <v>16</v>
+      </c>
+      <c r="F389">
+        <v>200</v>
+      </c>
+      <c r="G389">
+        <v>60</v>
+      </c>
+      <c r="H389" t="s">
+        <v>31</v>
+      </c>
+      <c r="I389" t="s">
+        <v>126</v>
+      </c>
+      <c r="J389">
+        <v>60</v>
+      </c>
+      <c r="K389" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>17</v>
+      </c>
+      <c r="C390" t="s">
+        <v>17</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390" t="s">
+        <v>16</v>
+      </c>
+      <c r="F390">
+        <v>200</v>
+      </c>
+      <c r="G390">
+        <v>60</v>
+      </c>
+      <c r="H390" t="s">
+        <v>32</v>
+      </c>
+      <c r="I390" t="s">
+        <v>126</v>
+      </c>
+      <c r="J390">
+        <v>60</v>
+      </c>
+      <c r="K390" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>17</v>
+      </c>
+      <c r="C391" t="s">
+        <v>17</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391" t="s">
+        <v>16</v>
+      </c>
+      <c r="F391">
+        <v>200</v>
+      </c>
+      <c r="G391">
+        <v>60</v>
+      </c>
+      <c r="H391" t="s">
+        <v>33</v>
+      </c>
+      <c r="I391" t="s">
+        <v>126</v>
+      </c>
+      <c r="J391">
+        <v>60</v>
+      </c>
+      <c r="K391" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>17</v>
+      </c>
+      <c r="C392" t="s">
+        <v>17</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392" t="s">
+        <v>16</v>
+      </c>
+      <c r="F392">
+        <v>200</v>
+      </c>
+      <c r="G392">
+        <v>60</v>
+      </c>
+      <c r="H392" t="s">
+        <v>34</v>
+      </c>
+      <c r="I392" t="s">
+        <v>126</v>
+      </c>
+      <c r="J392">
+        <v>60</v>
+      </c>
+      <c r="K392" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>17</v>
+      </c>
+      <c r="C393" t="s">
+        <v>17</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393" t="s">
+        <v>16</v>
+      </c>
+      <c r="F393">
+        <v>200</v>
+      </c>
+      <c r="G393">
+        <v>60</v>
+      </c>
+      <c r="H393" t="s">
+        <v>35</v>
+      </c>
+      <c r="I393" t="s">
+        <v>126</v>
+      </c>
+      <c r="J393">
+        <v>60</v>
+      </c>
+      <c r="K393" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="C394" t="s">
+        <v>21</v>
+      </c>
+      <c r="E394" t="s">
+        <v>17</v>
+      </c>
+      <c r="K394" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>16</v>
+      </c>
+      <c r="C395" t="s">
+        <v>17</v>
+      </c>
+      <c r="D395">
+        <v>50.5</v>
+      </c>
+      <c r="E395" t="s">
+        <v>16</v>
+      </c>
+      <c r="F395">
+        <v>402</v>
+      </c>
+      <c r="G395">
+        <v>60</v>
+      </c>
+      <c r="H395" t="s">
+        <v>26</v>
+      </c>
+      <c r="I395" t="s">
+        <v>127</v>
+      </c>
+      <c r="J395">
+        <v>110.5</v>
+      </c>
+      <c r="K395" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>16</v>
+      </c>
+      <c r="C396" t="s">
+        <v>17</v>
+      </c>
+      <c r="D396">
+        <v>50.5</v>
+      </c>
+      <c r="E396" t="s">
+        <v>16</v>
+      </c>
+      <c r="F396">
+        <v>402</v>
+      </c>
+      <c r="G396">
+        <v>60</v>
+      </c>
+      <c r="H396" t="s">
+        <v>26</v>
+      </c>
+      <c r="I396" t="s">
+        <v>128</v>
+      </c>
+      <c r="J396">
+        <v>110.5</v>
+      </c>
+      <c r="K396" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>16</v>
+      </c>
+      <c r="C397" t="s">
+        <v>17</v>
+      </c>
+      <c r="D397">
+        <v>50.5</v>
+      </c>
+      <c r="E397" t="s">
+        <v>16</v>
+      </c>
+      <c r="F397">
+        <v>402</v>
+      </c>
+      <c r="G397">
+        <v>60</v>
+      </c>
+      <c r="H397" t="s">
+        <v>26</v>
+      </c>
+      <c r="I397" t="s">
+        <v>129</v>
+      </c>
+      <c r="J397">
+        <v>110.5</v>
+      </c>
+      <c r="K397" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>16</v>
+      </c>
+      <c r="C398" t="s">
+        <v>17</v>
+      </c>
+      <c r="D398">
+        <v>50.5</v>
+      </c>
+      <c r="E398" t="s">
+        <v>16</v>
+      </c>
+      <c r="F398">
+        <v>402</v>
+      </c>
+      <c r="G398">
+        <v>60</v>
+      </c>
+      <c r="H398" t="s">
+        <v>26</v>
+      </c>
+      <c r="I398" t="s">
+        <v>130</v>
+      </c>
+      <c r="J398">
+        <v>110.5</v>
+      </c>
+      <c r="K398" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>16</v>
+      </c>
+      <c r="C399" t="s">
+        <v>17</v>
+      </c>
+      <c r="D399">
+        <v>50.5</v>
+      </c>
+      <c r="E399" t="s">
+        <v>16</v>
+      </c>
+      <c r="F399">
+        <v>402</v>
+      </c>
+      <c r="G399">
+        <v>60</v>
+      </c>
+      <c r="H399" t="s">
+        <v>26</v>
+      </c>
+      <c r="I399" t="s">
+        <v>131</v>
+      </c>
+      <c r="J399">
+        <v>110.5</v>
+      </c>
+      <c r="K399" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>16</v>
+      </c>
+      <c r="C400" t="s">
+        <v>17</v>
+      </c>
+      <c r="D400">
+        <v>50.5</v>
+      </c>
+      <c r="E400" t="s">
+        <v>16</v>
+      </c>
+      <c r="F400">
+        <v>402</v>
+      </c>
+      <c r="G400">
+        <v>60</v>
+      </c>
+      <c r="H400" t="s">
+        <v>26</v>
+      </c>
+      <c r="I400" t="s">
+        <v>132</v>
+      </c>
+      <c r="J400">
+        <v>110.5</v>
+      </c>
+      <c r="K400" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>16</v>
+      </c>
+      <c r="C401" t="s">
+        <v>17</v>
+      </c>
+      <c r="D401">
+        <v>50.5</v>
+      </c>
+      <c r="E401" t="s">
+        <v>16</v>
+      </c>
+      <c r="F401">
+        <v>402</v>
+      </c>
+      <c r="G401">
+        <v>60</v>
+      </c>
+      <c r="H401" t="s">
+        <v>26</v>
+      </c>
+      <c r="I401" t="s">
+        <v>133</v>
+      </c>
+      <c r="J401">
+        <v>110.5</v>
+      </c>
+      <c r="K401" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>16</v>
+      </c>
+      <c r="C402" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402">
+        <v>50.5</v>
+      </c>
+      <c r="E402" t="s">
+        <v>16</v>
+      </c>
+      <c r="F402">
+        <v>402</v>
+      </c>
+      <c r="G402">
+        <v>60</v>
+      </c>
+      <c r="H402" t="s">
+        <v>26</v>
+      </c>
+      <c r="I402" t="s">
+        <v>134</v>
+      </c>
+      <c r="J402">
+        <v>110.5</v>
+      </c>
+      <c r="K402" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>16</v>
+      </c>
+      <c r="C403" t="s">
+        <v>17</v>
+      </c>
+      <c r="D403">
+        <v>50.5</v>
+      </c>
+      <c r="E403" t="s">
+        <v>16</v>
+      </c>
+      <c r="F403">
+        <v>402</v>
+      </c>
+      <c r="G403">
+        <v>60</v>
+      </c>
+      <c r="H403" t="s">
+        <v>26</v>
+      </c>
+      <c r="I403" t="s">
+        <v>135</v>
+      </c>
+      <c r="J403">
+        <v>110.5</v>
+      </c>
+      <c r="K403" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>17</v>
+      </c>
+      <c r="C404" t="s">
+        <v>17</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404" t="s">
+        <v>16</v>
+      </c>
+      <c r="F404">
+        <v>200</v>
+      </c>
+      <c r="G404">
+        <v>50</v>
+      </c>
+      <c r="H404" t="s">
+        <v>27</v>
+      </c>
+      <c r="I404" t="s">
+        <v>127</v>
+      </c>
+      <c r="J404">
+        <v>50</v>
+      </c>
+      <c r="K404" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>17</v>
+      </c>
+      <c r="C405" t="s">
+        <v>17</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405" t="s">
+        <v>16</v>
+      </c>
+      <c r="F405">
+        <v>200</v>
+      </c>
+      <c r="G405">
+        <v>50</v>
+      </c>
+      <c r="H405" t="s">
+        <v>28</v>
+      </c>
+      <c r="I405" t="s">
+        <v>127</v>
+      </c>
+      <c r="J405">
+        <v>50</v>
+      </c>
+      <c r="K405" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>21</v>
+      </c>
+      <c r="C406" t="s">
+        <v>21</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406" t="s">
+        <v>17</v>
+      </c>
+      <c r="F406">
+        <v>350</v>
+      </c>
+      <c r="G406">
+        <v>105</v>
+      </c>
+      <c r="H406" t="s">
+        <v>26</v>
+      </c>
+      <c r="I406" t="s">
+        <v>123</v>
+      </c>
+      <c r="J406">
+        <v>105</v>
+      </c>
+      <c r="K406" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>16</v>
+      </c>
+      <c r="C407" t="s">
+        <v>21</v>
+      </c>
+      <c r="D407">
+        <v>138</v>
+      </c>
+      <c r="E407" t="s">
+        <v>17</v>
+      </c>
+      <c r="F407">
+        <v>902</v>
+      </c>
+      <c r="G407">
+        <v>105</v>
+      </c>
+      <c r="H407" t="s">
+        <v>28</v>
+      </c>
+      <c r="I407" t="s">
+        <v>120</v>
+      </c>
+      <c r="J407">
+        <v>243</v>
+      </c>
+      <c r="K407" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>16</v>
+      </c>
+      <c r="C408" t="s">
+        <v>21</v>
+      </c>
+      <c r="D408">
+        <v>138</v>
+      </c>
+      <c r="E408" t="s">
+        <v>17</v>
+      </c>
+      <c r="F408">
+        <v>902</v>
+      </c>
+      <c r="G408">
+        <v>105</v>
+      </c>
+      <c r="H408" t="s">
+        <v>33</v>
+      </c>
+      <c r="I408" t="s">
+        <v>120</v>
+      </c>
+      <c r="J408">
+        <v>243</v>
+      </c>
+      <c r="K408" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>14</v>
+      </c>
+      <c r="C409" t="s">
+        <v>21</v>
+      </c>
+      <c r="D409">
+        <v>150.5</v>
+      </c>
+      <c r="E409" t="s">
+        <v>17</v>
+      </c>
+      <c r="F409">
+        <v>952</v>
+      </c>
+      <c r="G409">
+        <v>105</v>
+      </c>
+      <c r="H409" t="s">
+        <v>35</v>
+      </c>
+      <c r="I409" t="s">
+        <v>120</v>
+      </c>
+      <c r="J409">
+        <v>255.5</v>
+      </c>
+      <c r="K409" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>14</v>
+      </c>
+      <c r="C410" t="s">
+        <v>21</v>
+      </c>
+      <c r="D410">
+        <v>150.5</v>
+      </c>
+      <c r="E410" t="s">
+        <v>17</v>
+      </c>
+      <c r="F410">
+        <v>952</v>
+      </c>
+      <c r="G410">
+        <v>105</v>
+      </c>
+      <c r="H410" t="s">
+        <v>37</v>
+      </c>
+      <c r="I410" t="s">
+        <v>120</v>
+      </c>
+      <c r="J410">
+        <v>255.5</v>
+      </c>
+      <c r="K410" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>14</v>
+      </c>
+      <c r="C411" t="s">
+        <v>21</v>
+      </c>
+      <c r="D411">
+        <v>150.5</v>
+      </c>
+      <c r="E411" t="s">
+        <v>17</v>
+      </c>
+      <c r="F411">
+        <v>952</v>
+      </c>
+      <c r="G411">
+        <v>105</v>
+      </c>
+      <c r="H411" t="s">
+        <v>37</v>
+      </c>
+      <c r="I411" t="s">
+        <v>120</v>
+      </c>
+      <c r="J411">
+        <v>255.5</v>
+      </c>
+      <c r="K411" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>21</v>
+      </c>
+      <c r="C412" t="s">
+        <v>21</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412" t="s">
+        <v>17</v>
+      </c>
+      <c r="F412">
+        <v>350</v>
+      </c>
+      <c r="G412">
+        <v>87.5</v>
+      </c>
+      <c r="H412" t="s">
+        <v>27</v>
+      </c>
+      <c r="I412" t="s">
+        <v>123</v>
+      </c>
+      <c r="J412">
+        <v>87.5</v>
+      </c>
+      <c r="K412" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>12</v>
+      </c>
+      <c r="C413" t="s">
+        <v>21</v>
+      </c>
+      <c r="D413">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E413" t="s">
+        <v>17</v>
+      </c>
+      <c r="F413">
+        <v>702</v>
+      </c>
+      <c r="G413">
+        <v>87.5</v>
+      </c>
+      <c r="H413" t="s">
+        <v>37</v>
+      </c>
+      <c r="I413" t="s">
+        <v>120</v>
+      </c>
+      <c r="J413">
+        <v>157.9</v>
+      </c>
+      <c r="K413" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>17</v>
+      </c>
+      <c r="C414" t="s">
+        <v>17</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414" t="s">
+        <v>14</v>
+      </c>
+      <c r="F414">
+        <v>250</v>
+      </c>
+      <c r="G414">
+        <v>62.5</v>
+      </c>
+      <c r="H414" t="s">
+        <v>37</v>
+      </c>
+      <c r="I414" t="s">
+        <v>120</v>
+      </c>
+      <c r="J414">
+        <v>62.5</v>
+      </c>
+      <c r="K414" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>17</v>
+      </c>
+      <c r="C415" t="s">
+        <v>17</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415" t="s">
+        <v>14</v>
+      </c>
+      <c r="F415">
+        <v>250</v>
+      </c>
+      <c r="G415">
+        <v>62.5</v>
+      </c>
+      <c r="H415" t="s">
+        <v>37</v>
+      </c>
+      <c r="I415" t="s">
+        <v>120</v>
+      </c>
+      <c r="J415">
+        <v>62.5</v>
+      </c>
+      <c r="K415" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>17</v>
+      </c>
+      <c r="C416" t="s">
+        <v>21</v>
+      </c>
+      <c r="D416">
+        <v>88</v>
+      </c>
+      <c r="E416" t="s">
+        <v>17</v>
+      </c>
+      <c r="F416">
+        <v>702</v>
+      </c>
+      <c r="G416">
+        <v>105</v>
+      </c>
+      <c r="H416" t="s">
+        <v>27</v>
+      </c>
+      <c r="I416" t="s">
+        <v>121</v>
+      </c>
+      <c r="J416">
+        <v>193</v>
+      </c>
+      <c r="K416" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>17</v>
+      </c>
+      <c r="C417" t="s">
+        <v>21</v>
+      </c>
+      <c r="D417">
+        <v>88</v>
+      </c>
+      <c r="E417" t="s">
+        <v>17</v>
+      </c>
+      <c r="F417">
+        <v>702</v>
+      </c>
+      <c r="G417">
+        <v>105</v>
+      </c>
+      <c r="H417" t="s">
+        <v>33</v>
+      </c>
+      <c r="I417" t="s">
+        <v>121</v>
+      </c>
+      <c r="J417">
+        <v>193</v>
+      </c>
+      <c r="K417" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>17</v>
+      </c>
+      <c r="C418" t="s">
+        <v>21</v>
+      </c>
+      <c r="D418">
+        <v>88</v>
+      </c>
+      <c r="E418" t="s">
+        <v>17</v>
+      </c>
+      <c r="F418">
+        <v>702</v>
+      </c>
+      <c r="G418">
+        <v>105</v>
+      </c>
+      <c r="H418" t="s">
+        <v>35</v>
+      </c>
+      <c r="I418" t="s">
+        <v>121</v>
+      </c>
+      <c r="J418">
+        <v>193</v>
+      </c>
+      <c r="K418" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>17</v>
+      </c>
+      <c r="C419" t="s">
+        <v>21</v>
+      </c>
+      <c r="D419">
+        <v>88</v>
+      </c>
+      <c r="E419" t="s">
+        <v>17</v>
+      </c>
+      <c r="F419">
+        <v>702</v>
+      </c>
+      <c r="G419">
+        <v>105</v>
+      </c>
+      <c r="H419" t="s">
+        <v>37</v>
+      </c>
+      <c r="I419" t="s">
+        <v>121</v>
+      </c>
+      <c r="J419">
+        <v>193</v>
+      </c>
+      <c r="K419" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>22</v>
+      </c>
+      <c r="C420" t="s">
+        <v>21</v>
+      </c>
+      <c r="D420">
+        <v>135.5</v>
+      </c>
+      <c r="E420" t="s">
+        <v>17</v>
+      </c>
+      <c r="F420">
+        <v>892</v>
+      </c>
+      <c r="G420">
+        <v>105</v>
+      </c>
+      <c r="H420" t="s">
+        <v>37</v>
+      </c>
+      <c r="I420" t="s">
+        <v>121</v>
+      </c>
+      <c r="J420">
+        <v>240.5</v>
+      </c>
+      <c r="K420" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>17</v>
+      </c>
+      <c r="C421" t="s">
+        <v>21</v>
+      </c>
+      <c r="D421">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E421" t="s">
+        <v>17</v>
+      </c>
+      <c r="F421">
+        <v>702</v>
+      </c>
+      <c r="G421">
+        <v>87.5</v>
+      </c>
+      <c r="H421" t="s">
+        <v>37</v>
+      </c>
+      <c r="I421" t="s">
+        <v>121</v>
+      </c>
+      <c r="J421">
+        <v>157.9</v>
+      </c>
+      <c r="K421" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>12</v>
+      </c>
+      <c r="C422" t="s">
+        <v>21</v>
+      </c>
+      <c r="D422">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E422" t="s">
+        <v>17</v>
+      </c>
+      <c r="F422">
+        <v>702</v>
+      </c>
+      <c r="G422">
+        <v>87.5</v>
+      </c>
+      <c r="H422" t="s">
+        <v>37</v>
+      </c>
+      <c r="I422" t="s">
+        <v>121</v>
+      </c>
+      <c r="J422">
+        <v>157.9</v>
+      </c>
+      <c r="K422" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>17</v>
+      </c>
+      <c r="C423" t="s">
+        <v>17</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423" t="s">
+        <v>14</v>
+      </c>
+      <c r="F423">
+        <v>250</v>
+      </c>
+      <c r="G423">
+        <v>62.5</v>
+      </c>
+      <c r="H423" t="s">
+        <v>37</v>
+      </c>
+      <c r="I423" t="s">
+        <v>121</v>
+      </c>
+      <c r="J423">
+        <v>62.5</v>
+      </c>
+      <c r="K423" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>16</v>
+      </c>
+      <c r="C424" t="s">
+        <v>17</v>
+      </c>
+      <c r="D424">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="E424" t="s">
+        <v>14</v>
+      </c>
+      <c r="F424">
+        <v>452</v>
+      </c>
+      <c r="G424">
+        <v>62.5</v>
+      </c>
+      <c r="H424" t="s">
+        <v>37</v>
+      </c>
+      <c r="I424" t="s">
+        <v>121</v>
+      </c>
+      <c r="J424">
+        <v>102.9</v>
+      </c>
+      <c r="K424" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>17</v>
+      </c>
+      <c r="C425" t="s">
+        <v>21</v>
+      </c>
+      <c r="D425">
+        <v>88</v>
+      </c>
+      <c r="E425" t="s">
+        <v>17</v>
+      </c>
+      <c r="F425">
+        <v>702</v>
+      </c>
+      <c r="G425">
+        <v>105</v>
+      </c>
+      <c r="H425" t="s">
+        <v>27</v>
+      </c>
+      <c r="I425" t="s">
+        <v>122</v>
+      </c>
+      <c r="J425">
+        <v>193</v>
+      </c>
+      <c r="K425" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>17</v>
+      </c>
+      <c r="C426" t="s">
+        <v>21</v>
+      </c>
+      <c r="D426">
+        <v>88</v>
+      </c>
+      <c r="E426" t="s">
+        <v>17</v>
+      </c>
+      <c r="F426">
+        <v>702</v>
+      </c>
+      <c r="G426">
+        <v>105</v>
+      </c>
+      <c r="H426" t="s">
+        <v>33</v>
+      </c>
+      <c r="I426" t="s">
+        <v>122</v>
+      </c>
+      <c r="J426">
+        <v>193</v>
+      </c>
+      <c r="K426" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>17</v>
+      </c>
+      <c r="C427" t="s">
+        <v>21</v>
+      </c>
+      <c r="D427">
+        <v>88</v>
+      </c>
+      <c r="E427" t="s">
+        <v>17</v>
+      </c>
+      <c r="F427">
+        <v>702</v>
+      </c>
+      <c r="G427">
+        <v>105</v>
+      </c>
+      <c r="H427" t="s">
+        <v>35</v>
+      </c>
+      <c r="I427" t="s">
+        <v>122</v>
+      </c>
+      <c r="J427">
+        <v>193</v>
+      </c>
+      <c r="K427" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>17</v>
+      </c>
+      <c r="C428" t="s">
+        <v>21</v>
+      </c>
+      <c r="D428">
+        <v>88</v>
+      </c>
+      <c r="E428" t="s">
+        <v>17</v>
+      </c>
+      <c r="F428">
+        <v>702</v>
+      </c>
+      <c r="G428">
+        <v>105</v>
+      </c>
+      <c r="H428" t="s">
+        <v>37</v>
+      </c>
+      <c r="I428" t="s">
+        <v>122</v>
+      </c>
+      <c r="J428">
+        <v>193</v>
+      </c>
+      <c r="K428" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>17</v>
+      </c>
+      <c r="C429" t="s">
+        <v>21</v>
+      </c>
+      <c r="D429">
+        <v>88</v>
+      </c>
+      <c r="E429" t="s">
+        <v>17</v>
+      </c>
+      <c r="F429">
+        <v>702</v>
+      </c>
+      <c r="G429">
+        <v>105</v>
+      </c>
+      <c r="H429" t="s">
+        <v>37</v>
+      </c>
+      <c r="I429" t="s">
+        <v>122</v>
+      </c>
+      <c r="J429">
+        <v>193</v>
+      </c>
+      <c r="K429" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>17</v>
+      </c>
+      <c r="C430" t="s">
+        <v>21</v>
+      </c>
+      <c r="D430">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E430" t="s">
+        <v>17</v>
+      </c>
+      <c r="F430">
+        <v>702</v>
+      </c>
+      <c r="G430">
+        <v>87.5</v>
+      </c>
+      <c r="H430" t="s">
+        <v>37</v>
+      </c>
+      <c r="I430" t="s">
+        <v>122</v>
+      </c>
+      <c r="J430">
+        <v>157.9</v>
+      </c>
+      <c r="K430" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>21</v>
+      </c>
+      <c r="C431" t="s">
+        <v>21</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431" t="s">
+        <v>17</v>
+      </c>
+      <c r="F431">
+        <v>350</v>
+      </c>
+      <c r="G431">
+        <v>52.5</v>
+      </c>
+      <c r="H431" t="s">
+        <v>26</v>
+      </c>
+      <c r="I431" t="s">
+        <v>136</v>
+      </c>
+      <c r="J431">
+        <v>52.5</v>
+      </c>
+      <c r="K431" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>17</v>
+      </c>
+      <c r="C432" t="s">
+        <v>17</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432" t="s">
+        <v>14</v>
+      </c>
+      <c r="F432">
+        <v>250</v>
+      </c>
+      <c r="G432">
+        <v>62.5</v>
+      </c>
+      <c r="H432" t="s">
+        <v>26</v>
+      </c>
+      <c r="I432" t="s">
+        <v>122</v>
+      </c>
+      <c r="J432">
+        <v>62.5</v>
+      </c>
+      <c r="K432" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>17</v>
+      </c>
+      <c r="C433" t="s">
+        <v>17</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433" t="s">
+        <v>14</v>
+      </c>
+      <c r="F433">
+        <v>250</v>
+      </c>
+      <c r="G433">
+        <v>37.5</v>
+      </c>
+      <c r="H433" t="s">
+        <v>37</v>
+      </c>
+      <c r="I433" t="s">
+        <v>122</v>
+      </c>
+      <c r="J433">
+        <v>37.5</v>
+      </c>
+      <c r="K433" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="C434" t="s">
+        <v>21</v>
+      </c>
+      <c r="E434" t="s">
+        <v>17</v>
+      </c>
+      <c r="K434" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>17</v>
+      </c>
+      <c r="C435" t="s">
+        <v>17</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435" t="s">
+        <v>23</v>
+      </c>
+      <c r="F435">
+        <v>150</v>
+      </c>
+      <c r="G435">
+        <v>37.5</v>
+      </c>
+      <c r="H435" t="s">
+        <v>26</v>
+      </c>
+      <c r="I435" t="s">
+        <v>137</v>
+      </c>
+      <c r="J435">
+        <v>37.5</v>
+      </c>
+      <c r="K435" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>23</v>
+      </c>
+      <c r="C436" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436">
+        <v>30.4</v>
+      </c>
+      <c r="E436" t="s">
+        <v>23</v>
+      </c>
+      <c r="F436">
+        <v>302</v>
+      </c>
+      <c r="G436">
+        <v>37.5</v>
+      </c>
+      <c r="H436" t="s">
+        <v>26</v>
+      </c>
+      <c r="I436" t="s">
+        <v>138</v>
+      </c>
+      <c r="J436">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K436" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="C437" t="s">
+        <v>21</v>
+      </c>
+      <c r="E437" t="s">
+        <v>17</v>
+      </c>
+      <c r="K437" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>17</v>
+      </c>
+      <c r="C438" t="s">
+        <v>17</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438" t="s">
+        <v>23</v>
+      </c>
+      <c r="F438">
+        <v>150</v>
+      </c>
+      <c r="G438">
+        <v>45</v>
+      </c>
+      <c r="H438" t="s">
+        <v>26</v>
+      </c>
+      <c r="I438" t="s">
+        <v>127</v>
+      </c>
+      <c r="J438">
+        <v>45</v>
+      </c>
+      <c r="K438" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>17</v>
+      </c>
+      <c r="C439" t="s">
+        <v>17</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439" t="s">
+        <v>23</v>
+      </c>
+      <c r="F439">
+        <v>150</v>
+      </c>
+      <c r="G439">
+        <v>45</v>
+      </c>
+      <c r="H439" t="s">
+        <v>27</v>
+      </c>
+      <c r="I439" t="s">
+        <v>127</v>
+      </c>
+      <c r="J439">
+        <v>45</v>
+      </c>
+      <c r="K439" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>23</v>
+      </c>
+      <c r="C440" t="s">
+        <v>17</v>
+      </c>
+      <c r="D440">
+        <v>30.4</v>
+      </c>
+      <c r="E440" t="s">
+        <v>23</v>
+      </c>
+      <c r="F440">
+        <v>302</v>
+      </c>
+      <c r="G440">
+        <v>37.5</v>
+      </c>
+      <c r="H440" t="s">
+        <v>28</v>
+      </c>
+      <c r="I440" t="s">
+        <v>127</v>
+      </c>
+      <c r="J440">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K440" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>17</v>
+      </c>
+      <c r="C441" t="s">
+        <v>17</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441" t="s">
+        <v>23</v>
+      </c>
+      <c r="F441">
+        <v>150</v>
+      </c>
+      <c r="G441">
+        <v>22.5</v>
+      </c>
+      <c r="H441" t="s">
+        <v>29</v>
+      </c>
+      <c r="I441" t="s">
+        <v>127</v>
+      </c>
+      <c r="J441">
+        <v>22.5</v>
+      </c>
+      <c r="K441" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="C442" t="s">
+        <v>21</v>
+      </c>
+      <c r="E442" t="s">
+        <v>17</v>
+      </c>
+      <c r="K442" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>17</v>
+      </c>
+      <c r="C443" t="s">
+        <v>17</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443" t="s">
+        <v>23</v>
+      </c>
+      <c r="F443">
+        <v>150</v>
+      </c>
+      <c r="G443">
+        <v>45</v>
+      </c>
+      <c r="H443" t="s">
+        <v>26</v>
+      </c>
+      <c r="I443" t="s">
+        <v>139</v>
+      </c>
+      <c r="J443">
+        <v>45</v>
+      </c>
+      <c r="K443" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>17</v>
+      </c>
+      <c r="C444" t="s">
+        <v>17</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444" t="s">
+        <v>23</v>
+      </c>
+      <c r="F444">
+        <v>150</v>
+      </c>
+      <c r="G444">
+        <v>45</v>
+      </c>
+      <c r="H444" t="s">
+        <v>27</v>
+      </c>
+      <c r="I444" t="s">
+        <v>139</v>
+      </c>
+      <c r="J444">
+        <v>45</v>
+      </c>
+      <c r="K444" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>23</v>
+      </c>
+      <c r="C445" t="s">
+        <v>17</v>
+      </c>
+      <c r="D445">
+        <v>30.4</v>
+      </c>
+      <c r="E445" t="s">
+        <v>23</v>
+      </c>
+      <c r="F445">
+        <v>302</v>
+      </c>
+      <c r="G445">
+        <v>37.5</v>
+      </c>
+      <c r="H445" t="s">
+        <v>28</v>
+      </c>
+      <c r="I445" t="s">
+        <v>139</v>
+      </c>
+      <c r="J445">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K445" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>17</v>
+      </c>
+      <c r="C446" t="s">
+        <v>17</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446" t="s">
+        <v>23</v>
+      </c>
+      <c r="F446">
+        <v>150</v>
+      </c>
+      <c r="G446">
+        <v>22.5</v>
+      </c>
+      <c r="H446" t="s">
+        <v>29</v>
+      </c>
+      <c r="I446" t="s">
+        <v>139</v>
+      </c>
+      <c r="J446">
+        <v>22.5</v>
+      </c>
+      <c r="K446" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="C447" t="s">
+        <v>21</v>
+      </c>
+      <c r="E447" t="s">
+        <v>17</v>
+      </c>
+      <c r="K447" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>17</v>
+      </c>
+      <c r="C448" t="s">
+        <v>17</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448" t="s">
+        <v>23</v>
+      </c>
+      <c r="F448">
+        <v>150</v>
+      </c>
+      <c r="G448">
+        <v>45</v>
+      </c>
+      <c r="H448" t="s">
+        <v>26</v>
+      </c>
+      <c r="I448" t="s">
+        <v>140</v>
+      </c>
+      <c r="J448">
+        <v>45</v>
+      </c>
+      <c r="K448" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>17</v>
+      </c>
+      <c r="C449" t="s">
+        <v>17</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449" t="s">
+        <v>23</v>
+      </c>
+      <c r="F449">
+        <v>150</v>
+      </c>
+      <c r="G449">
+        <v>45</v>
+      </c>
+      <c r="H449" t="s">
+        <v>27</v>
+      </c>
+      <c r="I449" t="s">
+        <v>140</v>
+      </c>
+      <c r="J449">
+        <v>45</v>
+      </c>
+      <c r="K449" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" t="s">
+        <v>17</v>
+      </c>
+      <c r="D450">
+        <v>30.4</v>
+      </c>
+      <c r="E450" t="s">
+        <v>23</v>
+      </c>
+      <c r="F450">
+        <v>302</v>
+      </c>
+      <c r="G450">
+        <v>37.5</v>
+      </c>
+      <c r="H450" t="s">
+        <v>28</v>
+      </c>
+      <c r="I450" t="s">
+        <v>140</v>
+      </c>
+      <c r="J450">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K450" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>23</v>
+      </c>
+      <c r="C451" t="s">
+        <v>17</v>
+      </c>
+      <c r="D451">
+        <v>30.4</v>
+      </c>
+      <c r="E451" t="s">
+        <v>23</v>
+      </c>
+      <c r="F451">
+        <v>302</v>
+      </c>
+      <c r="G451">
+        <v>22.5</v>
+      </c>
+      <c r="H451" t="s">
+        <v>29</v>
+      </c>
+      <c r="I451" t="s">
+        <v>140</v>
+      </c>
+      <c r="J451">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="K451" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="C452" t="s">
+        <v>21</v>
+      </c>
+      <c r="E452" t="s">
+        <v>17</v>
+      </c>
+      <c r="K452" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>17</v>
+      </c>
+      <c r="C453" t="s">
+        <v>17</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453" t="s">
+        <v>23</v>
+      </c>
+      <c r="F453">
+        <v>150</v>
+      </c>
+      <c r="G453">
+        <v>45</v>
+      </c>
+      <c r="H453" t="s">
+        <v>26</v>
+      </c>
+      <c r="I453" t="s">
+        <v>139</v>
+      </c>
+      <c r="J453">
+        <v>45</v>
+      </c>
+      <c r="K453" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" t="s">
+        <v>17</v>
+      </c>
+      <c r="D454">
+        <v>38</v>
+      </c>
+      <c r="E454" t="s">
+        <v>23</v>
+      </c>
+      <c r="F454">
+        <v>302</v>
+      </c>
+      <c r="G454">
+        <v>45</v>
+      </c>
+      <c r="H454" t="s">
+        <v>27</v>
+      </c>
+      <c r="I454" t="s">
+        <v>139</v>
+      </c>
+      <c r="J454">
+        <v>83</v>
+      </c>
+      <c r="K454" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" t="s">
+        <v>17</v>
+      </c>
+      <c r="D455">
+        <v>38</v>
+      </c>
+      <c r="E455" t="s">
+        <v>23</v>
+      </c>
+      <c r="F455">
+        <v>302</v>
+      </c>
+      <c r="G455">
+        <v>45</v>
+      </c>
+      <c r="H455" t="s">
+        <v>26</v>
+      </c>
+      <c r="I455" t="s">
+        <v>141</v>
+      </c>
+      <c r="J455">
+        <v>83</v>
+      </c>
+      <c r="K455" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" t="s">
+        <v>17</v>
+      </c>
+      <c r="D456">
+        <v>38</v>
+      </c>
+      <c r="E456" t="s">
+        <v>23</v>
+      </c>
+      <c r="F456">
+        <v>302</v>
+      </c>
+      <c r="G456">
+        <v>45</v>
+      </c>
+      <c r="H456" t="s">
+        <v>26</v>
+      </c>
+      <c r="I456" t="s">
+        <v>142</v>
+      </c>
+      <c r="J456">
+        <v>83</v>
+      </c>
+      <c r="K456" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>23</v>
+      </c>
+      <c r="C457" t="s">
+        <v>17</v>
+      </c>
+      <c r="D457">
+        <v>38</v>
+      </c>
+      <c r="E457" t="s">
+        <v>23</v>
+      </c>
+      <c r="F457">
+        <v>302</v>
+      </c>
+      <c r="G457">
+        <v>45</v>
+      </c>
+      <c r="H457" t="s">
+        <v>26</v>
+      </c>
+      <c r="I457" t="s">
+        <v>143</v>
+      </c>
+      <c r="J457">
+        <v>83</v>
+      </c>
+      <c r="K457" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>23</v>
+      </c>
+      <c r="C458" t="s">
+        <v>17</v>
+      </c>
+      <c r="D458">
+        <v>38</v>
+      </c>
+      <c r="E458" t="s">
+        <v>23</v>
+      </c>
+      <c r="F458">
+        <v>302</v>
+      </c>
+      <c r="G458">
+        <v>45</v>
+      </c>
+      <c r="H458" t="s">
+        <v>26</v>
+      </c>
+      <c r="I458" t="s">
+        <v>144</v>
+      </c>
+      <c r="J458">
+        <v>83</v>
+      </c>
+      <c r="K458" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>23</v>
+      </c>
+      <c r="C459" t="s">
+        <v>17</v>
+      </c>
+      <c r="D459">
+        <v>38</v>
+      </c>
+      <c r="E459" t="s">
+        <v>23</v>
+      </c>
+      <c r="F459">
+        <v>302</v>
+      </c>
+      <c r="G459">
+        <v>45</v>
+      </c>
+      <c r="H459" t="s">
+        <v>26</v>
+      </c>
+      <c r="I459" t="s">
+        <v>145</v>
+      </c>
+      <c r="J459">
+        <v>83</v>
+      </c>
+      <c r="K459" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>23</v>
+      </c>
+      <c r="C460" t="s">
+        <v>17</v>
+      </c>
+      <c r="D460">
+        <v>38</v>
+      </c>
+      <c r="E460" t="s">
+        <v>23</v>
+      </c>
+      <c r="F460">
+        <v>302</v>
+      </c>
+      <c r="G460">
+        <v>45</v>
+      </c>
+      <c r="H460" t="s">
+        <v>26</v>
+      </c>
+      <c r="I460" t="s">
+        <v>146</v>
+      </c>
+      <c r="J460">
+        <v>83</v>
+      </c>
+      <c r="K460" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>23</v>
+      </c>
+      <c r="C461" t="s">
+        <v>17</v>
+      </c>
+      <c r="D461">
+        <v>38</v>
+      </c>
+      <c r="E461" t="s">
+        <v>23</v>
+      </c>
+      <c r="F461">
+        <v>302</v>
+      </c>
+      <c r="G461">
+        <v>45</v>
+      </c>
+      <c r="H461" t="s">
+        <v>26</v>
+      </c>
+      <c r="I461" t="s">
+        <v>147</v>
+      </c>
+      <c r="J461">
+        <v>83</v>
+      </c>
+      <c r="K461" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>23</v>
+      </c>
+      <c r="C462" t="s">
+        <v>17</v>
+      </c>
+      <c r="D462">
+        <v>38</v>
+      </c>
+      <c r="E462" t="s">
+        <v>23</v>
+      </c>
+      <c r="F462">
+        <v>302</v>
+      </c>
+      <c r="G462">
+        <v>45</v>
+      </c>
+      <c r="H462" t="s">
+        <v>26</v>
+      </c>
+      <c r="I462" t="s">
+        <v>148</v>
+      </c>
+      <c r="J462">
+        <v>83</v>
+      </c>
+      <c r="K462" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>23</v>
+      </c>
+      <c r="C463" t="s">
+        <v>17</v>
+      </c>
+      <c r="D463">
+        <v>38</v>
+      </c>
+      <c r="E463" t="s">
+        <v>23</v>
+      </c>
+      <c r="F463">
+        <v>302</v>
+      </c>
+      <c r="G463">
+        <v>45</v>
+      </c>
+      <c r="H463" t="s">
+        <v>26</v>
+      </c>
+      <c r="I463" t="s">
+        <v>149</v>
+      </c>
+      <c r="J463">
+        <v>83</v>
+      </c>
+      <c r="K463" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>23</v>
+      </c>
+      <c r="C464" t="s">
+        <v>17</v>
+      </c>
+      <c r="D464">
+        <v>38</v>
+      </c>
+      <c r="E464" t="s">
+        <v>23</v>
+      </c>
+      <c r="F464">
+        <v>302</v>
+      </c>
+      <c r="G464">
+        <v>45</v>
+      </c>
+      <c r="H464" t="s">
+        <v>26</v>
+      </c>
+      <c r="I464" t="s">
+        <v>150</v>
+      </c>
+      <c r="J464">
+        <v>83</v>
+      </c>
+      <c r="K464" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>23</v>
+      </c>
+      <c r="C465" t="s">
+        <v>17</v>
+      </c>
+      <c r="D465">
+        <v>38</v>
+      </c>
+      <c r="E465" t="s">
+        <v>23</v>
+      </c>
+      <c r="F465">
+        <v>302</v>
+      </c>
+      <c r="G465">
+        <v>45</v>
+      </c>
+      <c r="H465" t="s">
+        <v>26</v>
+      </c>
+      <c r="I465" t="s">
+        <v>151</v>
+      </c>
+      <c r="J465">
+        <v>83</v>
+      </c>
+      <c r="K465" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>23</v>
+      </c>
+      <c r="C466" t="s">
+        <v>17</v>
+      </c>
+      <c r="D466">
+        <v>30.4</v>
+      </c>
+      <c r="E466" t="s">
+        <v>23</v>
+      </c>
+      <c r="F466">
+        <v>302</v>
+      </c>
+      <c r="G466">
+        <v>37.5</v>
+      </c>
+      <c r="H466" t="s">
+        <v>27</v>
+      </c>
+      <c r="I466" t="s">
+        <v>141</v>
+      </c>
+      <c r="J466">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="K466" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/storage/history_0.xlsx
+++ b/storage/history_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="203">
   <si>
     <t>car_point</t>
   </si>
@@ -470,6 +470,18 @@
   </si>
   <si>
     <t>2019-03-29 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-03 00:00:00</t>
   </si>
   <si>
     <t>B_1</t>
@@ -968,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K466"/>
+  <dimension ref="A1:K526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1073,7 +1085,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1108,7 +1120,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1122,7 +1134,7 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1157,7 +1169,7 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1192,7 +1204,7 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1227,7 +1239,7 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1262,7 +1274,7 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1297,7 +1309,7 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1332,7 +1344,7 @@
         <v>47.9</v>
       </c>
       <c r="K11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1367,7 +1379,7 @@
         <v>47.9</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1381,7 +1393,7 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1395,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1430,7 +1442,7 @@
         <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1465,7 +1477,7 @@
         <v>62.90000000000001</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1500,7 +1512,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1514,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1549,7 +1561,7 @@
         <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1584,7 +1596,7 @@
         <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1619,7 +1631,7 @@
         <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1654,7 +1666,7 @@
         <v>37.5</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1668,7 +1680,7 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1682,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1717,7 +1729,7 @@
         <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1752,7 +1764,7 @@
         <v>83</v>
       </c>
       <c r="K26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1787,7 +1799,7 @@
         <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1822,7 +1834,7 @@
         <v>37.5</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1836,7 +1848,7 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1871,7 +1883,7 @@
         <v>37.5</v>
       </c>
       <c r="K30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1906,7 +1918,7 @@
         <v>37.5</v>
       </c>
       <c r="K31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1920,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1934,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1948,7 +1960,7 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1983,7 +1995,7 @@
         <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2018,7 +2030,7 @@
         <v>132.5</v>
       </c>
       <c r="K36" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2053,7 +2065,7 @@
         <v>132.5</v>
       </c>
       <c r="K37" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2088,7 +2100,7 @@
         <v>132.5</v>
       </c>
       <c r="K38" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2123,7 +2135,7 @@
         <v>132.5</v>
       </c>
       <c r="K39" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2158,7 +2170,7 @@
         <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2193,7 +2205,7 @@
         <v>132.5</v>
       </c>
       <c r="K41" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2228,7 +2240,7 @@
         <v>132.5</v>
       </c>
       <c r="K42" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2263,7 +2275,7 @@
         <v>100.4</v>
       </c>
       <c r="K43" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2298,7 +2310,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2312,7 +2324,7 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2347,7 +2359,7 @@
         <v>132.5</v>
       </c>
       <c r="K46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2382,7 +2394,7 @@
         <v>132.5</v>
       </c>
       <c r="K47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2417,7 +2429,7 @@
         <v>132.5</v>
       </c>
       <c r="K48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2452,7 +2464,7 @@
         <v>132.5</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2487,7 +2499,7 @@
         <v>132.5</v>
       </c>
       <c r="K50" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2522,7 +2534,7 @@
         <v>132.5</v>
       </c>
       <c r="K51" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2557,7 +2569,7 @@
         <v>132.5</v>
       </c>
       <c r="K52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2592,7 +2604,7 @@
         <v>132.5</v>
       </c>
       <c r="K53" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2627,7 +2639,7 @@
         <v>100.4</v>
       </c>
       <c r="K54" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2662,7 +2674,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="K55" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2697,7 +2709,7 @@
         <v>73</v>
       </c>
       <c r="K56" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2732,7 +2744,7 @@
         <v>73</v>
       </c>
       <c r="K57" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2767,7 +2779,7 @@
         <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2802,7 +2814,7 @@
         <v>40.4</v>
       </c>
       <c r="K59" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2816,7 +2828,7 @@
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2851,7 +2863,7 @@
         <v>72</v>
       </c>
       <c r="K61" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2886,7 +2898,7 @@
         <v>72</v>
       </c>
       <c r="K62" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2921,7 +2933,7 @@
         <v>132.5</v>
       </c>
       <c r="K63" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2956,7 +2968,7 @@
         <v>132.5</v>
       </c>
       <c r="K64" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2991,7 +3003,7 @@
         <v>132.5</v>
       </c>
       <c r="K65" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3005,7 +3017,7 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3040,7 +3052,7 @@
         <v>120.5</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3075,7 +3087,7 @@
         <v>110.5</v>
       </c>
       <c r="K68" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3110,7 +3122,7 @@
         <v>120.5</v>
       </c>
       <c r="K69" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3145,7 +3157,7 @@
         <v>110.5</v>
       </c>
       <c r="K70" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3180,7 +3192,7 @@
         <v>120.5</v>
       </c>
       <c r="K71" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3215,7 +3227,7 @@
         <v>110.5</v>
       </c>
       <c r="K72" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3250,7 +3262,7 @@
         <v>110.5</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3285,7 +3297,7 @@
         <v>110.5</v>
       </c>
       <c r="K74" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3320,7 +3332,7 @@
         <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3334,7 +3346,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3369,7 +3381,7 @@
         <v>110.5</v>
       </c>
       <c r="K77" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3404,7 +3416,7 @@
         <v>110.5</v>
       </c>
       <c r="K78" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3439,7 +3451,7 @@
         <v>110.5</v>
       </c>
       <c r="K79" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3474,7 +3486,7 @@
         <v>110.5</v>
       </c>
       <c r="K80" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3509,7 +3521,7 @@
         <v>110.5</v>
       </c>
       <c r="K81" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3523,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3558,7 +3570,7 @@
         <v>110.5</v>
       </c>
       <c r="K83" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3593,7 +3605,7 @@
         <v>110.5</v>
       </c>
       <c r="K84" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3628,7 +3640,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K85" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3663,7 +3675,7 @@
         <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3677,7 +3689,7 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3712,7 +3724,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K88" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3726,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3740,7 +3752,7 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3754,7 +3766,7 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3768,7 +3780,7 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3803,7 +3815,7 @@
         <v>110.5</v>
       </c>
       <c r="K93" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3838,7 +3850,7 @@
         <v>110.5</v>
       </c>
       <c r="K94" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3873,7 +3885,7 @@
         <v>110.5</v>
       </c>
       <c r="K95" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3908,7 +3920,7 @@
         <v>110.5</v>
       </c>
       <c r="K96" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3943,7 +3955,7 @@
         <v>120.5</v>
       </c>
       <c r="K97" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3978,7 +3990,7 @@
         <v>110.5</v>
       </c>
       <c r="K98" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4013,7 +4025,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K99" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4048,7 +4060,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K100" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4062,7 +4074,7 @@
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4097,7 +4109,7 @@
         <v>110.5</v>
       </c>
       <c r="K102" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4132,7 +4144,7 @@
         <v>110.5</v>
       </c>
       <c r="K103" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4167,7 +4179,7 @@
         <v>110.5</v>
       </c>
       <c r="K104" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4202,7 +4214,7 @@
         <v>123</v>
       </c>
       <c r="K105" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4237,7 +4249,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="K106" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4272,7 +4284,7 @@
         <v>78.40000000000001</v>
       </c>
       <c r="K107" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4286,7 +4298,7 @@
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4321,7 +4333,7 @@
         <v>125.5</v>
       </c>
       <c r="K109" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4356,7 +4368,7 @@
         <v>125.5</v>
       </c>
       <c r="K110" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4391,7 +4403,7 @@
         <v>125.5</v>
       </c>
       <c r="K111" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4426,7 +4438,7 @@
         <v>125.5</v>
       </c>
       <c r="K112" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4461,7 +4473,7 @@
         <v>102.9</v>
       </c>
       <c r="K113" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4496,7 +4508,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K114" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4510,7 +4522,7 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4545,7 +4557,7 @@
         <v>138</v>
       </c>
       <c r="K116" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4580,7 +4592,7 @@
         <v>138</v>
       </c>
       <c r="K117" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4615,7 +4627,7 @@
         <v>288</v>
       </c>
       <c r="K118" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4650,7 +4662,7 @@
         <v>138</v>
       </c>
       <c r="K119" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4685,7 +4697,7 @@
         <v>288</v>
       </c>
       <c r="K120" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4720,7 +4732,7 @@
         <v>102.9</v>
       </c>
       <c r="K121" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4755,7 +4767,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K122" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4769,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4804,7 +4816,7 @@
         <v>125.5</v>
       </c>
       <c r="K124" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4839,7 +4851,7 @@
         <v>138</v>
       </c>
       <c r="K125" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4874,7 +4886,7 @@
         <v>138</v>
       </c>
       <c r="K126" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4909,7 +4921,7 @@
         <v>138</v>
       </c>
       <c r="K127" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4944,7 +4956,7 @@
         <v>138</v>
       </c>
       <c r="K128" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4979,7 +4991,7 @@
         <v>102.9</v>
       </c>
       <c r="K129" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5014,7 +5026,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K130" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5028,7 +5040,7 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5063,7 +5075,7 @@
         <v>138</v>
       </c>
       <c r="K132" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5098,7 +5110,7 @@
         <v>138</v>
       </c>
       <c r="K133" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5133,7 +5145,7 @@
         <v>110.9</v>
       </c>
       <c r="K134" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5168,7 +5180,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K135" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5182,7 +5194,7 @@
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5217,7 +5229,7 @@
         <v>138</v>
       </c>
       <c r="K137" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5252,7 +5264,7 @@
         <v>288</v>
       </c>
       <c r="K138" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5287,7 +5299,7 @@
         <v>138</v>
       </c>
       <c r="K139" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5322,7 +5334,7 @@
         <v>288</v>
       </c>
       <c r="K140" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5357,7 +5369,7 @@
         <v>110.9</v>
       </c>
       <c r="K141" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5392,7 +5404,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K142" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5406,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5441,7 +5453,7 @@
         <v>135</v>
       </c>
       <c r="K144" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5476,7 +5488,7 @@
         <v>135</v>
       </c>
       <c r="K145" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5490,7 +5502,7 @@
         <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5525,7 +5537,7 @@
         <v>132.5</v>
       </c>
       <c r="K147" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5560,7 +5572,7 @@
         <v>285</v>
       </c>
       <c r="K148" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5595,7 +5607,7 @@
         <v>132.5</v>
       </c>
       <c r="K149" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5630,7 +5642,7 @@
         <v>297.5</v>
       </c>
       <c r="K150" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5665,7 +5677,7 @@
         <v>132.5</v>
       </c>
       <c r="K151" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5700,7 +5712,7 @@
         <v>297.5</v>
       </c>
       <c r="K152" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5714,7 +5726,7 @@
         <v>17</v>
       </c>
       <c r="K153" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5749,7 +5761,7 @@
         <v>132.5</v>
       </c>
       <c r="K154" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5784,7 +5796,7 @@
         <v>110.4</v>
       </c>
       <c r="K155" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5819,7 +5831,7 @@
         <v>108.4</v>
       </c>
       <c r="K156" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5854,7 +5866,7 @@
         <v>40.4</v>
       </c>
       <c r="K157" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5868,7 +5880,7 @@
         <v>12</v>
       </c>
       <c r="K158" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5903,7 +5915,7 @@
         <v>125.5</v>
       </c>
       <c r="K159" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5938,7 +5950,7 @@
         <v>92.90000000000001</v>
       </c>
       <c r="K160" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -5973,7 +5985,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K161" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6008,7 +6020,7 @@
         <v>62.5</v>
       </c>
       <c r="K162" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6043,7 +6055,7 @@
         <v>62.5</v>
       </c>
       <c r="K163" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6078,7 +6090,7 @@
         <v>37.5</v>
       </c>
       <c r="K164" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6092,7 +6104,7 @@
         <v>21</v>
       </c>
       <c r="K165" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6127,7 +6139,7 @@
         <v>37.5</v>
       </c>
       <c r="K166" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6141,7 +6153,7 @@
         <v>21</v>
       </c>
       <c r="K167" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6176,7 +6188,7 @@
         <v>75</v>
       </c>
       <c r="K168" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6211,7 +6223,7 @@
         <v>62.5</v>
       </c>
       <c r="K169" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6246,7 +6258,7 @@
         <v>62.5</v>
       </c>
       <c r="K170" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6260,7 +6272,7 @@
         <v>21</v>
       </c>
       <c r="K171" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6295,7 +6307,7 @@
         <v>70.5</v>
       </c>
       <c r="K172" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6330,7 +6342,7 @@
         <v>70.5</v>
       </c>
       <c r="K173" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6365,7 +6377,7 @@
         <v>70.5</v>
       </c>
       <c r="K174" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6400,7 +6412,7 @@
         <v>70.5</v>
       </c>
       <c r="K175" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6435,7 +6447,7 @@
         <v>70.5</v>
       </c>
       <c r="K176" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6470,7 +6482,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K177" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6505,7 +6517,7 @@
         <v>57.90000000000001</v>
       </c>
       <c r="K178" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6519,7 +6531,7 @@
         <v>21</v>
       </c>
       <c r="K179" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6533,7 +6545,7 @@
         <v>17</v>
       </c>
       <c r="K180" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6568,7 +6580,7 @@
         <v>50</v>
       </c>
       <c r="K181" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6603,7 +6615,7 @@
         <v>50</v>
       </c>
       <c r="K182" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6617,7 +6629,7 @@
         <v>21</v>
       </c>
       <c r="K183" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6652,7 +6664,7 @@
         <v>75</v>
       </c>
       <c r="K184" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6687,7 +6699,7 @@
         <v>138</v>
       </c>
       <c r="K185" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6722,7 +6734,7 @@
         <v>37.5</v>
       </c>
       <c r="K186" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6757,7 +6769,7 @@
         <v>37.5</v>
       </c>
       <c r="K187" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6792,7 +6804,7 @@
         <v>88</v>
       </c>
       <c r="K188" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -6827,7 +6839,7 @@
         <v>88</v>
       </c>
       <c r="K189" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -6862,7 +6874,7 @@
         <v>138</v>
       </c>
       <c r="K190" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -6897,7 +6909,7 @@
         <v>138</v>
       </c>
       <c r="K191" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -6932,7 +6944,7 @@
         <v>200.5</v>
       </c>
       <c r="K192" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -6967,7 +6979,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K193" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7002,7 +7014,7 @@
         <v>47.9</v>
       </c>
       <c r="K194" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7037,7 +7049,7 @@
         <v>138</v>
       </c>
       <c r="K195" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7072,7 +7084,7 @@
         <v>313</v>
       </c>
       <c r="K196" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7107,7 +7119,7 @@
         <v>138</v>
       </c>
       <c r="K197" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7142,7 +7154,7 @@
         <v>313</v>
       </c>
       <c r="K198" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7177,7 +7189,7 @@
         <v>138</v>
       </c>
       <c r="K199" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7212,7 +7224,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K200" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7247,7 +7259,7 @@
         <v>47.9</v>
       </c>
       <c r="K201" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7261,7 +7273,7 @@
         <v>17</v>
       </c>
       <c r="K202" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7275,7 +7287,7 @@
         <v>17</v>
       </c>
       <c r="K203" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7289,7 +7301,7 @@
         <v>17</v>
       </c>
       <c r="K204" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7303,7 +7315,7 @@
         <v>17</v>
       </c>
       <c r="K205" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7317,7 +7329,7 @@
         <v>17</v>
       </c>
       <c r="K206" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7331,7 +7343,7 @@
         <v>17</v>
       </c>
       <c r="K207" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7345,7 +7357,7 @@
         <v>17</v>
       </c>
       <c r="K208" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7359,7 +7371,7 @@
         <v>17</v>
       </c>
       <c r="K209" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7373,7 +7385,7 @@
         <v>17</v>
       </c>
       <c r="K210" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7387,7 +7399,7 @@
         <v>17</v>
       </c>
       <c r="K211" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7401,7 +7413,7 @@
         <v>17</v>
       </c>
       <c r="K212" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7415,7 +7427,7 @@
         <v>17</v>
       </c>
       <c r="K213" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7429,7 +7441,7 @@
         <v>17</v>
       </c>
       <c r="K214" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7464,7 +7476,7 @@
         <v>60</v>
       </c>
       <c r="K215" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7499,7 +7511,7 @@
         <v>60</v>
       </c>
       <c r="K216" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7534,7 +7546,7 @@
         <v>60</v>
       </c>
       <c r="K217" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -7569,7 +7581,7 @@
         <v>60</v>
       </c>
       <c r="K218" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -7604,7 +7616,7 @@
         <v>60</v>
       </c>
       <c r="K219" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -7639,7 +7651,7 @@
         <v>110.5</v>
       </c>
       <c r="K220" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -7674,7 +7686,7 @@
         <v>110.5</v>
       </c>
       <c r="K221" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -7709,7 +7721,7 @@
         <v>50</v>
       </c>
       <c r="K222" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -7744,7 +7756,7 @@
         <v>30</v>
       </c>
       <c r="K223" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -7758,7 +7770,7 @@
         <v>17</v>
       </c>
       <c r="K224" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -7793,7 +7805,7 @@
         <v>110.5</v>
       </c>
       <c r="K225" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -7828,7 +7840,7 @@
         <v>110.5</v>
       </c>
       <c r="K226" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -7863,7 +7875,7 @@
         <v>110.5</v>
       </c>
       <c r="K227" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -7898,7 +7910,7 @@
         <v>110.5</v>
       </c>
       <c r="K228" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -7933,7 +7945,7 @@
         <v>110.5</v>
       </c>
       <c r="K229" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -7968,7 +7980,7 @@
         <v>110.5</v>
       </c>
       <c r="K230" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -8003,7 +8015,7 @@
         <v>60.4</v>
       </c>
       <c r="K231" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -8038,7 +8050,7 @@
         <v>133</v>
       </c>
       <c r="K232" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -8073,7 +8085,7 @@
         <v>83</v>
       </c>
       <c r="K233" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8108,7 +8120,7 @@
         <v>83</v>
       </c>
       <c r="K234" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8143,7 +8155,7 @@
         <v>83</v>
       </c>
       <c r="K235" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8178,7 +8190,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K236" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8213,7 +8225,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K237" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8248,7 +8260,7 @@
         <v>83</v>
       </c>
       <c r="K238" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8262,7 +8274,7 @@
         <v>21</v>
       </c>
       <c r="K239" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8297,7 +8309,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K240" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8332,7 +8344,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K241" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8367,7 +8379,7 @@
         <v>50</v>
       </c>
       <c r="K242" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -8402,7 +8414,7 @@
         <v>50</v>
       </c>
       <c r="K243" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -8416,7 +8428,7 @@
         <v>21</v>
       </c>
       <c r="K244" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -8451,7 +8463,7 @@
         <v>138</v>
       </c>
       <c r="K245" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -8486,7 +8498,7 @@
         <v>138</v>
       </c>
       <c r="K246" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -8521,7 +8533,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K247" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -8556,7 +8568,7 @@
         <v>87.90000000000001</v>
       </c>
       <c r="K248" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -8570,7 +8582,7 @@
         <v>17</v>
       </c>
       <c r="K249" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -8605,7 +8617,7 @@
         <v>60</v>
       </c>
       <c r="K250" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -8640,7 +8652,7 @@
         <v>110.5</v>
       </c>
       <c r="K251" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -8675,7 +8687,7 @@
         <v>110.5</v>
       </c>
       <c r="K252" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -8710,7 +8722,7 @@
         <v>110.5</v>
       </c>
       <c r="K253" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -8745,7 +8757,7 @@
         <v>110.5</v>
       </c>
       <c r="K254" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -8780,7 +8792,7 @@
         <v>110.5</v>
       </c>
       <c r="K255" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -8815,7 +8827,7 @@
         <v>110.5</v>
       </c>
       <c r="K256" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -8850,7 +8862,7 @@
         <v>110.5</v>
       </c>
       <c r="K257" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -8885,7 +8897,7 @@
         <v>110.5</v>
       </c>
       <c r="K258" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -8920,7 +8932,7 @@
         <v>50</v>
       </c>
       <c r="K259" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -8955,7 +8967,7 @@
         <v>50</v>
       </c>
       <c r="K260" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -8969,7 +8981,7 @@
         <v>17</v>
       </c>
       <c r="K261" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -9004,7 +9016,7 @@
         <v>110.5</v>
       </c>
       <c r="K262" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -9039,7 +9051,7 @@
         <v>110.5</v>
       </c>
       <c r="K263" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -9074,7 +9086,7 @@
         <v>110.5</v>
       </c>
       <c r="K264" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -9109,7 +9121,7 @@
         <v>110.5</v>
       </c>
       <c r="K265" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -9144,7 +9156,7 @@
         <v>110.5</v>
       </c>
       <c r="K266" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -9179,7 +9191,7 @@
         <v>110.5</v>
       </c>
       <c r="K267" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -9214,7 +9226,7 @@
         <v>110.5</v>
       </c>
       <c r="K268" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -9249,7 +9261,7 @@
         <v>50</v>
       </c>
       <c r="K269" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -9284,7 +9296,7 @@
         <v>50</v>
       </c>
       <c r="K270" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -9298,7 +9310,7 @@
         <v>17</v>
       </c>
       <c r="K271" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -9333,7 +9345,7 @@
         <v>110.5</v>
       </c>
       <c r="K272" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -9368,7 +9380,7 @@
         <v>110.5</v>
       </c>
       <c r="K273" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -9403,7 +9415,7 @@
         <v>110.5</v>
       </c>
       <c r="K274" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -9438,7 +9450,7 @@
         <v>110.5</v>
       </c>
       <c r="K275" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -9473,7 +9485,7 @@
         <v>110.5</v>
       </c>
       <c r="K276" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -9508,7 +9520,7 @@
         <v>110.5</v>
       </c>
       <c r="K277" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -9543,7 +9555,7 @@
         <v>110.5</v>
       </c>
       <c r="K278" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -9578,7 +9590,7 @@
         <v>110.5</v>
       </c>
       <c r="K279" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -9613,7 +9625,7 @@
         <v>110.5</v>
       </c>
       <c r="K280" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -9648,7 +9660,7 @@
         <v>110.5</v>
       </c>
       <c r="K281" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -9683,7 +9695,7 @@
         <v>50</v>
       </c>
       <c r="K282" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -9718,7 +9730,7 @@
         <v>30</v>
       </c>
       <c r="K283" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -9732,7 +9744,7 @@
         <v>17</v>
       </c>
       <c r="K284" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -9767,7 +9779,7 @@
         <v>110.5</v>
       </c>
       <c r="K285" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -9802,7 +9814,7 @@
         <v>110.5</v>
       </c>
       <c r="K286" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -9837,7 +9849,7 @@
         <v>110.5</v>
       </c>
       <c r="K287" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -9872,7 +9884,7 @@
         <v>110.5</v>
       </c>
       <c r="K288" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -9907,7 +9919,7 @@
         <v>110.5</v>
       </c>
       <c r="K289" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -9942,7 +9954,7 @@
         <v>110.5</v>
       </c>
       <c r="K290" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -9977,7 +9989,7 @@
         <v>110.5</v>
       </c>
       <c r="K291" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -10012,7 +10024,7 @@
         <v>110.5</v>
       </c>
       <c r="K292" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -10047,7 +10059,7 @@
         <v>110.5</v>
       </c>
       <c r="K293" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -10082,7 +10094,7 @@
         <v>110.5</v>
       </c>
       <c r="K294" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -10117,7 +10129,7 @@
         <v>50</v>
       </c>
       <c r="K295" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -10152,7 +10164,7 @@
         <v>30</v>
       </c>
       <c r="K296" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -10166,7 +10178,7 @@
         <v>17</v>
       </c>
       <c r="K297" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -10201,7 +10213,7 @@
         <v>110.5</v>
       </c>
       <c r="K298" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -10236,7 +10248,7 @@
         <v>110.5</v>
       </c>
       <c r="K299" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -10271,7 +10283,7 @@
         <v>110.5</v>
       </c>
       <c r="K300" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -10306,7 +10318,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="K301" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -10341,7 +10353,7 @@
         <v>30</v>
       </c>
       <c r="K302" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -10355,7 +10367,7 @@
         <v>17</v>
       </c>
       <c r="K303" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -10390,7 +10402,7 @@
         <v>125.5</v>
       </c>
       <c r="K304" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -10425,7 +10437,7 @@
         <v>125.5</v>
       </c>
       <c r="K305" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -10460,7 +10472,7 @@
         <v>125.5</v>
       </c>
       <c r="K306" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -10495,7 +10507,7 @@
         <v>102.9</v>
       </c>
       <c r="K307" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -10530,7 +10542,7 @@
         <v>37.5</v>
       </c>
       <c r="K308" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -10544,7 +10556,7 @@
         <v>17</v>
       </c>
       <c r="K309" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -10579,7 +10591,7 @@
         <v>125.5</v>
       </c>
       <c r="K310" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -10614,7 +10626,7 @@
         <v>135.5</v>
       </c>
       <c r="K311" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -10649,7 +10661,7 @@
         <v>135.5</v>
       </c>
       <c r="K312" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -10684,7 +10696,7 @@
         <v>102.9</v>
       </c>
       <c r="K313" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -10719,7 +10731,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="K314" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -10754,7 +10766,7 @@
         <v>47.9</v>
       </c>
       <c r="K315" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -10789,7 +10801,7 @@
         <v>47.9</v>
       </c>
       <c r="K316" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -10803,7 +10815,7 @@
         <v>21</v>
       </c>
       <c r="K317" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -10838,7 +10850,7 @@
         <v>62.5</v>
       </c>
       <c r="K318" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -10852,7 +10864,7 @@
         <v>21</v>
       </c>
       <c r="K319" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -10887,7 +10899,7 @@
         <v>75</v>
       </c>
       <c r="K320" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -10901,7 +10913,7 @@
         <v>21</v>
       </c>
       <c r="K321" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -10936,7 +10948,7 @@
         <v>193</v>
       </c>
       <c r="K322" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -10971,7 +10983,7 @@
         <v>193</v>
       </c>
       <c r="K323" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -11006,7 +11018,7 @@
         <v>193</v>
       </c>
       <c r="K324" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -11041,7 +11053,7 @@
         <v>193</v>
       </c>
       <c r="K325" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -11076,7 +11088,7 @@
         <v>157.9</v>
       </c>
       <c r="K326" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -11111,7 +11123,7 @@
         <v>122.9</v>
       </c>
       <c r="K327" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -11146,7 +11158,7 @@
         <v>107.5</v>
       </c>
       <c r="K328" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -11181,7 +11193,7 @@
         <v>117.5</v>
       </c>
       <c r="K329" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -11216,7 +11228,7 @@
         <v>117.5</v>
       </c>
       <c r="K330" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -11251,7 +11263,7 @@
         <v>117.5</v>
       </c>
       <c r="K331" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -11286,7 +11298,7 @@
         <v>47.5</v>
       </c>
       <c r="K332" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -11321,7 +11333,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="K333" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -11356,7 +11368,7 @@
         <v>193</v>
       </c>
       <c r="K334" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -11391,7 +11403,7 @@
         <v>193</v>
       </c>
       <c r="K335" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -11426,7 +11438,7 @@
         <v>193</v>
       </c>
       <c r="K336" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -11461,7 +11473,7 @@
         <v>193</v>
       </c>
       <c r="K337" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -11496,7 +11508,7 @@
         <v>193</v>
       </c>
       <c r="K338" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -11531,7 +11543,7 @@
         <v>157.9</v>
       </c>
       <c r="K339" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -11566,7 +11578,7 @@
         <v>105</v>
       </c>
       <c r="K340" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -11601,7 +11613,7 @@
         <v>105</v>
       </c>
       <c r="K341" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -11636,7 +11648,7 @@
         <v>105</v>
       </c>
       <c r="K342" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -11671,7 +11683,7 @@
         <v>105</v>
       </c>
       <c r="K343" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -11706,7 +11718,7 @@
         <v>120</v>
       </c>
       <c r="K344" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -11741,7 +11753,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K345" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -11776,7 +11788,7 @@
         <v>193</v>
       </c>
       <c r="K346" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -11811,7 +11823,7 @@
         <v>193</v>
       </c>
       <c r="K347" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -11846,7 +11858,7 @@
         <v>193</v>
       </c>
       <c r="K348" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -11881,7 +11893,7 @@
         <v>193</v>
       </c>
       <c r="K349" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -11916,7 +11928,7 @@
         <v>193</v>
       </c>
       <c r="K350" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -11951,7 +11963,7 @@
         <v>157.9</v>
       </c>
       <c r="K351" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -11986,7 +11998,7 @@
         <v>105</v>
       </c>
       <c r="K352" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -12021,7 +12033,7 @@
         <v>105</v>
       </c>
       <c r="K353" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -12056,7 +12068,7 @@
         <v>105</v>
       </c>
       <c r="K354" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -12091,7 +12103,7 @@
         <v>105</v>
       </c>
       <c r="K355" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -12126,7 +12138,7 @@
         <v>105</v>
       </c>
       <c r="K356" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -12161,7 +12173,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K357" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -12196,7 +12208,7 @@
         <v>167.5</v>
       </c>
       <c r="K358" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -12231,7 +12243,7 @@
         <v>107.9</v>
       </c>
       <c r="K359" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -12266,7 +12278,7 @@
         <v>58.5</v>
       </c>
       <c r="K360" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -12301,7 +12313,7 @@
         <v>85</v>
       </c>
       <c r="K361" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -12336,7 +12348,7 @@
         <v>85</v>
       </c>
       <c r="K362" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -12371,7 +12383,7 @@
         <v>85</v>
       </c>
       <c r="K363" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -12385,7 +12397,7 @@
         <v>21</v>
       </c>
       <c r="K364" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -12402,7 +12414,7 @@
         <v>77</v>
       </c>
       <c r="K365" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -12437,7 +12449,7 @@
         <v>85</v>
       </c>
       <c r="K366" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -12472,7 +12484,7 @@
         <v>85</v>
       </c>
       <c r="K367" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -12507,7 +12519,7 @@
         <v>60</v>
       </c>
       <c r="K368" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -12542,7 +12554,7 @@
         <v>46.4</v>
       </c>
       <c r="K369" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -12556,7 +12568,7 @@
         <v>21</v>
       </c>
       <c r="K370" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -12570,7 +12582,7 @@
         <v>25</v>
       </c>
       <c r="K371" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -12605,7 +12617,7 @@
         <v>60.4</v>
       </c>
       <c r="K372" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -12619,7 +12631,7 @@
         <v>21</v>
       </c>
       <c r="K373" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -12654,7 +12666,7 @@
         <v>62.5</v>
       </c>
       <c r="K374" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -12689,7 +12701,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K375" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -12724,7 +12736,7 @@
         <v>73</v>
       </c>
       <c r="K376" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -12759,7 +12771,7 @@
         <v>50</v>
       </c>
       <c r="K377" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -12794,7 +12806,7 @@
         <v>30</v>
       </c>
       <c r="K378" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -12829,7 +12841,7 @@
         <v>105</v>
       </c>
       <c r="K379" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -12864,7 +12876,7 @@
         <v>87.5</v>
       </c>
       <c r="K380" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -12899,7 +12911,7 @@
         <v>52.5</v>
       </c>
       <c r="K381" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -12934,7 +12946,7 @@
         <v>58.5</v>
       </c>
       <c r="K382" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -12948,7 +12960,7 @@
         <v>17</v>
       </c>
       <c r="K383" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -12983,7 +12995,7 @@
         <v>60</v>
       </c>
       <c r="K384" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -13018,7 +13030,7 @@
         <v>60</v>
       </c>
       <c r="K385" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -13053,7 +13065,7 @@
         <v>60</v>
       </c>
       <c r="K386" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -13088,7 +13100,7 @@
         <v>60</v>
       </c>
       <c r="K387" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -13123,7 +13135,7 @@
         <v>60</v>
       </c>
       <c r="K388" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -13158,7 +13170,7 @@
         <v>60</v>
       </c>
       <c r="K389" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -13193,7 +13205,7 @@
         <v>60</v>
       </c>
       <c r="K390" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -13228,7 +13240,7 @@
         <v>60</v>
       </c>
       <c r="K391" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -13263,7 +13275,7 @@
         <v>60</v>
       </c>
       <c r="K392" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -13298,7 +13310,7 @@
         <v>60</v>
       </c>
       <c r="K393" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -13312,7 +13324,7 @@
         <v>17</v>
       </c>
       <c r="K394" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -13347,7 +13359,7 @@
         <v>110.5</v>
       </c>
       <c r="K395" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -13382,7 +13394,7 @@
         <v>110.5</v>
       </c>
       <c r="K396" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -13417,7 +13429,7 @@
         <v>110.5</v>
       </c>
       <c r="K397" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -13452,7 +13464,7 @@
         <v>110.5</v>
       </c>
       <c r="K398" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -13487,7 +13499,7 @@
         <v>110.5</v>
       </c>
       <c r="K399" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -13522,7 +13534,7 @@
         <v>110.5</v>
       </c>
       <c r="K400" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -13557,7 +13569,7 @@
         <v>110.5</v>
       </c>
       <c r="K401" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -13592,7 +13604,7 @@
         <v>110.5</v>
       </c>
       <c r="K402" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -13627,7 +13639,7 @@
         <v>110.5</v>
       </c>
       <c r="K403" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -13662,7 +13674,7 @@
         <v>50</v>
       </c>
       <c r="K404" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -13697,7 +13709,7 @@
         <v>50</v>
       </c>
       <c r="K405" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -13732,7 +13744,7 @@
         <v>105</v>
       </c>
       <c r="K406" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -13767,7 +13779,7 @@
         <v>243</v>
       </c>
       <c r="K407" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -13802,7 +13814,7 @@
         <v>243</v>
       </c>
       <c r="K408" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -13837,7 +13849,7 @@
         <v>255.5</v>
       </c>
       <c r="K409" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -13872,7 +13884,7 @@
         <v>255.5</v>
       </c>
       <c r="K410" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -13907,7 +13919,7 @@
         <v>255.5</v>
       </c>
       <c r="K411" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -13942,7 +13954,7 @@
         <v>87.5</v>
       </c>
       <c r="K412" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -13977,7 +13989,7 @@
         <v>157.9</v>
       </c>
       <c r="K413" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -14012,7 +14024,7 @@
         <v>62.5</v>
       </c>
       <c r="K414" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -14047,7 +14059,7 @@
         <v>62.5</v>
       </c>
       <c r="K415" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -14082,7 +14094,7 @@
         <v>193</v>
       </c>
       <c r="K416" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -14117,7 +14129,7 @@
         <v>193</v>
       </c>
       <c r="K417" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -14152,7 +14164,7 @@
         <v>193</v>
       </c>
       <c r="K418" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -14187,7 +14199,7 @@
         <v>193</v>
       </c>
       <c r="K419" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -14222,7 +14234,7 @@
         <v>240.5</v>
       </c>
       <c r="K420" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -14257,7 +14269,7 @@
         <v>157.9</v>
       </c>
       <c r="K421" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -14292,7 +14304,7 @@
         <v>157.9</v>
       </c>
       <c r="K422" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -14327,7 +14339,7 @@
         <v>62.5</v>
       </c>
       <c r="K423" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -14362,7 +14374,7 @@
         <v>102.9</v>
       </c>
       <c r="K424" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -14397,7 +14409,7 @@
         <v>193</v>
       </c>
       <c r="K425" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -14432,7 +14444,7 @@
         <v>193</v>
       </c>
       <c r="K426" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -14467,7 +14479,7 @@
         <v>193</v>
       </c>
       <c r="K427" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="428" spans="1:11">
@@ -14502,7 +14514,7 @@
         <v>193</v>
       </c>
       <c r="K428" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="429" spans="1:11">
@@ -14537,7 +14549,7 @@
         <v>193</v>
       </c>
       <c r="K429" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="430" spans="1:11">
@@ -14572,7 +14584,7 @@
         <v>157.9</v>
       </c>
       <c r="K430" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="431" spans="1:11">
@@ -14607,7 +14619,7 @@
         <v>52.5</v>
       </c>
       <c r="K431" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -14642,7 +14654,7 @@
         <v>62.5</v>
       </c>
       <c r="K432" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="433" spans="1:11">
@@ -14677,7 +14689,7 @@
         <v>37.5</v>
       </c>
       <c r="K433" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="434" spans="1:11">
@@ -14691,7 +14703,7 @@
         <v>17</v>
       </c>
       <c r="K434" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="435" spans="1:11">
@@ -14726,7 +14738,7 @@
         <v>37.5</v>
       </c>
       <c r="K435" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -14761,7 +14773,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K436" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="437" spans="1:11">
@@ -14775,7 +14787,7 @@
         <v>17</v>
       </c>
       <c r="K437" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="438" spans="1:11">
@@ -14810,7 +14822,7 @@
         <v>45</v>
       </c>
       <c r="K438" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="439" spans="1:11">
@@ -14845,7 +14857,7 @@
         <v>45</v>
       </c>
       <c r="K439" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="440" spans="1:11">
@@ -14880,7 +14892,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K440" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="441" spans="1:11">
@@ -14915,7 +14927,7 @@
         <v>22.5</v>
       </c>
       <c r="K441" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="442" spans="1:11">
@@ -14929,7 +14941,7 @@
         <v>17</v>
       </c>
       <c r="K442" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="443" spans="1:11">
@@ -14964,7 +14976,7 @@
         <v>45</v>
       </c>
       <c r="K443" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="444" spans="1:11">
@@ -14999,7 +15011,7 @@
         <v>45</v>
       </c>
       <c r="K444" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="445" spans="1:11">
@@ -15034,7 +15046,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K445" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="446" spans="1:11">
@@ -15069,7 +15081,7 @@
         <v>22.5</v>
       </c>
       <c r="K446" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="447" spans="1:11">
@@ -15083,7 +15095,7 @@
         <v>17</v>
       </c>
       <c r="K447" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="448" spans="1:11">
@@ -15118,7 +15130,7 @@
         <v>45</v>
       </c>
       <c r="K448" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="449" spans="1:11">
@@ -15153,7 +15165,7 @@
         <v>45</v>
       </c>
       <c r="K449" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -15188,7 +15200,7 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K450" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="451" spans="1:11">
@@ -15223,7 +15235,7 @@
         <v>52.90000000000001</v>
       </c>
       <c r="K451" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -15237,7 +15249,7 @@
         <v>17</v>
       </c>
       <c r="K452" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -15272,7 +15284,7 @@
         <v>45</v>
       </c>
       <c r="K453" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="454" spans="1:11">
@@ -15307,7 +15319,7 @@
         <v>83</v>
       </c>
       <c r="K454" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -15342,7 +15354,7 @@
         <v>83</v>
       </c>
       <c r="K455" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -15377,7 +15389,7 @@
         <v>83</v>
       </c>
       <c r="K456" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -15412,7 +15424,7 @@
         <v>83</v>
       </c>
       <c r="K457" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -15447,7 +15459,7 @@
         <v>83</v>
       </c>
       <c r="K458" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -15482,7 +15494,7 @@
         <v>83</v>
       </c>
       <c r="K459" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -15517,7 +15529,7 @@
         <v>83</v>
       </c>
       <c r="K460" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="461" spans="1:11">
@@ -15552,7 +15564,7 @@
         <v>83</v>
       </c>
       <c r="K461" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -15587,7 +15599,7 @@
         <v>83</v>
       </c>
       <c r="K462" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -15622,7 +15634,7 @@
         <v>83</v>
       </c>
       <c r="K463" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="464" spans="1:11">
@@ -15657,7 +15669,7 @@
         <v>83</v>
       </c>
       <c r="K464" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="465" spans="1:11">
@@ -15692,7 +15704,7 @@
         <v>83</v>
       </c>
       <c r="K465" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="466" spans="1:11">
@@ -15727,7 +15739,2029 @@
         <v>67.90000000000001</v>
       </c>
       <c r="K466" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>23</v>
+      </c>
+      <c r="C467" t="s">
+        <v>17</v>
+      </c>
+      <c r="D467">
+        <v>30.4</v>
+      </c>
+      <c r="E467" t="s">
+        <v>23</v>
+      </c>
+      <c r="F467">
+        <v>302</v>
+      </c>
+      <c r="G467">
+        <v>22.5</v>
+      </c>
+      <c r="H467" t="s">
+        <v>29</v>
+      </c>
+      <c r="I467" t="s">
+        <v>139</v>
+      </c>
+      <c r="J467">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="K467" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>14</v>
+      </c>
+      <c r="C468" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468" t="s">
+        <v>17</v>
+      </c>
+      <c r="F468">
+        <v>250</v>
+      </c>
+      <c r="G468">
+        <v>62.5</v>
+      </c>
+      <c r="H468" t="s">
+        <v>27</v>
+      </c>
+      <c r="I468" t="s">
+        <v>123</v>
+      </c>
+      <c r="J468">
+        <v>62.5</v>
+      </c>
+      <c r="K468" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>14</v>
+      </c>
+      <c r="C469" t="s">
+        <v>14</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469" t="s">
+        <v>17</v>
+      </c>
+      <c r="F469">
+        <v>250</v>
+      </c>
+      <c r="G469">
+        <v>37.5</v>
+      </c>
+      <c r="H469" t="s">
+        <v>28</v>
+      </c>
+      <c r="I469" t="s">
+        <v>123</v>
+      </c>
+      <c r="J469">
+        <v>37.5</v>
+      </c>
+      <c r="K469" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>23</v>
+      </c>
+      <c r="C470" t="s">
+        <v>23</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470" t="s">
+        <v>17</v>
+      </c>
+      <c r="F470">
+        <v>150</v>
+      </c>
+      <c r="G470">
+        <v>37.5</v>
+      </c>
+      <c r="H470" t="s">
+        <v>29</v>
+      </c>
+      <c r="I470" t="s">
+        <v>123</v>
+      </c>
+      <c r="J470">
+        <v>37.5</v>
+      </c>
+      <c r="K470" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" t="s">
+        <v>23</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471" t="s">
+        <v>17</v>
+      </c>
+      <c r="F471">
+        <v>150</v>
+      </c>
+      <c r="G471">
+        <v>22.5</v>
+      </c>
+      <c r="H471" t="s">
+        <v>30</v>
+      </c>
+      <c r="I471" t="s">
+        <v>123</v>
+      </c>
+      <c r="J471">
+        <v>22.5</v>
+      </c>
+      <c r="K471" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>16</v>
+      </c>
+      <c r="C472" t="s">
+        <v>23</v>
+      </c>
+      <c r="D472">
+        <v>10.4</v>
+      </c>
+      <c r="E472" t="s">
+        <v>17</v>
+      </c>
+      <c r="F472">
+        <v>202</v>
+      </c>
+      <c r="G472">
+        <v>37.5</v>
+      </c>
+      <c r="H472" t="s">
+        <v>26</v>
+      </c>
+      <c r="I472" t="s">
+        <v>152</v>
+      </c>
+      <c r="J472">
+        <v>47.9</v>
+      </c>
+      <c r="K472" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>23</v>
+      </c>
+      <c r="C473" t="s">
+        <v>23</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473" t="s">
+        <v>17</v>
+      </c>
+      <c r="F473">
+        <v>150</v>
+      </c>
+      <c r="G473">
+        <v>22.5</v>
+      </c>
+      <c r="H473" t="s">
+        <v>27</v>
+      </c>
+      <c r="I473" t="s">
+        <v>152</v>
+      </c>
+      <c r="J473">
+        <v>22.5</v>
+      </c>
+      <c r="K473" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>16</v>
+      </c>
+      <c r="C474" t="s">
+        <v>14</v>
+      </c>
+      <c r="D474">
+        <v>13</v>
+      </c>
+      <c r="E474" t="s">
+        <v>17</v>
+      </c>
+      <c r="F474">
+        <v>302</v>
+      </c>
+      <c r="G474">
+        <v>75</v>
+      </c>
+      <c r="H474" t="s">
+        <v>26</v>
+      </c>
+      <c r="I474" t="s">
+        <v>123</v>
+      </c>
+      <c r="J474">
+        <v>88</v>
+      </c>
+      <c r="K474" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>14</v>
+      </c>
+      <c r="C475" t="s">
+        <v>14</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475" t="s">
+        <v>17</v>
+      </c>
+      <c r="F475">
+        <v>250</v>
+      </c>
+      <c r="G475">
+        <v>37.5</v>
+      </c>
+      <c r="H475" t="s">
+        <v>31</v>
+      </c>
+      <c r="I475" t="s">
+        <v>123</v>
+      </c>
+      <c r="J475">
+        <v>37.5</v>
+      </c>
+      <c r="K475" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>14</v>
+      </c>
+      <c r="C476" t="s">
+        <v>14</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476" t="s">
+        <v>17</v>
+      </c>
+      <c r="F476">
+        <v>250</v>
+      </c>
+      <c r="G476">
+        <v>37.5</v>
+      </c>
+      <c r="H476" t="s">
+        <v>32</v>
+      </c>
+      <c r="I476" t="s">
+        <v>123</v>
+      </c>
+      <c r="J476">
+        <v>37.5</v>
+      </c>
+      <c r="K476" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="C477" t="s">
+        <v>17</v>
+      </c>
+      <c r="E477" t="s">
+        <v>21</v>
+      </c>
+      <c r="K477" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="C478" t="s">
+        <v>21</v>
+      </c>
+      <c r="E478" t="s">
+        <v>25</v>
+      </c>
+      <c r="F478">
+        <v>1133</v>
+      </c>
+      <c r="K478" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>16</v>
+      </c>
+      <c r="C479" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479">
+        <v>10.4</v>
+      </c>
+      <c r="E479" t="s">
+        <v>17</v>
+      </c>
+      <c r="F479">
+        <v>302</v>
+      </c>
+      <c r="G479">
+        <v>37.5</v>
+      </c>
+      <c r="H479" t="s">
+        <v>34</v>
+      </c>
+      <c r="I479" t="s">
+        <v>123</v>
+      </c>
+      <c r="J479">
+        <v>47.9</v>
+      </c>
+      <c r="K479" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="C480" t="s">
+        <v>17</v>
+      </c>
+      <c r="E480" t="s">
+        <v>21</v>
+      </c>
+      <c r="K480" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="C481" t="s">
+        <v>21</v>
+      </c>
+      <c r="E481" t="s">
+        <v>25</v>
+      </c>
+      <c r="F481">
         <v>160</v>
+      </c>
+      <c r="K481" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>17</v>
+      </c>
+      <c r="C482" t="s">
+        <v>21</v>
+      </c>
+      <c r="D482">
+        <v>88</v>
+      </c>
+      <c r="E482" t="s">
+        <v>17</v>
+      </c>
+      <c r="F482">
+        <v>702</v>
+      </c>
+      <c r="G482">
+        <v>105</v>
+      </c>
+      <c r="H482" t="s">
+        <v>26</v>
+      </c>
+      <c r="I482" t="s">
+        <v>153</v>
+      </c>
+      <c r="J482">
+        <v>193</v>
+      </c>
+      <c r="K482" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>23</v>
+      </c>
+      <c r="C483" t="s">
+        <v>21</v>
+      </c>
+      <c r="D483">
+        <v>125.5</v>
+      </c>
+      <c r="E483" t="s">
+        <v>17</v>
+      </c>
+      <c r="F483">
+        <v>852</v>
+      </c>
+      <c r="G483">
+        <v>105</v>
+      </c>
+      <c r="H483" t="s">
+        <v>27</v>
+      </c>
+      <c r="I483" t="s">
+        <v>153</v>
+      </c>
+      <c r="J483">
+        <v>230.5</v>
+      </c>
+      <c r="K483" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>23</v>
+      </c>
+      <c r="C484" t="s">
+        <v>21</v>
+      </c>
+      <c r="D484">
+        <v>125.5</v>
+      </c>
+      <c r="E484" t="s">
+        <v>17</v>
+      </c>
+      <c r="F484">
+        <v>852</v>
+      </c>
+      <c r="G484">
+        <v>105</v>
+      </c>
+      <c r="H484" t="s">
+        <v>28</v>
+      </c>
+      <c r="I484" t="s">
+        <v>153</v>
+      </c>
+      <c r="J484">
+        <v>230.5</v>
+      </c>
+      <c r="K484" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>23</v>
+      </c>
+      <c r="C485" t="s">
+        <v>21</v>
+      </c>
+      <c r="D485">
+        <v>125.5</v>
+      </c>
+      <c r="E485" t="s">
+        <v>17</v>
+      </c>
+      <c r="F485">
+        <v>852</v>
+      </c>
+      <c r="G485">
+        <v>105</v>
+      </c>
+      <c r="H485" t="s">
+        <v>29</v>
+      </c>
+      <c r="I485" t="s">
+        <v>153</v>
+      </c>
+      <c r="J485">
+        <v>230.5</v>
+      </c>
+      <c r="K485" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>23</v>
+      </c>
+      <c r="C486" t="s">
+        <v>21</v>
+      </c>
+      <c r="D486">
+        <v>125.5</v>
+      </c>
+      <c r="E486" t="s">
+        <v>17</v>
+      </c>
+      <c r="F486">
+        <v>852</v>
+      </c>
+      <c r="G486">
+        <v>105</v>
+      </c>
+      <c r="H486" t="s">
+        <v>30</v>
+      </c>
+      <c r="I486" t="s">
+        <v>153</v>
+      </c>
+      <c r="J486">
+        <v>230.5</v>
+      </c>
+      <c r="K486" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>23</v>
+      </c>
+      <c r="C487" t="s">
+        <v>21</v>
+      </c>
+      <c r="D487">
+        <v>125.5</v>
+      </c>
+      <c r="E487" t="s">
+        <v>17</v>
+      </c>
+      <c r="F487">
+        <v>852</v>
+      </c>
+      <c r="G487">
+        <v>105</v>
+      </c>
+      <c r="H487" t="s">
+        <v>31</v>
+      </c>
+      <c r="I487" t="s">
+        <v>153</v>
+      </c>
+      <c r="J487">
+        <v>230.5</v>
+      </c>
+      <c r="K487" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>23</v>
+      </c>
+      <c r="C488" t="s">
+        <v>21</v>
+      </c>
+      <c r="D488">
+        <v>125.5</v>
+      </c>
+      <c r="E488" t="s">
+        <v>17</v>
+      </c>
+      <c r="F488">
+        <v>852</v>
+      </c>
+      <c r="G488">
+        <v>105</v>
+      </c>
+      <c r="H488" t="s">
+        <v>32</v>
+      </c>
+      <c r="I488" t="s">
+        <v>153</v>
+      </c>
+      <c r="J488">
+        <v>230.5</v>
+      </c>
+      <c r="K488" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>23</v>
+      </c>
+      <c r="C489" t="s">
+        <v>21</v>
+      </c>
+      <c r="D489">
+        <v>125.5</v>
+      </c>
+      <c r="E489" t="s">
+        <v>17</v>
+      </c>
+      <c r="F489">
+        <v>852</v>
+      </c>
+      <c r="G489">
+        <v>105</v>
+      </c>
+      <c r="H489" t="s">
+        <v>33</v>
+      </c>
+      <c r="I489" t="s">
+        <v>153</v>
+      </c>
+      <c r="J489">
+        <v>230.5</v>
+      </c>
+      <c r="K489" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>16</v>
+      </c>
+      <c r="C490" t="s">
+        <v>21</v>
+      </c>
+      <c r="D490">
+        <v>138</v>
+      </c>
+      <c r="E490" t="s">
+        <v>17</v>
+      </c>
+      <c r="F490">
+        <v>902</v>
+      </c>
+      <c r="G490">
+        <v>105</v>
+      </c>
+      <c r="H490" t="s">
+        <v>34</v>
+      </c>
+      <c r="I490" t="s">
+        <v>153</v>
+      </c>
+      <c r="J490">
+        <v>243</v>
+      </c>
+      <c r="K490" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>16</v>
+      </c>
+      <c r="C491" t="s">
+        <v>17</v>
+      </c>
+      <c r="D491">
+        <v>50.5</v>
+      </c>
+      <c r="E491" t="s">
+        <v>20</v>
+      </c>
+      <c r="F491">
+        <v>392</v>
+      </c>
+      <c r="G491">
+        <v>57</v>
+      </c>
+      <c r="H491" t="s">
+        <v>35</v>
+      </c>
+      <c r="I491" t="s">
+        <v>153</v>
+      </c>
+      <c r="J491">
+        <v>107.5</v>
+      </c>
+      <c r="K491" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>16</v>
+      </c>
+      <c r="C492" t="s">
+        <v>17</v>
+      </c>
+      <c r="D492">
+        <v>50.5</v>
+      </c>
+      <c r="E492" t="s">
+        <v>20</v>
+      </c>
+      <c r="F492">
+        <v>392</v>
+      </c>
+      <c r="G492">
+        <v>57</v>
+      </c>
+      <c r="H492" t="s">
+        <v>36</v>
+      </c>
+      <c r="I492" t="s">
+        <v>153</v>
+      </c>
+      <c r="J492">
+        <v>107.5</v>
+      </c>
+      <c r="K492" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>16</v>
+      </c>
+      <c r="C493" t="s">
+        <v>17</v>
+      </c>
+      <c r="D493">
+        <v>50.5</v>
+      </c>
+      <c r="E493" t="s">
+        <v>20</v>
+      </c>
+      <c r="F493">
+        <v>392</v>
+      </c>
+      <c r="G493">
+        <v>57</v>
+      </c>
+      <c r="H493" t="s">
+        <v>37</v>
+      </c>
+      <c r="I493" t="s">
+        <v>153</v>
+      </c>
+      <c r="J493">
+        <v>107.5</v>
+      </c>
+      <c r="K493" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>16</v>
+      </c>
+      <c r="C494" t="s">
+        <v>17</v>
+      </c>
+      <c r="D494">
+        <v>50.5</v>
+      </c>
+      <c r="E494" t="s">
+        <v>20</v>
+      </c>
+      <c r="F494">
+        <v>392</v>
+      </c>
+      <c r="G494">
+        <v>57</v>
+      </c>
+      <c r="H494" t="s">
+        <v>37</v>
+      </c>
+      <c r="I494" t="s">
+        <v>153</v>
+      </c>
+      <c r="J494">
+        <v>107.5</v>
+      </c>
+      <c r="K494" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>16</v>
+      </c>
+      <c r="C495" t="s">
+        <v>17</v>
+      </c>
+      <c r="D495">
+        <v>50.5</v>
+      </c>
+      <c r="E495" t="s">
+        <v>20</v>
+      </c>
+      <c r="F495">
+        <v>392</v>
+      </c>
+      <c r="G495">
+        <v>57</v>
+      </c>
+      <c r="H495" t="s">
+        <v>37</v>
+      </c>
+      <c r="I495" t="s">
+        <v>153</v>
+      </c>
+      <c r="J495">
+        <v>107.5</v>
+      </c>
+      <c r="K495" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>16</v>
+      </c>
+      <c r="C496" t="s">
+        <v>17</v>
+      </c>
+      <c r="D496">
+        <v>50.5</v>
+      </c>
+      <c r="E496" t="s">
+        <v>20</v>
+      </c>
+      <c r="F496">
+        <v>392</v>
+      </c>
+      <c r="G496">
+        <v>57</v>
+      </c>
+      <c r="H496" t="s">
+        <v>37</v>
+      </c>
+      <c r="I496" t="s">
+        <v>153</v>
+      </c>
+      <c r="J496">
+        <v>107.5</v>
+      </c>
+      <c r="K496" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>17</v>
+      </c>
+      <c r="C497" t="s">
+        <v>21</v>
+      </c>
+      <c r="D497">
+        <v>88</v>
+      </c>
+      <c r="E497" t="s">
+        <v>17</v>
+      </c>
+      <c r="F497">
+        <v>702</v>
+      </c>
+      <c r="G497">
+        <v>105</v>
+      </c>
+      <c r="H497" t="s">
+        <v>26</v>
+      </c>
+      <c r="I497" t="s">
+        <v>154</v>
+      </c>
+      <c r="J497">
+        <v>193</v>
+      </c>
+      <c r="K497" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>17</v>
+      </c>
+      <c r="C498" t="s">
+        <v>21</v>
+      </c>
+      <c r="D498">
+        <v>88</v>
+      </c>
+      <c r="E498" t="s">
+        <v>17</v>
+      </c>
+      <c r="F498">
+        <v>702</v>
+      </c>
+      <c r="G498">
+        <v>105</v>
+      </c>
+      <c r="H498" t="s">
+        <v>27</v>
+      </c>
+      <c r="I498" t="s">
+        <v>154</v>
+      </c>
+      <c r="J498">
+        <v>193</v>
+      </c>
+      <c r="K498" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>17</v>
+      </c>
+      <c r="C499" t="s">
+        <v>21</v>
+      </c>
+      <c r="D499">
+        <v>88</v>
+      </c>
+      <c r="E499" t="s">
+        <v>17</v>
+      </c>
+      <c r="F499">
+        <v>702</v>
+      </c>
+      <c r="G499">
+        <v>105</v>
+      </c>
+      <c r="H499" t="s">
+        <v>28</v>
+      </c>
+      <c r="I499" t="s">
+        <v>154</v>
+      </c>
+      <c r="J499">
+        <v>193</v>
+      </c>
+      <c r="K499" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>17</v>
+      </c>
+      <c r="C500" t="s">
+        <v>21</v>
+      </c>
+      <c r="D500">
+        <v>88</v>
+      </c>
+      <c r="E500" t="s">
+        <v>17</v>
+      </c>
+      <c r="F500">
+        <v>702</v>
+      </c>
+      <c r="G500">
+        <v>105</v>
+      </c>
+      <c r="H500" t="s">
+        <v>29</v>
+      </c>
+      <c r="I500" t="s">
+        <v>154</v>
+      </c>
+      <c r="J500">
+        <v>193</v>
+      </c>
+      <c r="K500" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>17</v>
+      </c>
+      <c r="C501" t="s">
+        <v>21</v>
+      </c>
+      <c r="D501">
+        <v>88</v>
+      </c>
+      <c r="E501" t="s">
+        <v>17</v>
+      </c>
+      <c r="F501">
+        <v>702</v>
+      </c>
+      <c r="G501">
+        <v>105</v>
+      </c>
+      <c r="H501" t="s">
+        <v>30</v>
+      </c>
+      <c r="I501" t="s">
+        <v>154</v>
+      </c>
+      <c r="J501">
+        <v>193</v>
+      </c>
+      <c r="K501" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>17</v>
+      </c>
+      <c r="C502" t="s">
+        <v>21</v>
+      </c>
+      <c r="D502">
+        <v>88</v>
+      </c>
+      <c r="E502" t="s">
+        <v>17</v>
+      </c>
+      <c r="F502">
+        <v>702</v>
+      </c>
+      <c r="G502">
+        <v>105</v>
+      </c>
+      <c r="H502" t="s">
+        <v>31</v>
+      </c>
+      <c r="I502" t="s">
+        <v>154</v>
+      </c>
+      <c r="J502">
+        <v>193</v>
+      </c>
+      <c r="K502" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>17</v>
+      </c>
+      <c r="C503" t="s">
+        <v>21</v>
+      </c>
+      <c r="D503">
+        <v>88</v>
+      </c>
+      <c r="E503" t="s">
+        <v>17</v>
+      </c>
+      <c r="F503">
+        <v>702</v>
+      </c>
+      <c r="G503">
+        <v>105</v>
+      </c>
+      <c r="H503" t="s">
+        <v>32</v>
+      </c>
+      <c r="I503" t="s">
+        <v>154</v>
+      </c>
+      <c r="J503">
+        <v>193</v>
+      </c>
+      <c r="K503" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>17</v>
+      </c>
+      <c r="C504" t="s">
+        <v>21</v>
+      </c>
+      <c r="D504">
+        <v>88</v>
+      </c>
+      <c r="E504" t="s">
+        <v>17</v>
+      </c>
+      <c r="F504">
+        <v>702</v>
+      </c>
+      <c r="G504">
+        <v>105</v>
+      </c>
+      <c r="H504" t="s">
+        <v>33</v>
+      </c>
+      <c r="I504" t="s">
+        <v>154</v>
+      </c>
+      <c r="J504">
+        <v>193</v>
+      </c>
+      <c r="K504" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>17</v>
+      </c>
+      <c r="C505" t="s">
+        <v>21</v>
+      </c>
+      <c r="D505">
+        <v>88</v>
+      </c>
+      <c r="E505" t="s">
+        <v>17</v>
+      </c>
+      <c r="F505">
+        <v>702</v>
+      </c>
+      <c r="G505">
+        <v>105</v>
+      </c>
+      <c r="H505" t="s">
+        <v>34</v>
+      </c>
+      <c r="I505" t="s">
+        <v>154</v>
+      </c>
+      <c r="J505">
+        <v>193</v>
+      </c>
+      <c r="K505" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>20</v>
+      </c>
+      <c r="C506" t="s">
+        <v>17</v>
+      </c>
+      <c r="D506">
+        <v>48</v>
+      </c>
+      <c r="E506" t="s">
+        <v>20</v>
+      </c>
+      <c r="F506">
+        <v>382</v>
+      </c>
+      <c r="G506">
+        <v>57</v>
+      </c>
+      <c r="H506" t="s">
+        <v>35</v>
+      </c>
+      <c r="I506" t="s">
+        <v>154</v>
+      </c>
+      <c r="J506">
+        <v>105</v>
+      </c>
+      <c r="K506" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>20</v>
+      </c>
+      <c r="C507" t="s">
+        <v>17</v>
+      </c>
+      <c r="D507">
+        <v>48</v>
+      </c>
+      <c r="E507" t="s">
+        <v>20</v>
+      </c>
+      <c r="F507">
+        <v>382</v>
+      </c>
+      <c r="G507">
+        <v>57</v>
+      </c>
+      <c r="H507" t="s">
+        <v>36</v>
+      </c>
+      <c r="I507" t="s">
+        <v>154</v>
+      </c>
+      <c r="J507">
+        <v>105</v>
+      </c>
+      <c r="K507" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>20</v>
+      </c>
+      <c r="C508" t="s">
+        <v>17</v>
+      </c>
+      <c r="D508">
+        <v>48</v>
+      </c>
+      <c r="E508" t="s">
+        <v>20</v>
+      </c>
+      <c r="F508">
+        <v>382</v>
+      </c>
+      <c r="G508">
+        <v>57</v>
+      </c>
+      <c r="H508" t="s">
+        <v>37</v>
+      </c>
+      <c r="I508" t="s">
+        <v>154</v>
+      </c>
+      <c r="J508">
+        <v>105</v>
+      </c>
+      <c r="K508" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>20</v>
+      </c>
+      <c r="C509" t="s">
+        <v>17</v>
+      </c>
+      <c r="D509">
+        <v>48</v>
+      </c>
+      <c r="E509" t="s">
+        <v>20</v>
+      </c>
+      <c r="F509">
+        <v>382</v>
+      </c>
+      <c r="G509">
+        <v>57</v>
+      </c>
+      <c r="H509" t="s">
+        <v>37</v>
+      </c>
+      <c r="I509" t="s">
+        <v>154</v>
+      </c>
+      <c r="J509">
+        <v>105</v>
+      </c>
+      <c r="K509" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>20</v>
+      </c>
+      <c r="C510" t="s">
+        <v>17</v>
+      </c>
+      <c r="D510">
+        <v>48</v>
+      </c>
+      <c r="E510" t="s">
+        <v>20</v>
+      </c>
+      <c r="F510">
+        <v>382</v>
+      </c>
+      <c r="G510">
+        <v>57</v>
+      </c>
+      <c r="H510" t="s">
+        <v>37</v>
+      </c>
+      <c r="I510" t="s">
+        <v>154</v>
+      </c>
+      <c r="J510">
+        <v>105</v>
+      </c>
+      <c r="K510" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>20</v>
+      </c>
+      <c r="C511" t="s">
+        <v>17</v>
+      </c>
+      <c r="D511">
+        <v>48</v>
+      </c>
+      <c r="E511" t="s">
+        <v>20</v>
+      </c>
+      <c r="F511">
+        <v>382</v>
+      </c>
+      <c r="G511">
+        <v>57</v>
+      </c>
+      <c r="H511" t="s">
+        <v>37</v>
+      </c>
+      <c r="I511" t="s">
+        <v>154</v>
+      </c>
+      <c r="J511">
+        <v>105</v>
+      </c>
+      <c r="K511" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>17</v>
+      </c>
+      <c r="C512" t="s">
+        <v>21</v>
+      </c>
+      <c r="D512">
+        <v>88</v>
+      </c>
+      <c r="E512" t="s">
+        <v>17</v>
+      </c>
+      <c r="F512">
+        <v>702</v>
+      </c>
+      <c r="G512">
+        <v>105</v>
+      </c>
+      <c r="H512" t="s">
+        <v>26</v>
+      </c>
+      <c r="I512" t="s">
+        <v>155</v>
+      </c>
+      <c r="J512">
+        <v>193</v>
+      </c>
+      <c r="K512" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>17</v>
+      </c>
+      <c r="C513" t="s">
+        <v>21</v>
+      </c>
+      <c r="D513">
+        <v>88</v>
+      </c>
+      <c r="E513" t="s">
+        <v>17</v>
+      </c>
+      <c r="F513">
+        <v>702</v>
+      </c>
+      <c r="G513">
+        <v>105</v>
+      </c>
+      <c r="H513" t="s">
+        <v>27</v>
+      </c>
+      <c r="I513" t="s">
+        <v>155</v>
+      </c>
+      <c r="J513">
+        <v>193</v>
+      </c>
+      <c r="K513" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>17</v>
+      </c>
+      <c r="C514" t="s">
+        <v>21</v>
+      </c>
+      <c r="D514">
+        <v>88</v>
+      </c>
+      <c r="E514" t="s">
+        <v>17</v>
+      </c>
+      <c r="F514">
+        <v>702</v>
+      </c>
+      <c r="G514">
+        <v>105</v>
+      </c>
+      <c r="H514" t="s">
+        <v>28</v>
+      </c>
+      <c r="I514" t="s">
+        <v>155</v>
+      </c>
+      <c r="J514">
+        <v>193</v>
+      </c>
+      <c r="K514" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>17</v>
+      </c>
+      <c r="C515" t="s">
+        <v>21</v>
+      </c>
+      <c r="D515">
+        <v>88</v>
+      </c>
+      <c r="E515" t="s">
+        <v>17</v>
+      </c>
+      <c r="F515">
+        <v>702</v>
+      </c>
+      <c r="G515">
+        <v>105</v>
+      </c>
+      <c r="H515" t="s">
+        <v>29</v>
+      </c>
+      <c r="I515" t="s">
+        <v>155</v>
+      </c>
+      <c r="J515">
+        <v>193</v>
+      </c>
+      <c r="K515" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>17</v>
+      </c>
+      <c r="C516" t="s">
+        <v>21</v>
+      </c>
+      <c r="D516">
+        <v>88</v>
+      </c>
+      <c r="E516" t="s">
+        <v>17</v>
+      </c>
+      <c r="F516">
+        <v>702</v>
+      </c>
+      <c r="G516">
+        <v>105</v>
+      </c>
+      <c r="H516" t="s">
+        <v>30</v>
+      </c>
+      <c r="I516" t="s">
+        <v>155</v>
+      </c>
+      <c r="J516">
+        <v>193</v>
+      </c>
+      <c r="K516" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>17</v>
+      </c>
+      <c r="C517" t="s">
+        <v>21</v>
+      </c>
+      <c r="D517">
+        <v>88</v>
+      </c>
+      <c r="E517" t="s">
+        <v>17</v>
+      </c>
+      <c r="F517">
+        <v>702</v>
+      </c>
+      <c r="G517">
+        <v>105</v>
+      </c>
+      <c r="H517" t="s">
+        <v>31</v>
+      </c>
+      <c r="I517" t="s">
+        <v>155</v>
+      </c>
+      <c r="J517">
+        <v>193</v>
+      </c>
+      <c r="K517" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>17</v>
+      </c>
+      <c r="C518" t="s">
+        <v>21</v>
+      </c>
+      <c r="D518">
+        <v>88</v>
+      </c>
+      <c r="E518" t="s">
+        <v>17</v>
+      </c>
+      <c r="F518">
+        <v>702</v>
+      </c>
+      <c r="G518">
+        <v>105</v>
+      </c>
+      <c r="H518" t="s">
+        <v>32</v>
+      </c>
+      <c r="I518" t="s">
+        <v>155</v>
+      </c>
+      <c r="J518">
+        <v>193</v>
+      </c>
+      <c r="K518" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>17</v>
+      </c>
+      <c r="C519" t="s">
+        <v>21</v>
+      </c>
+      <c r="D519">
+        <v>88</v>
+      </c>
+      <c r="E519" t="s">
+        <v>17</v>
+      </c>
+      <c r="F519">
+        <v>702</v>
+      </c>
+      <c r="G519">
+        <v>105</v>
+      </c>
+      <c r="H519" t="s">
+        <v>33</v>
+      </c>
+      <c r="I519" t="s">
+        <v>155</v>
+      </c>
+      <c r="J519">
+        <v>193</v>
+      </c>
+      <c r="K519" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>17</v>
+      </c>
+      <c r="C520" t="s">
+        <v>21</v>
+      </c>
+      <c r="D520">
+        <v>88</v>
+      </c>
+      <c r="E520" t="s">
+        <v>17</v>
+      </c>
+      <c r="F520">
+        <v>702</v>
+      </c>
+      <c r="G520">
+        <v>105</v>
+      </c>
+      <c r="H520" t="s">
+        <v>34</v>
+      </c>
+      <c r="I520" t="s">
+        <v>155</v>
+      </c>
+      <c r="J520">
+        <v>193</v>
+      </c>
+      <c r="K520" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>20</v>
+      </c>
+      <c r="C521" t="s">
+        <v>17</v>
+      </c>
+      <c r="D521">
+        <v>48</v>
+      </c>
+      <c r="E521" t="s">
+        <v>20</v>
+      </c>
+      <c r="F521">
+        <v>382</v>
+      </c>
+      <c r="G521">
+        <v>57</v>
+      </c>
+      <c r="H521" t="s">
+        <v>35</v>
+      </c>
+      <c r="I521" t="s">
+        <v>155</v>
+      </c>
+      <c r="J521">
+        <v>105</v>
+      </c>
+      <c r="K521" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>20</v>
+      </c>
+      <c r="C522" t="s">
+        <v>17</v>
+      </c>
+      <c r="D522">
+        <v>48</v>
+      </c>
+      <c r="E522" t="s">
+        <v>20</v>
+      </c>
+      <c r="F522">
+        <v>382</v>
+      </c>
+      <c r="G522">
+        <v>57</v>
+      </c>
+      <c r="H522" t="s">
+        <v>36</v>
+      </c>
+      <c r="I522" t="s">
+        <v>155</v>
+      </c>
+      <c r="J522">
+        <v>105</v>
+      </c>
+      <c r="K522" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>20</v>
+      </c>
+      <c r="C523" t="s">
+        <v>17</v>
+      </c>
+      <c r="D523">
+        <v>48</v>
+      </c>
+      <c r="E523" t="s">
+        <v>20</v>
+      </c>
+      <c r="F523">
+        <v>382</v>
+      </c>
+      <c r="G523">
+        <v>57</v>
+      </c>
+      <c r="H523" t="s">
+        <v>37</v>
+      </c>
+      <c r="I523" t="s">
+        <v>155</v>
+      </c>
+      <c r="J523">
+        <v>105</v>
+      </c>
+      <c r="K523" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>20</v>
+      </c>
+      <c r="C524" t="s">
+        <v>17</v>
+      </c>
+      <c r="D524">
+        <v>48</v>
+      </c>
+      <c r="E524" t="s">
+        <v>20</v>
+      </c>
+      <c r="F524">
+        <v>382</v>
+      </c>
+      <c r="G524">
+        <v>57</v>
+      </c>
+      <c r="H524" t="s">
+        <v>37</v>
+      </c>
+      <c r="I524" t="s">
+        <v>155</v>
+      </c>
+      <c r="J524">
+        <v>105</v>
+      </c>
+      <c r="K524" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>20</v>
+      </c>
+      <c r="C525" t="s">
+        <v>17</v>
+      </c>
+      <c r="D525">
+        <v>48</v>
+      </c>
+      <c r="E525" t="s">
+        <v>20</v>
+      </c>
+      <c r="F525">
+        <v>382</v>
+      </c>
+      <c r="G525">
+        <v>57</v>
+      </c>
+      <c r="H525" t="s">
+        <v>37</v>
+      </c>
+      <c r="I525" t="s">
+        <v>155</v>
+      </c>
+      <c r="J525">
+        <v>105</v>
+      </c>
+      <c r="K525" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>20</v>
+      </c>
+      <c r="C526" t="s">
+        <v>17</v>
+      </c>
+      <c r="D526">
+        <v>48</v>
+      </c>
+      <c r="E526" t="s">
+        <v>20</v>
+      </c>
+      <c r="F526">
+        <v>382</v>
+      </c>
+      <c r="G526">
+        <v>57</v>
+      </c>
+      <c r="H526" t="s">
+        <v>37</v>
+      </c>
+      <c r="I526" t="s">
+        <v>155</v>
+      </c>
+      <c r="J526">
+        <v>105</v>
+      </c>
+      <c r="K526" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
